--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58600</v>
+        <v>58850</v>
       </c>
       <c r="C2" t="n">
-        <v>58600</v>
+        <v>58850</v>
       </c>
       <c r="D2" t="n">
-        <v>58600</v>
+        <v>58850</v>
       </c>
       <c r="E2" t="n">
-        <v>58600</v>
+        <v>58850</v>
       </c>
       <c r="F2" t="n">
-        <v>21.7967</v>
+        <v>27.961</v>
       </c>
       <c r="G2" t="n">
-        <v>58324.16666666666</v>
+        <v>58295.83333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>58600</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1283</v>
+        <v>21.7967</v>
       </c>
       <c r="G3" t="n">
-        <v>58352.5</v>
+        <v>58324.16666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>58550</v>
+        <v>58600</v>
       </c>
       <c r="C4" t="n">
         <v>58600</v>
@@ -512,13 +512,13 @@
         <v>58600</v>
       </c>
       <c r="E4" t="n">
-        <v>58550</v>
+        <v>58600</v>
       </c>
       <c r="F4" t="n">
-        <v>19.8</v>
+        <v>0.1283</v>
       </c>
       <c r="G4" t="n">
-        <v>58380</v>
+        <v>58352.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58300</v>
+        <v>58550</v>
       </c>
       <c r="C5" t="n">
-        <v>58300</v>
+        <v>58600</v>
       </c>
       <c r="D5" t="n">
-        <v>58300</v>
+        <v>58600</v>
       </c>
       <c r="E5" t="n">
-        <v>58300</v>
+        <v>58550</v>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>19.8</v>
       </c>
       <c r="G5" t="n">
-        <v>58405.83333333334</v>
+        <v>58380</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58250</v>
+        <v>58300</v>
       </c>
       <c r="C6" t="n">
-        <v>58250</v>
+        <v>58300</v>
       </c>
       <c r="D6" t="n">
-        <v>58250</v>
+        <v>58300</v>
       </c>
       <c r="E6" t="n">
-        <v>58250</v>
+        <v>58300</v>
       </c>
       <c r="F6" t="n">
-        <v>8.8835</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>58430.83333333334</v>
+        <v>58405.83333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>58250</v>
       </c>
       <c r="C7" t="n">
-        <v>58000</v>
+        <v>58250</v>
       </c>
       <c r="D7" t="n">
-        <v>58300</v>
+        <v>58250</v>
       </c>
       <c r="E7" t="n">
-        <v>58000</v>
+        <v>58250</v>
       </c>
       <c r="F7" t="n">
-        <v>18.9278</v>
+        <v>8.8835</v>
       </c>
       <c r="G7" t="n">
-        <v>58446.66666666666</v>
+        <v>58430.83333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57950</v>
+        <v>58250</v>
       </c>
       <c r="C8" t="n">
-        <v>57950</v>
+        <v>58000</v>
       </c>
       <c r="D8" t="n">
-        <v>57950</v>
+        <v>58300</v>
       </c>
       <c r="E8" t="n">
-        <v>57950</v>
+        <v>58000</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3867</v>
+        <v>18.9278</v>
       </c>
       <c r="G8" t="n">
-        <v>58464.16666666666</v>
+        <v>58446.66666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>57950</v>
       </c>
       <c r="F9" t="n">
-        <v>8.613300000000001</v>
+        <v>1.3867</v>
       </c>
       <c r="G9" t="n">
-        <v>58480</v>
+        <v>58464.16666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57900</v>
+        <v>57950</v>
       </c>
       <c r="C10" t="n">
-        <v>57900</v>
+        <v>57950</v>
       </c>
       <c r="D10" t="n">
-        <v>57900</v>
+        <v>57950</v>
       </c>
       <c r="E10" t="n">
-        <v>57900</v>
+        <v>57950</v>
       </c>
       <c r="F10" t="n">
-        <v>2.2458</v>
+        <v>8.613300000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>58493.33333333334</v>
+        <v>58480</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>57900</v>
       </c>
       <c r="C11" t="n">
-        <v>57850</v>
+        <v>57900</v>
       </c>
       <c r="D11" t="n">
         <v>57900</v>
       </c>
       <c r="E11" t="n">
-        <v>57850</v>
+        <v>57900</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1799</v>
+        <v>2.2458</v>
       </c>
       <c r="G11" t="n">
-        <v>58502.5</v>
+        <v>58493.33333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="C12" t="n">
         <v>57850</v>
       </c>
       <c r="D12" t="n">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="E12" t="n">
         <v>57850</v>
       </c>
       <c r="F12" t="n">
-        <v>3.7723</v>
+        <v>1.1799</v>
       </c>
       <c r="G12" t="n">
-        <v>58500</v>
+        <v>58502.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57850</v>
+        <v>58000</v>
       </c>
       <c r="C13" t="n">
         <v>57850</v>
       </c>
       <c r="D13" t="n">
-        <v>57850</v>
+        <v>58000</v>
       </c>
       <c r="E13" t="n">
         <v>57850</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2893</v>
+        <v>3.7723</v>
       </c>
       <c r="G13" t="n">
-        <v>58491.66666666666</v>
+        <v>58500</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>57850</v>
       </c>
       <c r="C14" t="n">
-        <v>57800</v>
+        <v>57850</v>
       </c>
       <c r="D14" t="n">
         <v>57850</v>
       </c>
       <c r="E14" t="n">
-        <v>57800</v>
+        <v>57850</v>
       </c>
       <c r="F14" t="n">
-        <v>9.3856</v>
+        <v>0.2893</v>
       </c>
       <c r="G14" t="n">
-        <v>58481.66666666666</v>
+        <v>58491.66666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57700</v>
+        <v>57850</v>
       </c>
       <c r="C15" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="D15" t="n">
-        <v>57700</v>
+        <v>57850</v>
       </c>
       <c r="E15" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="F15" t="n">
-        <v>1.931</v>
+        <v>9.3856</v>
       </c>
       <c r="G15" t="n">
-        <v>58469.16666666666</v>
+        <v>58481.66666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="C16" t="n">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="D16" t="n">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="E16" t="n">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="F16" t="n">
-        <v>0.85</v>
+        <v>1.931</v>
       </c>
       <c r="G16" t="n">
-        <v>58448.33333333334</v>
+        <v>58469.16666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57300</v>
+        <v>57600</v>
       </c>
       <c r="C17" t="n">
-        <v>57200</v>
+        <v>57600</v>
       </c>
       <c r="D17" t="n">
-        <v>57300</v>
+        <v>57600</v>
       </c>
       <c r="E17" t="n">
-        <v>57200</v>
+        <v>57600</v>
       </c>
       <c r="F17" t="n">
-        <v>20.0393</v>
+        <v>0.85</v>
       </c>
       <c r="G17" t="n">
-        <v>58411.66666666666</v>
+        <v>58448.33333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>57300</v>
       </c>
       <c r="C18" t="n">
-        <v>57300</v>
+        <v>57200</v>
       </c>
       <c r="D18" t="n">
         <v>57300</v>
       </c>
       <c r="E18" t="n">
-        <v>57300</v>
+        <v>57200</v>
       </c>
       <c r="F18" t="n">
-        <v>3.6602</v>
+        <v>20.0393</v>
       </c>
       <c r="G18" t="n">
-        <v>58371.66666666666</v>
+        <v>58411.66666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="C19" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="D19" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="E19" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>3.6602</v>
       </c>
       <c r="G19" t="n">
-        <v>58335.83333333334</v>
+        <v>58371.66666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="C20" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="D20" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="E20" t="n">
-        <v>57200</v>
+        <v>57400</v>
       </c>
       <c r="F20" t="n">
-        <v>31.0448</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>58297.5</v>
+        <v>58335.83333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>57200</v>
       </c>
       <c r="C21" t="n">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="D21" t="n">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="E21" t="n">
         <v>57200</v>
       </c>
       <c r="F21" t="n">
-        <v>24.5702</v>
+        <v>31.0448</v>
       </c>
       <c r="G21" t="n">
-        <v>58263.33333333334</v>
+        <v>58297.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>57200</v>
       </c>
       <c r="C22" t="n">
-        <v>57050</v>
+        <v>57200</v>
       </c>
       <c r="D22" t="n">
         <v>57200</v>
       </c>
       <c r="E22" t="n">
-        <v>57050</v>
+        <v>57200</v>
       </c>
       <c r="F22" t="n">
-        <v>117.5</v>
+        <v>24.5702</v>
       </c>
       <c r="G22" t="n">
-        <v>58232.5</v>
+        <v>58263.33333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="C23" t="n">
-        <v>56750</v>
+        <v>57050</v>
       </c>
       <c r="D23" t="n">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="E23" t="n">
-        <v>56750</v>
+        <v>57050</v>
       </c>
       <c r="F23" t="n">
-        <v>20.4873</v>
+        <v>117.5</v>
       </c>
       <c r="G23" t="n">
-        <v>58200.83333333334</v>
+        <v>58232.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>57000</v>
+        <v>56800</v>
       </c>
       <c r="C24" t="n">
-        <v>57000</v>
+        <v>56750</v>
       </c>
       <c r="D24" t="n">
-        <v>57000</v>
+        <v>56800</v>
       </c>
       <c r="E24" t="n">
-        <v>57000</v>
+        <v>56750</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1496</v>
+        <v>20.4873</v>
       </c>
       <c r="G24" t="n">
-        <v>58169.16666666666</v>
+        <v>58200.83333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="C25" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="D25" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="E25" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0528</v>
+        <v>0.1496</v>
       </c>
       <c r="G25" t="n">
-        <v>58135</v>
+        <v>58169.16666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0.0528</v>
       </c>
       <c r="G26" t="n">
-        <v>58105.83333333334</v>
+        <v>58135</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>57050</v>
       </c>
       <c r="F27" t="n">
-        <v>3843.044</v>
+        <v>0.0528</v>
       </c>
       <c r="G27" t="n">
-        <v>58080</v>
+        <v>58105.83333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>57050</v>
       </c>
       <c r="F28" t="n">
-        <v>64050</v>
+        <v>3843.044</v>
       </c>
       <c r="G28" t="n">
-        <v>58055.83333333334</v>
+        <v>58080</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="C29" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="D29" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="E29" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0561</v>
+        <v>64050</v>
       </c>
       <c r="G29" t="n">
-        <v>58023.33333333334</v>
+        <v>58055.83333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>57250</v>
       </c>
       <c r="F30" t="n">
-        <v>11.198</v>
+        <v>0.0561</v>
       </c>
       <c r="G30" t="n">
-        <v>57992.5</v>
+        <v>58023.33333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57050</v>
+        <v>57250</v>
       </c>
       <c r="C31" t="n">
-        <v>57050</v>
+        <v>57250</v>
       </c>
       <c r="D31" t="n">
-        <v>57050</v>
+        <v>57250</v>
       </c>
       <c r="E31" t="n">
-        <v>57050</v>
+        <v>57250</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08169999999999999</v>
+        <v>11.198</v>
       </c>
       <c r="G31" t="n">
-        <v>57958.33333333334</v>
+        <v>57992.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="C32" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="D32" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="E32" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="F32" t="n">
-        <v>37.2012</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>57928.33333333334</v>
+        <v>57958.33333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57050</v>
+        <v>57350</v>
       </c>
       <c r="C33" t="n">
-        <v>57050</v>
+        <v>57350</v>
       </c>
       <c r="D33" t="n">
-        <v>57050</v>
+        <v>57350</v>
       </c>
       <c r="E33" t="n">
-        <v>57050</v>
+        <v>57350</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8244</v>
+        <v>37.2012</v>
       </c>
       <c r="G33" t="n">
-        <v>57905.83333333334</v>
+        <v>57928.33333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>56900</v>
+        <v>57050</v>
       </c>
       <c r="C34" t="n">
-        <v>56900</v>
+        <v>57050</v>
       </c>
       <c r="D34" t="n">
-        <v>56900</v>
+        <v>57050</v>
       </c>
       <c r="E34" t="n">
-        <v>56900</v>
+        <v>57050</v>
       </c>
       <c r="F34" t="n">
-        <v>10.3013</v>
+        <v>0.8244</v>
       </c>
       <c r="G34" t="n">
-        <v>57889.16666666666</v>
+        <v>57905.83333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>56900</v>
       </c>
       <c r="C35" t="n">
-        <v>57200</v>
+        <v>56900</v>
       </c>
       <c r="D35" t="n">
-        <v>57200</v>
+        <v>56900</v>
       </c>
       <c r="E35" t="n">
         <v>56900</v>
       </c>
       <c r="F35" t="n">
-        <v>20.4</v>
+        <v>10.3013</v>
       </c>
       <c r="G35" t="n">
-        <v>57884.16666666666</v>
+        <v>57889.16666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>57200</v>
+        <v>56900</v>
       </c>
       <c r="C36" t="n">
         <v>57200</v>
@@ -1632,13 +1632,13 @@
         <v>57200</v>
       </c>
       <c r="E36" t="n">
-        <v>57200</v>
+        <v>56900</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1958</v>
+        <v>20.4</v>
       </c>
       <c r="G36" t="n">
-        <v>57879.16666666666</v>
+        <v>57884.16666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>57500</v>
+        <v>57200</v>
       </c>
       <c r="C37" t="n">
-        <v>57500</v>
+        <v>57200</v>
       </c>
       <c r="D37" t="n">
-        <v>57500</v>
+        <v>57200</v>
       </c>
       <c r="E37" t="n">
-        <v>57500</v>
+        <v>57200</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3577</v>
+        <v>0.1958</v>
       </c>
       <c r="G37" t="n">
-        <v>57869.16666666666</v>
+        <v>57879.16666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>57500</v>
       </c>
       <c r="F38" t="n">
-        <v>14.2445</v>
+        <v>0.3577</v>
       </c>
       <c r="G38" t="n">
-        <v>57860.83333333334</v>
+        <v>57869.16666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>57500</v>
       </c>
       <c r="F39" t="n">
-        <v>65.4007</v>
+        <v>14.2445</v>
       </c>
       <c r="G39" t="n">
-        <v>57851.66666666666</v>
+        <v>57860.83333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>57550</v>
+        <v>57500</v>
       </c>
       <c r="C40" t="n">
-        <v>57550</v>
+        <v>57500</v>
       </c>
       <c r="D40" t="n">
-        <v>57550</v>
+        <v>57500</v>
       </c>
       <c r="E40" t="n">
-        <v>57550</v>
+        <v>57500</v>
       </c>
       <c r="F40" t="n">
-        <v>0.35</v>
+        <v>65.4007</v>
       </c>
       <c r="G40" t="n">
-        <v>57838.33333333334</v>
+        <v>57851.66666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="C41" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="D41" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="E41" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4823</v>
+        <v>0.35</v>
       </c>
       <c r="G41" t="n">
-        <v>57827.5</v>
+        <v>57838.33333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>57500</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4581</v>
+        <v>0.4823</v>
       </c>
       <c r="G42" t="n">
-        <v>57815.83333333334</v>
+        <v>57827.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="C43" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="D43" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="E43" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="F43" t="n">
-        <v>2.0058</v>
+        <v>0.4581</v>
       </c>
       <c r="G43" t="n">
-        <v>57812.5</v>
+        <v>57815.83333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>57300</v>
       </c>
       <c r="F44" t="n">
-        <v>5.5712</v>
+        <v>2.0058</v>
       </c>
       <c r="G44" t="n">
-        <v>57802.5</v>
+        <v>57812.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>57300</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3525</v>
+        <v>5.5712</v>
       </c>
       <c r="G45" t="n">
-        <v>57799.16666666666</v>
+        <v>57802.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>57350</v>
+        <v>57300</v>
       </c>
       <c r="C46" t="n">
-        <v>57350</v>
+        <v>57300</v>
       </c>
       <c r="D46" t="n">
-        <v>57350</v>
+        <v>57300</v>
       </c>
       <c r="E46" t="n">
-        <v>57350</v>
+        <v>57300</v>
       </c>
       <c r="F46" t="n">
-        <v>0.025</v>
+        <v>0.3525</v>
       </c>
       <c r="G46" t="n">
-        <v>57780</v>
+        <v>57799.16666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>57300</v>
+        <v>57350</v>
       </c>
       <c r="C47" t="n">
-        <v>57300</v>
+        <v>57350</v>
       </c>
       <c r="D47" t="n">
-        <v>57300</v>
+        <v>57350</v>
       </c>
       <c r="E47" t="n">
-        <v>57300</v>
+        <v>57350</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="G47" t="n">
-        <v>57765</v>
+        <v>57780</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>57050</v>
+        <v>57300</v>
       </c>
       <c r="C48" t="n">
-        <v>57050</v>
+        <v>57300</v>
       </c>
       <c r="D48" t="n">
-        <v>57050</v>
+        <v>57300</v>
       </c>
       <c r="E48" t="n">
-        <v>57050</v>
+        <v>57300</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2916</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>57749.16666666666</v>
+        <v>57765</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>57100</v>
+        <v>57050</v>
       </c>
       <c r="C49" t="n">
-        <v>57100</v>
+        <v>57050</v>
       </c>
       <c r="D49" t="n">
-        <v>57100</v>
+        <v>57050</v>
       </c>
       <c r="E49" t="n">
-        <v>57100</v>
+        <v>57050</v>
       </c>
       <c r="F49" t="n">
-        <v>0.025</v>
+        <v>1.2916</v>
       </c>
       <c r="G49" t="n">
-        <v>57726.66666666666</v>
+        <v>57749.16666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="C50" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="D50" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="E50" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="F50" t="n">
-        <v>1.35</v>
+        <v>0.025</v>
       </c>
       <c r="G50" t="n">
-        <v>57705.83333333334</v>
+        <v>57726.66666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>57000</v>
       </c>
       <c r="F51" t="n">
-        <v>3.9999</v>
+        <v>1.35</v>
       </c>
       <c r="G51" t="n">
-        <v>57682.5</v>
+        <v>57705.83333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>56950</v>
+        <v>57000</v>
       </c>
       <c r="C52" t="n">
-        <v>56950</v>
+        <v>57000</v>
       </c>
       <c r="D52" t="n">
-        <v>56950</v>
+        <v>57000</v>
       </c>
       <c r="E52" t="n">
-        <v>56950</v>
+        <v>57000</v>
       </c>
       <c r="F52" t="n">
-        <v>0.273</v>
+        <v>3.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>57654.16666666666</v>
+        <v>57682.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="C53" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="D53" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="E53" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="F53" t="n">
-        <v>3.3799</v>
+        <v>0.273</v>
       </c>
       <c r="G53" t="n">
-        <v>57634.16666666666</v>
+        <v>57654.16666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>57500</v>
+        <v>57450</v>
       </c>
       <c r="C54" t="n">
-        <v>57500</v>
+        <v>57450</v>
       </c>
       <c r="D54" t="n">
-        <v>57500</v>
+        <v>57450</v>
       </c>
       <c r="E54" t="n">
-        <v>57500</v>
+        <v>57450</v>
       </c>
       <c r="F54" t="n">
-        <v>16.3399</v>
+        <v>3.3799</v>
       </c>
       <c r="G54" t="n">
-        <v>57612.5</v>
+        <v>57634.16666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="C55" t="n">
-        <v>57650</v>
+        <v>57500</v>
       </c>
       <c r="D55" t="n">
-        <v>57650</v>
+        <v>57500</v>
       </c>
       <c r="E55" t="n">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="F55" t="n">
-        <v>63.3575</v>
+        <v>16.3399</v>
       </c>
       <c r="G55" t="n">
-        <v>57593.33333333334</v>
+        <v>57612.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>57600</v>
       </c>
       <c r="C56" t="n">
-        <v>57600</v>
+        <v>57650</v>
       </c>
       <c r="D56" t="n">
-        <v>57600</v>
+        <v>57650</v>
       </c>
       <c r="E56" t="n">
         <v>57600</v>
       </c>
       <c r="F56" t="n">
-        <v>0.99</v>
+        <v>63.3575</v>
       </c>
       <c r="G56" t="n">
-        <v>57573.33333333334</v>
+        <v>57593.33333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>57650</v>
+        <v>57600</v>
       </c>
       <c r="C57" t="n">
-        <v>57650</v>
+        <v>57600</v>
       </c>
       <c r="D57" t="n">
-        <v>57650</v>
+        <v>57600</v>
       </c>
       <c r="E57" t="n">
-        <v>57650</v>
+        <v>57600</v>
       </c>
       <c r="F57" t="n">
-        <v>77.9374</v>
+        <v>0.99</v>
       </c>
       <c r="G57" t="n">
-        <v>57556.66666666666</v>
+        <v>57573.33333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>57800</v>
+        <v>57650</v>
       </c>
       <c r="C58" t="n">
-        <v>57800</v>
+        <v>57650</v>
       </c>
       <c r="D58" t="n">
-        <v>57800</v>
+        <v>57650</v>
       </c>
       <c r="E58" t="n">
-        <v>57800</v>
+        <v>57650</v>
       </c>
       <c r="F58" t="n">
-        <v>39.2411</v>
+        <v>77.9374</v>
       </c>
       <c r="G58" t="n">
-        <v>57545</v>
+        <v>57556.66666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="C59" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="D59" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="E59" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0165</v>
+        <v>39.2411</v>
       </c>
       <c r="G59" t="n">
-        <v>57520</v>
+        <v>57545</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>57250</v>
+        <v>57700</v>
       </c>
       <c r="C60" t="n">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="D60" t="n">
-        <v>57250</v>
+        <v>57700</v>
       </c>
       <c r="E60" t="n">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="F60" t="n">
-        <v>10.1738</v>
+        <v>0.0165</v>
       </c>
       <c r="G60" t="n">
-        <v>57492.5</v>
+        <v>57520</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>57200</v>
+        <v>57250</v>
       </c>
       <c r="C61" t="n">
         <v>57200</v>
       </c>
       <c r="D61" t="n">
-        <v>57200</v>
+        <v>57250</v>
       </c>
       <c r="E61" t="n">
         <v>57200</v>
       </c>
       <c r="F61" t="n">
-        <v>19.7577</v>
+        <v>10.1738</v>
       </c>
       <c r="G61" t="n">
-        <v>57465</v>
+        <v>57492.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>57550</v>
+        <v>57200</v>
       </c>
       <c r="C62" t="n">
-        <v>57550</v>
+        <v>57200</v>
       </c>
       <c r="D62" t="n">
-        <v>57550</v>
+        <v>57200</v>
       </c>
       <c r="E62" t="n">
-        <v>57550</v>
+        <v>57200</v>
       </c>
       <c r="F62" t="n">
-        <v>11.1441</v>
+        <v>19.7577</v>
       </c>
       <c r="G62" t="n">
-        <v>57447.5</v>
+        <v>57465</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="C63" t="n">
         <v>57550</v>
@@ -2577,13 +2577,13 @@
         <v>57550</v>
       </c>
       <c r="E63" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>11.1441</v>
       </c>
       <c r="G63" t="n">
-        <v>57430</v>
+        <v>57447.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>57550</v>
+        <v>57500</v>
       </c>
       <c r="C64" t="n">
         <v>57550</v>
@@ -2612,13 +2612,13 @@
         <v>57550</v>
       </c>
       <c r="E64" t="n">
-        <v>57550</v>
+        <v>57500</v>
       </c>
       <c r="F64" t="n">
-        <v>7.7738</v>
+        <v>50</v>
       </c>
       <c r="G64" t="n">
-        <v>57412.5</v>
+        <v>57430</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>57550</v>
       </c>
       <c r="F65" t="n">
-        <v>2.0721</v>
+        <v>7.7738</v>
       </c>
       <c r="G65" t="n">
-        <v>57400</v>
+        <v>57412.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>57900</v>
+        <v>57550</v>
       </c>
       <c r="C66" t="n">
-        <v>57450</v>
+        <v>57550</v>
       </c>
       <c r="D66" t="n">
-        <v>58300</v>
+        <v>57550</v>
       </c>
       <c r="E66" t="n">
-        <v>57450</v>
+        <v>57550</v>
       </c>
       <c r="F66" t="n">
-        <v>394.3235</v>
+        <v>2.0721</v>
       </c>
       <c r="G66" t="n">
-        <v>57386.66666666666</v>
+        <v>57400</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>57900</v>
       </c>
       <c r="C67" t="n">
-        <v>57900</v>
+        <v>57450</v>
       </c>
       <c r="D67" t="n">
-        <v>57900</v>
+        <v>58300</v>
       </c>
       <c r="E67" t="n">
-        <v>57900</v>
+        <v>57450</v>
       </c>
       <c r="F67" t="n">
-        <v>13.6</v>
+        <v>394.3235</v>
       </c>
       <c r="G67" t="n">
-        <v>57385</v>
+        <v>57386.66666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>57900</v>
       </c>
       <c r="F68" t="n">
-        <v>5.1464</v>
+        <v>13.6</v>
       </c>
       <c r="G68" t="n">
-        <v>57384.16666666666</v>
+        <v>57385</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>57900</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0001</v>
+        <v>5.1464</v>
       </c>
       <c r="G69" t="n">
-        <v>57383.33333333334</v>
+        <v>57384.16666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>58350</v>
+        <v>57900</v>
       </c>
       <c r="C70" t="n">
-        <v>58100</v>
+        <v>57900</v>
       </c>
       <c r="D70" t="n">
-        <v>58350</v>
+        <v>57900</v>
       </c>
       <c r="E70" t="n">
-        <v>58100</v>
+        <v>57900</v>
       </c>
       <c r="F70" t="n">
-        <v>10.5241</v>
+        <v>0.0001</v>
       </c>
       <c r="G70" t="n">
-        <v>57386.66666666666</v>
+        <v>57383.33333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>58100</v>
+        <v>58350</v>
       </c>
       <c r="C71" t="n">
         <v>58100</v>
       </c>
       <c r="D71" t="n">
-        <v>58100</v>
+        <v>58350</v>
       </c>
       <c r="E71" t="n">
         <v>58100</v>
       </c>
       <c r="F71" t="n">
-        <v>6.8</v>
+        <v>10.5241</v>
       </c>
       <c r="G71" t="n">
-        <v>57390.83333333334</v>
+        <v>57386.66666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>58100</v>
       </c>
       <c r="F72" t="n">
-        <v>6.7825</v>
+        <v>6.8</v>
       </c>
       <c r="G72" t="n">
-        <v>57395</v>
+        <v>57390.83333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>58100</v>
       </c>
       <c r="C73" t="n">
-        <v>58050</v>
+        <v>58100</v>
       </c>
       <c r="D73" t="n">
         <v>58100</v>
       </c>
       <c r="E73" t="n">
-        <v>58050</v>
+        <v>58100</v>
       </c>
       <c r="F73" t="n">
-        <v>6.8175</v>
+        <v>6.7825</v>
       </c>
       <c r="G73" t="n">
-        <v>57398.33333333334</v>
+        <v>57395</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2953,28 +2953,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>57850</v>
+        <v>58100</v>
       </c>
       <c r="C74" t="n">
-        <v>57850</v>
+        <v>58050</v>
       </c>
       <c r="D74" t="n">
-        <v>57850</v>
+        <v>58100</v>
       </c>
       <c r="E74" t="n">
-        <v>57850</v>
+        <v>58050</v>
       </c>
       <c r="F74" t="n">
-        <v>1.9861</v>
+        <v>6.8175</v>
       </c>
       <c r="G74" t="n">
-        <v>57399.16666666666</v>
+        <v>57398.33333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2988,28 +2988,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>57900</v>
+        <v>57850</v>
       </c>
       <c r="C75" t="n">
-        <v>57900</v>
+        <v>57850</v>
       </c>
       <c r="D75" t="n">
-        <v>57900</v>
+        <v>57850</v>
       </c>
       <c r="E75" t="n">
-        <v>57900</v>
+        <v>57850</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8026</v>
+        <v>1.9861</v>
       </c>
       <c r="G75" t="n">
-        <v>57402.5</v>
+        <v>57399.16666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3023,28 +3023,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>57950</v>
+        <v>57900</v>
       </c>
       <c r="C76" t="n">
-        <v>57950</v>
+        <v>57900</v>
       </c>
       <c r="D76" t="n">
-        <v>57950</v>
+        <v>57900</v>
       </c>
       <c r="E76" t="n">
-        <v>57950</v>
+        <v>57900</v>
       </c>
       <c r="F76" t="n">
-        <v>7.1686</v>
+        <v>0.8026</v>
       </c>
       <c r="G76" t="n">
-        <v>57408.33333333334</v>
+        <v>57402.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3070,10 +3070,10 @@
         <v>57950</v>
       </c>
       <c r="F77" t="n">
-        <v>9.723100000000001</v>
+        <v>7.1686</v>
       </c>
       <c r="G77" t="n">
-        <v>57420.83333333334</v>
+        <v>57408.33333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>57950</v>
       </c>
       <c r="C78" t="n">
-        <v>57900</v>
+        <v>57950</v>
       </c>
       <c r="D78" t="n">
         <v>57950</v>
       </c>
       <c r="E78" t="n">
-        <v>57900</v>
+        <v>57950</v>
       </c>
       <c r="F78" t="n">
-        <v>2.4918</v>
+        <v>9.723100000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>57430.83333333334</v>
+        <v>57420.83333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,28 +3128,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>57800</v>
+        <v>57950</v>
       </c>
       <c r="C79" t="n">
-        <v>57800</v>
+        <v>57900</v>
       </c>
       <c r="D79" t="n">
-        <v>57800</v>
+        <v>57950</v>
       </c>
       <c r="E79" t="n">
-        <v>57800</v>
+        <v>57900</v>
       </c>
       <c r="F79" t="n">
-        <v>4.9402</v>
+        <v>2.4918</v>
       </c>
       <c r="G79" t="n">
-        <v>57437.5</v>
+        <v>57430.83333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="C80" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="D80" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="E80" t="n">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>4.9402</v>
       </c>
       <c r="G80" t="n">
-        <v>57444.16666666666</v>
+        <v>57437.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>57650</v>
+        <v>57700</v>
       </c>
       <c r="C81" t="n">
-        <v>57650</v>
+        <v>57700</v>
       </c>
       <c r="D81" t="n">
-        <v>57650</v>
+        <v>57700</v>
       </c>
       <c r="E81" t="n">
-        <v>57650</v>
+        <v>57700</v>
       </c>
       <c r="F81" t="n">
-        <v>7.8632</v>
+        <v>5</v>
       </c>
       <c r="G81" t="n">
-        <v>57451.66666666666</v>
+        <v>57444.16666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>57450</v>
+        <v>57650</v>
       </c>
       <c r="C82" t="n">
-        <v>57450</v>
+        <v>57650</v>
       </c>
       <c r="D82" t="n">
-        <v>57450</v>
+        <v>57650</v>
       </c>
       <c r="E82" t="n">
-        <v>57450</v>
+        <v>57650</v>
       </c>
       <c r="F82" t="n">
-        <v>4.7633</v>
+        <v>7.8632</v>
       </c>
       <c r="G82" t="n">
-        <v>57458.33333333334</v>
+        <v>57451.66666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>57450</v>
       </c>
       <c r="C83" t="n">
-        <v>57250</v>
+        <v>57450</v>
       </c>
       <c r="D83" t="n">
         <v>57450</v>
       </c>
       <c r="E83" t="n">
-        <v>57250</v>
+        <v>57450</v>
       </c>
       <c r="F83" t="n">
-        <v>5.2032</v>
+        <v>4.7633</v>
       </c>
       <c r="G83" t="n">
-        <v>57466.66666666666</v>
+        <v>57458.33333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,19 +3303,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>57100</v>
+        <v>57450</v>
       </c>
       <c r="C84" t="n">
-        <v>57000</v>
+        <v>57250</v>
       </c>
       <c r="D84" t="n">
-        <v>57100</v>
+        <v>57450</v>
       </c>
       <c r="E84" t="n">
-        <v>57000</v>
+        <v>57250</v>
       </c>
       <c r="F84" t="n">
-        <v>21.824</v>
+        <v>5.2032</v>
       </c>
       <c r="G84" t="n">
         <v>57466.66666666666</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C85" t="n">
-        <v>56800</v>
+        <v>57000</v>
       </c>
       <c r="D85" t="n">
-        <v>56800</v>
+        <v>57100</v>
       </c>
       <c r="E85" t="n">
-        <v>56650</v>
+        <v>57000</v>
       </c>
       <c r="F85" t="n">
-        <v>7.83</v>
+        <v>21.824</v>
       </c>
       <c r="G85" t="n">
-        <v>57462.5</v>
+        <v>57466.66666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>56500</v>
+        <v>56700</v>
       </c>
       <c r="C86" t="n">
-        <v>56300</v>
+        <v>56800</v>
       </c>
       <c r="D86" t="n">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="E86" t="n">
-        <v>56300</v>
+        <v>56650</v>
       </c>
       <c r="F86" t="n">
-        <v>45.6</v>
+        <v>7.83</v>
       </c>
       <c r="G86" t="n">
-        <v>57450</v>
+        <v>57462.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>56500</v>
       </c>
       <c r="C87" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="D87" t="n">
         <v>56500</v>
       </c>
       <c r="E87" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="F87" t="n">
-        <v>52</v>
+        <v>45.6</v>
       </c>
       <c r="G87" t="n">
-        <v>57435.83333333334</v>
+        <v>57450</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>56800</v>
+        <v>56500</v>
       </c>
       <c r="C88" t="n">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="D88" t="n">
-        <v>56800</v>
+        <v>56500</v>
       </c>
       <c r="E88" t="n">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="G88" t="n">
-        <v>57431.66666666666</v>
+        <v>57435.83333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>56800</v>
       </c>
       <c r="C89" t="n">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="D89" t="n">
         <v>56800</v>
       </c>
       <c r="E89" t="n">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="F89" t="n">
-        <v>8.160399999999999</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>57419.16666666666</v>
+        <v>57431.66666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>56750</v>
+        <v>56800</v>
       </c>
       <c r="C90" t="n">
-        <v>56750</v>
+        <v>56500</v>
       </c>
       <c r="D90" t="n">
-        <v>56750</v>
+        <v>56800</v>
       </c>
       <c r="E90" t="n">
-        <v>56750</v>
+        <v>56500</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0121</v>
+        <v>8.160399999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>57410.83333333334</v>
+        <v>57419.16666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>57000</v>
+        <v>56750</v>
       </c>
       <c r="C91" t="n">
-        <v>57000</v>
+        <v>56750</v>
       </c>
       <c r="D91" t="n">
-        <v>57000</v>
+        <v>56750</v>
       </c>
       <c r="E91" t="n">
-        <v>57000</v>
+        <v>56750</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0234</v>
+        <v>0.0121</v>
       </c>
       <c r="G91" t="n">
-        <v>57410</v>
+        <v>57410.83333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>57000</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0185</v>
+        <v>0.0234</v>
       </c>
       <c r="G92" t="n">
-        <v>57404.16666666666</v>
+        <v>57410</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>57000</v>
       </c>
       <c r="F93" t="n">
-        <v>6.8</v>
+        <v>0.0185</v>
       </c>
       <c r="G93" t="n">
-        <v>57403.33333333334</v>
+        <v>57404.16666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="C94" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="D94" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="E94" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2</v>
+        <v>6.8</v>
       </c>
       <c r="G94" t="n">
-        <v>57405.83333333334</v>
+        <v>57403.33333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>57050</v>
       </c>
       <c r="F95" t="n">
-        <v>3.8587</v>
+        <v>0.2</v>
       </c>
       <c r="G95" t="n">
-        <v>57403.33333333334</v>
+        <v>57405.83333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="C96" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="D96" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="E96" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8161</v>
+        <v>3.8587</v>
       </c>
       <c r="G96" t="n">
-        <v>57400</v>
+        <v>57403.33333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="C97" t="n">
-        <v>57150</v>
+        <v>57000</v>
       </c>
       <c r="D97" t="n">
-        <v>57150</v>
+        <v>57000</v>
       </c>
       <c r="E97" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="F97" t="n">
-        <v>56.61448538</v>
+        <v>0.8161</v>
       </c>
       <c r="G97" t="n">
-        <v>57394.16666666666</v>
+        <v>57400</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>57050</v>
       </c>
       <c r="C98" t="n">
-        <v>56900</v>
+        <v>57150</v>
       </c>
       <c r="D98" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E98" t="n">
         <v>57050</v>
       </c>
-      <c r="E98" t="n">
-        <v>56900</v>
-      </c>
       <c r="F98" t="n">
-        <v>48</v>
+        <v>56.61448538</v>
       </c>
       <c r="G98" t="n">
-        <v>57384.16666666666</v>
+        <v>57394.16666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="C99" t="n">
-        <v>56950</v>
+        <v>56900</v>
       </c>
       <c r="D99" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="E99" t="n">
-        <v>56950</v>
+        <v>56900</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1731</v>
+        <v>48</v>
       </c>
       <c r="G99" t="n">
-        <v>57375</v>
+        <v>57384.16666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>57150</v>
+        <v>56950</v>
       </c>
       <c r="C100" t="n">
-        <v>57150</v>
+        <v>56950</v>
       </c>
       <c r="D100" t="n">
-        <v>57150</v>
+        <v>56950</v>
       </c>
       <c r="E100" t="n">
-        <v>57150</v>
+        <v>56950</v>
       </c>
       <c r="F100" t="n">
-        <v>7.2135</v>
+        <v>0.1731</v>
       </c>
       <c r="G100" t="n">
-        <v>57368.33333333334</v>
+        <v>57375</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>57150</v>
       </c>
       <c r="F101" t="n">
-        <v>24.8312</v>
+        <v>7.2135</v>
       </c>
       <c r="G101" t="n">
-        <v>57362.5</v>
+        <v>57368.33333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>57150</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0803</v>
+        <v>24.8312</v>
       </c>
       <c r="G102" t="n">
-        <v>57356.66666666666</v>
+        <v>57362.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>57250</v>
+        <v>57150</v>
       </c>
       <c r="C103" t="n">
-        <v>57250</v>
+        <v>57150</v>
       </c>
       <c r="D103" t="n">
-        <v>57250</v>
+        <v>57150</v>
       </c>
       <c r="E103" t="n">
-        <v>57250</v>
+        <v>57150</v>
       </c>
       <c r="F103" t="n">
-        <v>16.9375</v>
+        <v>0.0803</v>
       </c>
       <c r="G103" t="n">
-        <v>57355.83333333334</v>
+        <v>57356.66666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>57250</v>
       </c>
       <c r="F104" t="n">
-        <v>0.58</v>
+        <v>16.9375</v>
       </c>
       <c r="G104" t="n">
-        <v>57355</v>
+        <v>57355.83333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>57000</v>
+        <v>57250</v>
       </c>
       <c r="C105" t="n">
-        <v>56850</v>
+        <v>57250</v>
       </c>
       <c r="D105" t="n">
-        <v>57000</v>
+        <v>57250</v>
       </c>
       <c r="E105" t="n">
-        <v>56850</v>
+        <v>57250</v>
       </c>
       <c r="F105" t="n">
-        <v>15.3</v>
+        <v>0.58</v>
       </c>
       <c r="G105" t="n">
-        <v>57347.5</v>
+        <v>57355</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>56850</v>
+        <v>57000</v>
       </c>
       <c r="C106" t="n">
         <v>56850</v>
       </c>
       <c r="D106" t="n">
-        <v>56850</v>
+        <v>57000</v>
       </c>
       <c r="E106" t="n">
         <v>56850</v>
       </c>
       <c r="F106" t="n">
-        <v>8.864599999999999</v>
+        <v>15.3</v>
       </c>
       <c r="G106" t="n">
-        <v>57339.16666666666</v>
+        <v>57347.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>56850</v>
       </c>
       <c r="F107" t="n">
-        <v>0.049</v>
+        <v>8.864599999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>57331.66666666666</v>
+        <v>57339.16666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>56300</v>
+        <v>56850</v>
       </c>
       <c r="C108" t="n">
-        <v>56300</v>
+        <v>56850</v>
       </c>
       <c r="D108" t="n">
-        <v>56300</v>
+        <v>56850</v>
       </c>
       <c r="E108" t="n">
-        <v>56300</v>
+        <v>56850</v>
       </c>
       <c r="F108" t="n">
-        <v>70.7996</v>
+        <v>0.049</v>
       </c>
       <c r="G108" t="n">
-        <v>57319.16666666666</v>
+        <v>57331.66666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>56500</v>
+        <v>56300</v>
       </c>
       <c r="C109" t="n">
-        <v>56500</v>
+        <v>56300</v>
       </c>
       <c r="D109" t="n">
-        <v>56500</v>
+        <v>56300</v>
       </c>
       <c r="E109" t="n">
-        <v>56500</v>
+        <v>56300</v>
       </c>
       <c r="F109" t="n">
-        <v>1.7655</v>
+        <v>70.7996</v>
       </c>
       <c r="G109" t="n">
-        <v>57309.16666666666</v>
+        <v>57319.16666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>56500</v>
       </c>
       <c r="C110" t="n">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="D110" t="n">
         <v>56500</v>
       </c>
       <c r="E110" t="n">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="F110" t="n">
-        <v>4.0726</v>
+        <v>1.7655</v>
       </c>
       <c r="G110" t="n">
-        <v>57297.5</v>
+        <v>57309.16666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>56700</v>
+        <v>56500</v>
       </c>
       <c r="C111" t="n">
-        <v>56600</v>
+        <v>56300</v>
       </c>
       <c r="D111" t="n">
-        <v>56700</v>
+        <v>56500</v>
       </c>
       <c r="E111" t="n">
-        <v>56600</v>
+        <v>56300</v>
       </c>
       <c r="F111" t="n">
-        <v>10.8276</v>
+        <v>4.0726</v>
       </c>
       <c r="G111" t="n">
-        <v>57290.83333333334</v>
+        <v>57297.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>56600</v>
+        <v>56700</v>
       </c>
       <c r="C112" t="n">
         <v>56600</v>
       </c>
       <c r="D112" t="n">
-        <v>56600</v>
+        <v>56700</v>
       </c>
       <c r="E112" t="n">
         <v>56600</v>
       </c>
       <c r="F112" t="n">
-        <v>1.7823</v>
+        <v>10.8276</v>
       </c>
       <c r="G112" t="n">
-        <v>57285</v>
+        <v>57290.83333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,19 +4330,23 @@
         <v>56600</v>
       </c>
       <c r="F113" t="n">
-        <v>6.6283</v>
+        <v>1.7823</v>
       </c>
       <c r="G113" t="n">
-        <v>57270.83333333334</v>
+        <v>57285</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>56600</v>
+      </c>
+      <c r="K113" t="n">
+        <v>56600</v>
+      </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
@@ -4353,32 +4357,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>56550</v>
+        <v>56600</v>
       </c>
       <c r="C114" t="n">
-        <v>56550</v>
+        <v>56600</v>
       </c>
       <c r="D114" t="n">
-        <v>56550</v>
+        <v>56600</v>
       </c>
       <c r="E114" t="n">
-        <v>56550</v>
+        <v>56600</v>
       </c>
       <c r="F114" t="n">
-        <v>7.1</v>
+        <v>6.6283</v>
       </c>
       <c r="G114" t="n">
-        <v>57255</v>
+        <v>57270.83333333334</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>56600</v>
+      </c>
+      <c r="K114" t="n">
+        <v>56600</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,198 +4400,200 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>56550</v>
+      </c>
+      <c r="C115" t="n">
+        <v>56550</v>
+      </c>
+      <c r="D115" t="n">
+        <v>56550</v>
+      </c>
+      <c r="E115" t="n">
+        <v>56550</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>57255</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>56600</v>
+      </c>
+      <c r="K115" t="n">
+        <v>56600</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
         <v>56500</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C116" t="n">
         <v>56350</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D116" t="n">
         <v>56500</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E116" t="n">
         <v>56350</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F116" t="n">
         <v>94.3633</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G116" t="n">
         <v>57233.33333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>56550</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C117" t="n">
+        <v>56400</v>
+      </c>
+      <c r="D117" t="n">
+        <v>56400</v>
+      </c>
+      <c r="E117" t="n">
+        <v>56400</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.14184397</v>
+      </c>
+      <c r="G117" t="n">
+        <v>57213.33333333334</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>56350</v>
+      </c>
+      <c r="K117" t="n">
+        <v>56350</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>56250</v>
+      </c>
+      <c r="C118" t="n">
+        <v>56250</v>
+      </c>
+      <c r="D118" t="n">
+        <v>56250</v>
+      </c>
+      <c r="E118" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F118" t="n">
+        <v>16.0032</v>
+      </c>
+      <c r="G118" t="n">
+        <v>57190</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>56400</v>
+      </c>
+      <c r="K118" t="n">
+        <v>56350</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>56200</v>
+      </c>
+      <c r="C119" t="n">
+        <v>56150</v>
+      </c>
+      <c r="D119" t="n">
+        <v>56200</v>
+      </c>
+      <c r="E119" t="n">
+        <v>56150</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12.3219</v>
+      </c>
+      <c r="G119" t="n">
+        <v>57162.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>56250</v>
+      </c>
+      <c r="K119" t="n">
+        <v>56350</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>56400</v>
-      </c>
-      <c r="C116" t="n">
-        <v>56400</v>
-      </c>
-      <c r="D116" t="n">
-        <v>56400</v>
-      </c>
-      <c r="E116" t="n">
-        <v>56400</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.14184397</v>
-      </c>
-      <c r="G116" t="n">
-        <v>57213.33333333334</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>56350</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>56250</v>
-      </c>
-      <c r="C117" t="n">
-        <v>56250</v>
-      </c>
-      <c r="D117" t="n">
-        <v>56250</v>
-      </c>
-      <c r="E117" t="n">
-        <v>56250</v>
-      </c>
-      <c r="F117" t="n">
-        <v>16.0032</v>
-      </c>
-      <c r="G117" t="n">
-        <v>57190</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>56200</v>
-      </c>
-      <c r="C118" t="n">
-        <v>56150</v>
-      </c>
-      <c r="D118" t="n">
-        <v>56200</v>
-      </c>
-      <c r="E118" t="n">
-        <v>56150</v>
-      </c>
-      <c r="F118" t="n">
-        <v>12.3219</v>
-      </c>
-      <c r="G118" t="n">
-        <v>57162.5</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>56650</v>
-      </c>
-      <c r="C119" t="n">
-        <v>56650</v>
-      </c>
-      <c r="D119" t="n">
-        <v>56650</v>
-      </c>
-      <c r="E119" t="n">
-        <v>56650</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.0176</v>
-      </c>
-      <c r="G119" t="n">
-        <v>57145</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>56150</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4589,22 +4603,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>56400</v>
+        <v>56650</v>
       </c>
       <c r="C120" t="n">
-        <v>56400</v>
+        <v>56650</v>
       </c>
       <c r="D120" t="n">
-        <v>56400</v>
+        <v>56650</v>
       </c>
       <c r="E120" t="n">
-        <v>56400</v>
+        <v>56650</v>
       </c>
       <c r="F120" t="n">
-        <v>10.0049</v>
+        <v>0.0176</v>
       </c>
       <c r="G120" t="n">
-        <v>57131.66666666666</v>
+        <v>57145</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4613,9 +4627,11 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>56650</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>56150</v>
+      </c>
+      <c r="K120" t="n">
+        <v>56350</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,22 +4646,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>56750</v>
+        <v>56400</v>
       </c>
       <c r="C121" t="n">
-        <v>56750</v>
+        <v>56400</v>
       </c>
       <c r="D121" t="n">
-        <v>56750</v>
+        <v>56400</v>
       </c>
       <c r="E121" t="n">
-        <v>56750</v>
+        <v>56400</v>
       </c>
       <c r="F121" t="n">
-        <v>2.0453</v>
+        <v>10.0049</v>
       </c>
       <c r="G121" t="n">
-        <v>57124.16666666666</v>
+        <v>57131.66666666666</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4654,9 +4670,11 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>56400</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>56650</v>
+      </c>
+      <c r="K121" t="n">
+        <v>56350</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,10 +4701,10 @@
         <v>56750</v>
       </c>
       <c r="F122" t="n">
-        <v>4.5831</v>
+        <v>2.0453</v>
       </c>
       <c r="G122" t="n">
-        <v>57110.83333333334</v>
+        <v>57124.16666666666</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4695,9 +4713,11 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>56750</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+        <v>56400</v>
+      </c>
+      <c r="K122" t="n">
+        <v>56350</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,22 +4732,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>56800</v>
+        <v>56750</v>
       </c>
       <c r="C123" t="n">
-        <v>56850</v>
+        <v>56750</v>
       </c>
       <c r="D123" t="n">
-        <v>56850</v>
+        <v>56750</v>
       </c>
       <c r="E123" t="n">
-        <v>56800</v>
+        <v>56750</v>
       </c>
       <c r="F123" t="n">
-        <v>3.8022</v>
+        <v>4.5831</v>
       </c>
       <c r="G123" t="n">
-        <v>57099.16666666666</v>
+        <v>57110.83333333334</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -4738,7 +4758,9 @@
       <c r="J123" t="n">
         <v>56750</v>
       </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>56350</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,22 +4775,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>56950</v>
+        <v>56800</v>
       </c>
       <c r="C124" t="n">
-        <v>56950</v>
+        <v>56850</v>
       </c>
       <c r="D124" t="n">
-        <v>56950</v>
+        <v>56850</v>
       </c>
       <c r="E124" t="n">
-        <v>56950</v>
+        <v>56800</v>
       </c>
       <c r="F124" t="n">
-        <v>2.1882</v>
+        <v>3.8022</v>
       </c>
       <c r="G124" t="n">
-        <v>57089.16666666666</v>
+        <v>57099.16666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4777,7 +4799,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>56350</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,19 +4828,23 @@
         <v>56950</v>
       </c>
       <c r="F125" t="n">
-        <v>22.1963</v>
+        <v>2.1882</v>
       </c>
       <c r="G125" t="n">
-        <v>57079.16666666666</v>
+        <v>57089.16666666666</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K125" t="n">
+        <v>56350</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4831,22 +4859,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>57050</v>
+        <v>56950</v>
       </c>
       <c r="C126" t="n">
-        <v>57050</v>
+        <v>56950</v>
       </c>
       <c r="D126" t="n">
-        <v>57050</v>
+        <v>56950</v>
       </c>
       <c r="E126" t="n">
-        <v>57050</v>
+        <v>56950</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8167</v>
+        <v>22.1963</v>
       </c>
       <c r="G126" t="n">
-        <v>57072.5</v>
+        <v>57079.16666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4855,7 +4883,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>56350</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,22 +4900,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="C127" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="D127" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="E127" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0249</v>
+        <v>0.8167</v>
       </c>
       <c r="G127" t="n">
-        <v>57056.66666666666</v>
+        <v>57072.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4894,7 +4924,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>56350</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,31 +4941,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C128" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D128" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E128" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="G128" t="n">
+        <v>57056.66666666666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
         <v>56350</v>
       </c>
-      <c r="C128" t="n">
-        <v>56200</v>
-      </c>
-      <c r="D128" t="n">
-        <v>56350</v>
-      </c>
-      <c r="E128" t="n">
-        <v>56200</v>
-      </c>
-      <c r="F128" t="n">
-        <v>10</v>
-      </c>
-      <c r="G128" t="n">
-        <v>57028.33333333334</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,22 +4982,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>56300</v>
+        <v>56350</v>
       </c>
       <c r="C129" t="n">
-        <v>56300</v>
+        <v>56200</v>
       </c>
       <c r="D129" t="n">
-        <v>56300</v>
+        <v>56350</v>
       </c>
       <c r="E129" t="n">
-        <v>56300</v>
+        <v>56200</v>
       </c>
       <c r="F129" t="n">
-        <v>71.0214</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>57001.66666666666</v>
+        <v>57028.33333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4972,7 +5006,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>56350</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,22 +5023,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="C130" t="n">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="D130" t="n">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="E130" t="n">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="F130" t="n">
-        <v>56.5999</v>
+        <v>71.0214</v>
       </c>
       <c r="G130" t="n">
-        <v>56968.33333333334</v>
+        <v>57001.66666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5011,7 +5047,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>56350</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,10 +5076,10 @@
         <v>56100</v>
       </c>
       <c r="F131" t="n">
-        <v>7.3066</v>
+        <v>56.5999</v>
       </c>
       <c r="G131" t="n">
-        <v>56935</v>
+        <v>56968.33333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5050,7 +5088,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>56350</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,22 +5105,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>56050</v>
+        <v>56100</v>
       </c>
       <c r="C132" t="n">
-        <v>56050</v>
+        <v>56100</v>
       </c>
       <c r="D132" t="n">
-        <v>56050</v>
+        <v>56100</v>
       </c>
       <c r="E132" t="n">
-        <v>56050</v>
+        <v>56100</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4765</v>
+        <v>7.3066</v>
       </c>
       <c r="G132" t="n">
-        <v>56900.83333333334</v>
+        <v>56935</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5089,7 +5129,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>56350</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5104,22 +5146,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>56700</v>
+        <v>56050</v>
       </c>
       <c r="C133" t="n">
-        <v>56700</v>
+        <v>56050</v>
       </c>
       <c r="D133" t="n">
-        <v>56700</v>
+        <v>56050</v>
       </c>
       <c r="E133" t="n">
-        <v>56700</v>
+        <v>56050</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2858</v>
+        <v>0.4765</v>
       </c>
       <c r="G133" t="n">
-        <v>56878.33333333334</v>
+        <v>56900.83333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5128,7 +5170,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>56350</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,31 +5187,35 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>57400</v>
+        <v>56700</v>
       </c>
       <c r="C134" t="n">
-        <v>57500</v>
+        <v>56700</v>
       </c>
       <c r="D134" t="n">
-        <v>57500</v>
+        <v>56700</v>
       </c>
       <c r="E134" t="n">
-        <v>57400</v>
+        <v>56700</v>
       </c>
       <c r="F134" t="n">
-        <v>15.7248</v>
+        <v>0.2858</v>
       </c>
       <c r="G134" t="n">
-        <v>56872.5</v>
+        <v>56878.33333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>56050</v>
+      </c>
+      <c r="K134" t="n">
+        <v>56350</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5182,31 +5230,35 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>57800</v>
+        <v>57400</v>
       </c>
       <c r="C135" t="n">
-        <v>57800</v>
+        <v>57500</v>
       </c>
       <c r="D135" t="n">
-        <v>57800</v>
+        <v>57500</v>
       </c>
       <c r="E135" t="n">
-        <v>57800</v>
+        <v>57400</v>
       </c>
       <c r="F135" t="n">
-        <v>0.85</v>
+        <v>15.7248</v>
       </c>
       <c r="G135" t="n">
-        <v>56870.83333333334</v>
+        <v>56872.5</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>56700</v>
+      </c>
+      <c r="K135" t="n">
+        <v>56350</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,6 +5268,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>57800</v>
+      </c>
+      <c r="C136" t="n">
+        <v>57800</v>
+      </c>
+      <c r="D136" t="n">
+        <v>57800</v>
+      </c>
+      <c r="E136" t="n">
+        <v>57800</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G136" t="n">
+        <v>56870.83333333334</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>56350</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>27.961</v>
       </c>
       <c r="G2" t="n">
+        <v>58603.33333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>58295.83333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>21.7967</v>
       </c>
       <c r="G3" t="n">
+        <v>58630</v>
+      </c>
+      <c r="H3" t="n">
         <v>58324.16666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>0.1283</v>
       </c>
       <c r="G4" t="n">
+        <v>58670</v>
+      </c>
+      <c r="H4" t="n">
         <v>58352.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>19.8</v>
       </c>
       <c r="G5" t="n">
+        <v>58680</v>
+      </c>
+      <c r="H5" t="n">
         <v>58380</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
+        <v>58683.33333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>58405.83333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>8.8835</v>
       </c>
       <c r="G7" t="n">
+        <v>58673.33333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>58430.83333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>18.9278</v>
       </c>
       <c r="G8" t="n">
+        <v>58630</v>
+      </c>
+      <c r="H8" t="n">
         <v>58446.66666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1.3867</v>
       </c>
       <c r="G9" t="n">
+        <v>58583.33333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>58464.16666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>8.613300000000001</v>
       </c>
       <c r="G10" t="n">
+        <v>58526.66666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>58480</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2.2458</v>
       </c>
       <c r="G11" t="n">
+        <v>58466.66666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>58493.33333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1.1799</v>
       </c>
       <c r="G12" t="n">
+        <v>58403.33333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>58502.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3.7723</v>
       </c>
       <c r="G13" t="n">
+        <v>58350</v>
+      </c>
+      <c r="H13" t="n">
         <v>58500</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>0.2893</v>
       </c>
       <c r="G14" t="n">
+        <v>58306.66666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>58491.66666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>9.3856</v>
       </c>
       <c r="G15" t="n">
+        <v>58213.33333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>58481.66666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1.931</v>
       </c>
       <c r="G16" t="n">
+        <v>58136.66666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>58469.16666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>0.85</v>
       </c>
       <c r="G17" t="n">
+        <v>58053.33333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>58448.33333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>20.0393</v>
       </c>
       <c r="G18" t="n">
+        <v>57960</v>
+      </c>
+      <c r="H18" t="n">
         <v>58411.66666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3.6602</v>
       </c>
       <c r="G19" t="n">
+        <v>57873.33333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>58371.66666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>9</v>
       </c>
       <c r="G20" t="n">
+        <v>57793.33333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>58335.83333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>31.0448</v>
       </c>
       <c r="G21" t="n">
+        <v>57726.66666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>58297.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>24.5702</v>
       </c>
       <c r="G22" t="n">
+        <v>57656.66666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>58263.33333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>117.5</v>
       </c>
       <c r="G23" t="n">
+        <v>57593.33333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>58232.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>20.4873</v>
       </c>
       <c r="G24" t="n">
+        <v>57513.33333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>58200.83333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>0.1496</v>
       </c>
       <c r="G25" t="n">
+        <v>57450</v>
+      </c>
+      <c r="H25" t="n">
         <v>58169.16666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>0.0528</v>
       </c>
       <c r="G26" t="n">
+        <v>57393.33333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>58135</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>0.0528</v>
       </c>
       <c r="G27" t="n">
+        <v>57340</v>
+      </c>
+      <c r="H27" t="n">
         <v>58105.83333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3843.044</v>
       </c>
       <c r="G28" t="n">
+        <v>57286.66666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>58080</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>64050</v>
       </c>
       <c r="G29" t="n">
+        <v>57233.33333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>58055.83333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>0.0561</v>
       </c>
       <c r="G30" t="n">
+        <v>57196.66666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>58023.33333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>11.198</v>
       </c>
       <c r="G31" t="n">
+        <v>57166.66666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>57992.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="G32" t="n">
+        <v>57130</v>
+      </c>
+      <c r="H32" t="n">
         <v>57958.33333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>37.2012</v>
       </c>
       <c r="G33" t="n">
+        <v>57140</v>
+      </c>
+      <c r="H33" t="n">
         <v>57928.33333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>0.8244</v>
       </c>
       <c r="G34" t="n">
+        <v>57123.33333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>57905.83333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>10.3013</v>
       </c>
       <c r="G35" t="n">
+        <v>57090</v>
+      </c>
+      <c r="H35" t="n">
         <v>57889.16666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>20.4</v>
       </c>
       <c r="G36" t="n">
+        <v>57083.33333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>57884.16666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>0.1958</v>
       </c>
       <c r="G37" t="n">
+        <v>57083.33333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>57879.16666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>0.3577</v>
       </c>
       <c r="G38" t="n">
+        <v>57113.33333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>57869.16666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>14.2445</v>
       </c>
       <c r="G39" t="n">
+        <v>57163.33333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>57860.83333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>65.4007</v>
       </c>
       <c r="G40" t="n">
+        <v>57196.66666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>57851.66666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>0.35</v>
       </c>
       <c r="G41" t="n">
+        <v>57230</v>
+      </c>
+      <c r="H41" t="n">
         <v>57838.33333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>0.4823</v>
       </c>
       <c r="G42" t="n">
+        <v>57260</v>
+      </c>
+      <c r="H42" t="n">
         <v>57827.5</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>0.4581</v>
       </c>
       <c r="G43" t="n">
+        <v>57290</v>
+      </c>
+      <c r="H43" t="n">
         <v>57815.83333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>2.0058</v>
       </c>
       <c r="G44" t="n">
+        <v>57306.66666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>57812.5</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>5.5712</v>
       </c>
       <c r="G45" t="n">
+        <v>57310</v>
+      </c>
+      <c r="H45" t="n">
         <v>57802.5</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>0.3525</v>
       </c>
       <c r="G46" t="n">
+        <v>57313.33333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>57799.16666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>0.025</v>
       </c>
       <c r="G47" t="n">
+        <v>57333.33333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>57780</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="G48" t="n">
+        <v>57330</v>
+      </c>
+      <c r="H48" t="n">
         <v>57765</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1.2916</v>
       </c>
       <c r="G49" t="n">
+        <v>57330</v>
+      </c>
+      <c r="H49" t="n">
         <v>57749.16666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>0.025</v>
       </c>
       <c r="G50" t="n">
+        <v>57343.33333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>57726.66666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1.35</v>
       </c>
       <c r="G51" t="n">
+        <v>57330</v>
+      </c>
+      <c r="H51" t="n">
         <v>57705.83333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>3.9999</v>
       </c>
       <c r="G52" t="n">
+        <v>57316.66666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>57682.5</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>0.273</v>
       </c>
       <c r="G53" t="n">
+        <v>57280</v>
+      </c>
+      <c r="H53" t="n">
         <v>57654.16666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>3.3799</v>
       </c>
       <c r="G54" t="n">
+        <v>57276.66666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>57634.16666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>16.3399</v>
       </c>
       <c r="G55" t="n">
+        <v>57276.66666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>57612.5</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>63.3575</v>
       </c>
       <c r="G56" t="n">
+        <v>57283.33333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>57593.33333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>0.99</v>
       </c>
       <c r="G57" t="n">
+        <v>57290</v>
+      </c>
+      <c r="H57" t="n">
         <v>57573.33333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>77.9374</v>
       </c>
       <c r="G58" t="n">
+        <v>57300</v>
+      </c>
+      <c r="H58" t="n">
         <v>57556.66666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>39.2411</v>
       </c>
       <c r="G59" t="n">
+        <v>57333.33333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>57545</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>0.0165</v>
       </c>
       <c r="G60" t="n">
+        <v>57360</v>
+      </c>
+      <c r="H60" t="n">
         <v>57520</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>10.1738</v>
       </c>
       <c r="G61" t="n">
+        <v>57353.33333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>57492.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>19.7577</v>
       </c>
       <c r="G62" t="n">
+        <v>57343.33333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>57465</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>11.1441</v>
       </c>
       <c r="G63" t="n">
+        <v>57360</v>
+      </c>
+      <c r="H63" t="n">
         <v>57447.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>50</v>
       </c>
       <c r="G64" t="n">
+        <v>57393.33333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>57430</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>7.7738</v>
       </c>
       <c r="G65" t="n">
+        <v>57423.33333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>57412.5</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>2.0721</v>
       </c>
       <c r="G66" t="n">
+        <v>57460</v>
+      </c>
+      <c r="H66" t="n">
         <v>57400</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>394.3235</v>
       </c>
       <c r="G67" t="n">
+        <v>57490</v>
+      </c>
+      <c r="H67" t="n">
         <v>57386.66666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>13.6</v>
       </c>
       <c r="G68" t="n">
+        <v>57553.33333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>57385</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>5.1464</v>
       </c>
       <c r="G69" t="n">
+        <v>57583.33333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>57384.16666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>0.0001</v>
       </c>
       <c r="G70" t="n">
+        <v>57610</v>
+      </c>
+      <c r="H70" t="n">
         <v>57383.33333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>10.5241</v>
       </c>
       <c r="G71" t="n">
+        <v>57640</v>
+      </c>
+      <c r="H71" t="n">
         <v>57386.66666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>6.8</v>
       </c>
       <c r="G72" t="n">
+        <v>57673.33333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>57390.83333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>6.7825</v>
       </c>
       <c r="G73" t="n">
+        <v>57703.33333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>57395</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>6.8175</v>
       </c>
       <c r="G74" t="n">
+        <v>57720</v>
+      </c>
+      <c r="H74" t="n">
         <v>57398.33333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1.9861</v>
       </c>
       <c r="G75" t="n">
+        <v>57730</v>
+      </c>
+      <c r="H75" t="n">
         <v>57399.16666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>0.8026</v>
       </c>
       <c r="G76" t="n">
+        <v>57776.66666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>57402.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>7.1686</v>
       </c>
       <c r="G77" t="n">
+        <v>57826.66666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>57408.33333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>9.723100000000001</v>
       </c>
       <c r="G78" t="n">
+        <v>57853.33333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>57420.83333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>2.4918</v>
       </c>
       <c r="G79" t="n">
+        <v>57876.66666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>57430.83333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>4.9402</v>
       </c>
       <c r="G80" t="n">
+        <v>57893.33333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>57437.5</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>5</v>
       </c>
       <c r="G81" t="n">
+        <v>57903.33333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>57444.16666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>7.8632</v>
       </c>
       <c r="G82" t="n">
+        <v>57916.66666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>57451.66666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>4.7633</v>
       </c>
       <c r="G83" t="n">
+        <v>57886.66666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>57458.33333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>5.2032</v>
       </c>
       <c r="G84" t="n">
+        <v>57843.33333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>57466.66666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>21.824</v>
       </c>
       <c r="G85" t="n">
+        <v>57783.33333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>57466.66666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>7.83</v>
       </c>
       <c r="G86" t="n">
+        <v>57696.66666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>57462.5</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>45.6</v>
       </c>
       <c r="G87" t="n">
+        <v>57576.66666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>57450</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,27 @@
         <v>52</v>
       </c>
       <c r="G88" t="n">
+        <v>57450</v>
+      </c>
+      <c r="H88" t="n">
         <v>57435.83333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>56300</v>
+      </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3765,27 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
+        <v>57366.66666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>57431.66666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>56200</v>
+      </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3809,27 @@
         <v>8.160399999999999</v>
       </c>
       <c r="G90" t="n">
+        <v>57276.66666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>57419.16666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>56800</v>
+      </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3853,27 @@
         <v>0.0121</v>
       </c>
       <c r="G91" t="n">
+        <v>57200</v>
+      </c>
+      <c r="H91" t="n">
         <v>57410.83333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>56500</v>
+      </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3897,27 @@
         <v>0.0234</v>
       </c>
       <c r="G92" t="n">
+        <v>57136.66666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>57410</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>56750</v>
+      </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3941,27 @@
         <v>0.0185</v>
       </c>
       <c r="G93" t="n">
+        <v>57073.33333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>57404.16666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>57000</v>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3985,25 @@
         <v>6.8</v>
       </c>
       <c r="G94" t="n">
+        <v>57013.33333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>57403.33333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4027,25 @@
         <v>0.2</v>
       </c>
       <c r="G95" t="n">
+        <v>56963.33333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>57405.83333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4069,25 @@
         <v>3.8587</v>
       </c>
       <c r="G96" t="n">
+        <v>56920</v>
+      </c>
+      <c r="H96" t="n">
         <v>57403.33333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4111,25 @@
         <v>0.8161</v>
       </c>
       <c r="G97" t="n">
+        <v>56876.66666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>57400</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4153,25 @@
         <v>56.61448538</v>
       </c>
       <c r="G98" t="n">
+        <v>56856.66666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>57394.16666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4195,25 @@
         <v>48</v>
       </c>
       <c r="G99" t="n">
+        <v>56833.33333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>57384.16666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4237,25 @@
         <v>0.1731</v>
       </c>
       <c r="G100" t="n">
+        <v>56830</v>
+      </c>
+      <c r="H100" t="n">
         <v>57375</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4279,25 @@
         <v>7.2135</v>
       </c>
       <c r="G101" t="n">
+        <v>56853.33333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>57368.33333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4321,25 @@
         <v>24.8312</v>
       </c>
       <c r="G102" t="n">
+        <v>56910</v>
+      </c>
+      <c r="H102" t="n">
         <v>57362.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4363,25 @@
         <v>0.0803</v>
       </c>
       <c r="G103" t="n">
+        <v>56973.33333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>57356.66666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4405,25 @@
         <v>16.9375</v>
       </c>
       <c r="G104" t="n">
+        <v>57003.33333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>57355.83333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4447,25 @@
         <v>0.58</v>
       </c>
       <c r="G105" t="n">
+        <v>57053.33333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>57355</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4489,25 @@
         <v>15.3</v>
       </c>
       <c r="G106" t="n">
+        <v>57060</v>
+      </c>
+      <c r="H106" t="n">
         <v>57347.5</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4531,25 @@
         <v>8.864599999999999</v>
       </c>
       <c r="G107" t="n">
+        <v>57050</v>
+      </c>
+      <c r="H107" t="n">
         <v>57339.16666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4573,25 @@
         <v>0.049</v>
       </c>
       <c r="G108" t="n">
+        <v>57040</v>
+      </c>
+      <c r="H108" t="n">
         <v>57331.66666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4615,25 @@
         <v>70.7996</v>
       </c>
       <c r="G109" t="n">
+        <v>56993.33333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>57319.16666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4657,25 @@
         <v>1.7655</v>
       </c>
       <c r="G110" t="n">
+        <v>56956.66666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>57309.16666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4699,25 @@
         <v>4.0726</v>
       </c>
       <c r="G111" t="n">
+        <v>56906.66666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>57297.5</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4741,25 @@
         <v>10.8276</v>
       </c>
       <c r="G112" t="n">
+        <v>56880</v>
+      </c>
+      <c r="H112" t="n">
         <v>57290.83333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,22 +4783,25 @@
         <v>1.7823</v>
       </c>
       <c r="G113" t="n">
+        <v>56843.33333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>57285</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>56600</v>
-      </c>
-      <c r="K113" t="n">
-        <v>56600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,26 +4825,25 @@
         <v>6.6283</v>
       </c>
       <c r="G114" t="n">
+        <v>56823.33333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>57270.83333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>56600</v>
-      </c>
-      <c r="K114" t="n">
-        <v>56600</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4415,26 +4867,25 @@
         <v>7.1</v>
       </c>
       <c r="G115" t="n">
+        <v>56796.66666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>57255</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>56600</v>
-      </c>
-      <c r="K115" t="n">
-        <v>56600</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +4909,25 @@
         <v>94.3633</v>
       </c>
       <c r="G116" t="n">
+        <v>56743.33333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>57233.33333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,22 +4951,25 @@
         <v>0.14184397</v>
       </c>
       <c r="G117" t="n">
+        <v>56693.33333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>57213.33333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>56350</v>
-      </c>
-      <c r="K117" t="n">
-        <v>56350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,26 +4993,25 @@
         <v>16.0032</v>
       </c>
       <c r="G118" t="n">
+        <v>56633.33333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>57190</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>56400</v>
-      </c>
-      <c r="K118" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,26 +5035,25 @@
         <v>12.3219</v>
       </c>
       <c r="G119" t="n">
+        <v>56560</v>
+      </c>
+      <c r="H119" t="n">
         <v>57162.5</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>56250</v>
-      </c>
-      <c r="K119" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,26 +5077,25 @@
         <v>0.0176</v>
       </c>
       <c r="G120" t="n">
+        <v>56520</v>
+      </c>
+      <c r="H120" t="n">
         <v>57145</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>56150</v>
-      </c>
-      <c r="K120" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4661,26 +5119,25 @@
         <v>10.0049</v>
       </c>
       <c r="G121" t="n">
+        <v>56490</v>
+      </c>
+      <c r="H121" t="n">
         <v>57131.66666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>56650</v>
-      </c>
-      <c r="K121" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4704,26 +5161,25 @@
         <v>2.0453</v>
       </c>
       <c r="G122" t="n">
+        <v>56483.33333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>57124.16666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>56400</v>
-      </c>
-      <c r="K122" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,26 +5203,25 @@
         <v>4.5831</v>
       </c>
       <c r="G123" t="n">
+        <v>56476.66666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>57110.83333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>56750</v>
-      </c>
-      <c r="K123" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,24 +5245,25 @@
         <v>3.8022</v>
       </c>
       <c r="G124" t="n">
+        <v>56513.33333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>57099.16666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,26 +5287,25 @@
         <v>2.1882</v>
       </c>
       <c r="G125" t="n">
+        <v>56543.33333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>57089.16666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>56850</v>
-      </c>
-      <c r="K125" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,24 +5329,25 @@
         <v>22.1963</v>
       </c>
       <c r="G126" t="n">
+        <v>56586.66666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>57079.16666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,24 +5371,25 @@
         <v>0.8167</v>
       </c>
       <c r="G127" t="n">
+        <v>56616.66666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>57072.5</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4956,24 +5413,25 @@
         <v>0.0249</v>
       </c>
       <c r="G128" t="n">
+        <v>56640</v>
+      </c>
+      <c r="H128" t="n">
         <v>57056.66666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,24 +5455,25 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
+        <v>56613.33333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>57028.33333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,24 +5497,25 @@
         <v>71.0214</v>
       </c>
       <c r="G130" t="n">
+        <v>56596.66666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>57001.66666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5079,24 +5539,25 @@
         <v>56.5999</v>
       </c>
       <c r="G131" t="n">
+        <v>56580</v>
+      </c>
+      <c r="H131" t="n">
         <v>56968.33333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,24 +5581,27 @@
         <v>7.3066</v>
       </c>
       <c r="G132" t="n">
+        <v>56560</v>
+      </c>
+      <c r="H132" t="n">
         <v>56935</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L132" t="inlineStr">
+        <v>56100</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5161,24 +5625,27 @@
         <v>0.4765</v>
       </c>
       <c r="G133" t="n">
+        <v>56546.66666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>56900.83333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L133" t="inlineStr">
+        <v>56100</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,26 +5669,27 @@
         <v>0.2858</v>
       </c>
       <c r="G134" t="n">
+        <v>56583.33333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>56878.33333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
         <v>56050</v>
       </c>
-      <c r="K134" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5245,26 +5713,27 @@
         <v>15.7248</v>
       </c>
       <c r="G135" t="n">
+        <v>56640</v>
+      </c>
+      <c r="H135" t="n">
         <v>56872.5</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
         <v>56700</v>
       </c>
-      <c r="K135" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,24 +5757,445 @@
         <v>0.85</v>
       </c>
       <c r="G136" t="n">
+        <v>56733.33333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>56870.83333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>56350</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>57950</v>
+      </c>
+      <c r="D137" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.4767</v>
+      </c>
+      <c r="G137" t="n">
+        <v>56813.33333333334</v>
+      </c>
+      <c r="H137" t="n">
+        <v>56870.83333333334</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>57950</v>
+      </c>
+      <c r="C138" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.4926</v>
+      </c>
+      <c r="G138" t="n">
+        <v>56896.66666666666</v>
+      </c>
+      <c r="H138" t="n">
+        <v>56871.66666666666</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>58100</v>
+      </c>
+      <c r="D139" t="n">
+        <v>58100</v>
+      </c>
+      <c r="E139" t="n">
+        <v>58000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="G139" t="n">
+        <v>56980</v>
+      </c>
+      <c r="H139" t="n">
+        <v>56875</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C140" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D140" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E140" t="n">
+        <v>57700</v>
+      </c>
+      <c r="F140" t="n">
+        <v>95.233</v>
+      </c>
+      <c r="G140" t="n">
+        <v>57076.66666666666</v>
+      </c>
+      <c r="H140" t="n">
+        <v>56885</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>58300</v>
+      </c>
+      <c r="C141" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D141" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E141" t="n">
+        <v>58300</v>
+      </c>
+      <c r="F141" t="n">
+        <v>59.0024</v>
+      </c>
+      <c r="G141" t="n">
+        <v>57173.33333333334</v>
+      </c>
+      <c r="H141" t="n">
+        <v>56896.66666666666</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>58400</v>
+      </c>
+      <c r="C142" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D142" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E142" t="n">
+        <v>58400</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5.118</v>
+      </c>
+      <c r="G142" t="n">
+        <v>57263.33333333334</v>
+      </c>
+      <c r="H142" t="n">
+        <v>56909.16666666666</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>58500</v>
+      </c>
+      <c r="C143" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D143" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E143" t="n">
+        <v>58500</v>
+      </c>
+      <c r="F143" t="n">
+        <v>27.0587</v>
+      </c>
+      <c r="G143" t="n">
+        <v>57390</v>
+      </c>
+      <c r="H143" t="n">
+        <v>56932.5</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>58850</v>
+      </c>
+      <c r="C144" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D144" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E144" t="n">
+        <v>58850</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14.5913</v>
+      </c>
+      <c r="G144" t="n">
+        <v>57566.66666666666</v>
+      </c>
+      <c r="H144" t="n">
+        <v>56959.16666666666</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>58850</v>
+      </c>
+      <c r="C145" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D145" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E145" t="n">
+        <v>58850</v>
+      </c>
+      <c r="F145" t="n">
+        <v>40.2035</v>
+      </c>
+      <c r="G145" t="n">
+        <v>57736.66666666666</v>
+      </c>
+      <c r="H145" t="n">
+        <v>56990</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>59000</v>
+      </c>
+      <c r="D146" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.8186</v>
+      </c>
+      <c r="G146" t="n">
+        <v>57930</v>
+      </c>
+      <c r="H146" t="n">
+        <v>57026.66666666666</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>59150</v>
+        <v>57850</v>
       </c>
       <c r="C2" t="n">
-        <v>59150</v>
+        <v>57800</v>
       </c>
       <c r="D2" t="n">
-        <v>59150</v>
+        <v>57850</v>
       </c>
       <c r="E2" t="n">
-        <v>59150</v>
+        <v>57800</v>
       </c>
       <c r="F2" t="n">
-        <v>1.839</v>
+        <v>9.3856</v>
       </c>
       <c r="G2" t="n">
-        <v>24.68149999999997</v>
+        <v>-302.6596</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>59050</v>
+        <v>57700</v>
       </c>
       <c r="C3" t="n">
-        <v>58400</v>
+        <v>57700</v>
       </c>
       <c r="D3" t="n">
-        <v>59050</v>
+        <v>57700</v>
       </c>
       <c r="E3" t="n">
-        <v>58400</v>
+        <v>57700</v>
       </c>
       <c r="F3" t="n">
-        <v>16.0321</v>
+        <v>1.931</v>
       </c>
       <c r="G3" t="n">
-        <v>8.649399999999975</v>
+        <v>-304.5906</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>58350</v>
+        <v>57600</v>
       </c>
       <c r="C4" t="n">
-        <v>57900</v>
+        <v>57600</v>
       </c>
       <c r="D4" t="n">
-        <v>58350</v>
+        <v>57600</v>
       </c>
       <c r="E4" t="n">
-        <v>57900</v>
+        <v>57600</v>
       </c>
       <c r="F4" t="n">
-        <v>58.7</v>
+        <v>0.85</v>
       </c>
       <c r="G4" t="n">
-        <v>-50.05060000000003</v>
+        <v>-305.4406</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57500</v>
+        <v>57300</v>
       </c>
       <c r="C5" t="n">
-        <v>57500</v>
+        <v>57200</v>
       </c>
       <c r="D5" t="n">
-        <v>57850</v>
+        <v>57300</v>
       </c>
       <c r="E5" t="n">
-        <v>57450</v>
+        <v>57200</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8766</v>
+        <v>20.0393</v>
       </c>
       <c r="G5" t="n">
-        <v>-158.9272</v>
+        <v>-325.4799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57500</v>
+        <v>57300</v>
       </c>
       <c r="C6" t="n">
-        <v>57500</v>
+        <v>57300</v>
       </c>
       <c r="D6" t="n">
-        <v>57500</v>
+        <v>57300</v>
       </c>
       <c r="E6" t="n">
-        <v>57500</v>
+        <v>57300</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7757</v>
+        <v>3.6602</v>
       </c>
       <c r="G6" t="n">
-        <v>-158.9272</v>
+        <v>-321.8197000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="C7" t="n">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="D7" t="n">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="E7" t="n">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>-151.9272</v>
+        <v>-312.8197000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="C8" t="n">
-        <v>58000</v>
+        <v>57300</v>
       </c>
       <c r="D8" t="n">
-        <v>58000</v>
+        <v>57300</v>
       </c>
       <c r="E8" t="n">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="F8" t="n">
-        <v>57.5625</v>
+        <v>31.0448</v>
       </c>
       <c r="G8" t="n">
-        <v>-209.4897</v>
+        <v>-343.8645000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>58200</v>
+        <v>57200</v>
       </c>
       <c r="C9" t="n">
-        <v>58050</v>
+        <v>57200</v>
       </c>
       <c r="D9" t="n">
-        <v>58300</v>
+        <v>57200</v>
       </c>
       <c r="E9" t="n">
-        <v>58050</v>
+        <v>57200</v>
       </c>
       <c r="F9" t="n">
-        <v>17.8</v>
+        <v>24.5702</v>
       </c>
       <c r="G9" t="n">
-        <v>-191.6897</v>
+        <v>-368.4347000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>58350</v>
+        <v>57200</v>
       </c>
       <c r="C10" t="n">
-        <v>58350</v>
+        <v>57050</v>
       </c>
       <c r="D10" t="n">
-        <v>58350</v>
+        <v>57200</v>
       </c>
       <c r="E10" t="n">
-        <v>58350</v>
+        <v>57050</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5610000000000001</v>
+        <v>117.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-191.1287</v>
+        <v>-485.9347000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>58150</v>
+        <v>56800</v>
       </c>
       <c r="C11" t="n">
-        <v>58150</v>
+        <v>56750</v>
       </c>
       <c r="D11" t="n">
-        <v>58150</v>
+        <v>56800</v>
       </c>
       <c r="E11" t="n">
-        <v>58150</v>
+        <v>56750</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2293</v>
+        <v>20.4873</v>
       </c>
       <c r="G11" t="n">
-        <v>-191.358</v>
+        <v>-506.4220000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>58200</v>
+        <v>57000</v>
       </c>
       <c r="C12" t="n">
-        <v>58200</v>
+        <v>57000</v>
       </c>
       <c r="D12" t="n">
-        <v>58200</v>
+        <v>57000</v>
       </c>
       <c r="E12" t="n">
-        <v>58200</v>
+        <v>57000</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>0.1496</v>
       </c>
       <c r="G12" t="n">
-        <v>-186.358</v>
+        <v>-506.2724000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57550</v>
+        <v>57050</v>
       </c>
       <c r="C13" t="n">
-        <v>57500</v>
+        <v>57050</v>
       </c>
       <c r="D13" t="n">
-        <v>57550</v>
+        <v>57050</v>
       </c>
       <c r="E13" t="n">
-        <v>57500</v>
+        <v>57050</v>
       </c>
       <c r="F13" t="n">
-        <v>8.550000000000001</v>
+        <v>0.0528</v>
       </c>
       <c r="G13" t="n">
-        <v>-194.908</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>57850</v>
+        <v>57050</v>
       </c>
       <c r="C14" t="n">
-        <v>57900</v>
+        <v>57050</v>
       </c>
       <c r="D14" t="n">
-        <v>57900</v>
+        <v>57050</v>
       </c>
       <c r="E14" t="n">
-        <v>57850</v>
+        <v>57050</v>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>0.0528</v>
       </c>
       <c r="G14" t="n">
-        <v>-190.708</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57550</v>
+        <v>57050</v>
       </c>
       <c r="C15" t="n">
-        <v>57500</v>
+        <v>57050</v>
       </c>
       <c r="D15" t="n">
-        <v>57550</v>
+        <v>57050</v>
       </c>
       <c r="E15" t="n">
-        <v>57500</v>
+        <v>57050</v>
       </c>
       <c r="F15" t="n">
-        <v>18.8816</v>
+        <v>3843.044</v>
       </c>
       <c r="G15" t="n">
-        <v>-209.5896</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>58050</v>
+        <v>57050</v>
       </c>
       <c r="C16" t="n">
-        <v>58500</v>
+        <v>57050</v>
       </c>
       <c r="D16" t="n">
-        <v>58500</v>
+        <v>57050</v>
       </c>
       <c r="E16" t="n">
-        <v>58050</v>
+        <v>57050</v>
       </c>
       <c r="F16" t="n">
-        <v>13.1</v>
+        <v>64050</v>
       </c>
       <c r="G16" t="n">
-        <v>-196.4896</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58200</v>
+        <v>57250</v>
       </c>
       <c r="C17" t="n">
-        <v>58200</v>
+        <v>57250</v>
       </c>
       <c r="D17" t="n">
-        <v>58200</v>
+        <v>57250</v>
       </c>
       <c r="E17" t="n">
-        <v>58200</v>
+        <v>57250</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5285</v>
+        <v>0.0561</v>
       </c>
       <c r="G17" t="n">
-        <v>-197.0181</v>
+        <v>-506.1635000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>58000</v>
+        <v>57250</v>
       </c>
       <c r="C18" t="n">
-        <v>58000</v>
+        <v>57250</v>
       </c>
       <c r="D18" t="n">
-        <v>58000</v>
+        <v>57250</v>
       </c>
       <c r="E18" t="n">
-        <v>58000</v>
+        <v>57250</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>11.198</v>
       </c>
       <c r="G18" t="n">
-        <v>-197.4481</v>
+        <v>-506.1635000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>58450</v>
+        <v>57050</v>
       </c>
       <c r="C19" t="n">
-        <v>58450</v>
+        <v>57050</v>
       </c>
       <c r="D19" t="n">
-        <v>58450</v>
+        <v>57050</v>
       </c>
       <c r="E19" t="n">
-        <v>58450</v>
+        <v>57050</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-196.4481</v>
+        <v>-506.2452000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>58250</v>
+        <v>57350</v>
       </c>
       <c r="C20" t="n">
-        <v>58250</v>
+        <v>57350</v>
       </c>
       <c r="D20" t="n">
-        <v>58250</v>
+        <v>57350</v>
       </c>
       <c r="E20" t="n">
-        <v>58250</v>
+        <v>57350</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1011</v>
+        <v>37.2012</v>
       </c>
       <c r="G20" t="n">
-        <v>-196.5492</v>
+        <v>-469.0440000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>58400</v>
+        <v>57050</v>
       </c>
       <c r="C21" t="n">
-        <v>58400</v>
+        <v>57050</v>
       </c>
       <c r="D21" t="n">
-        <v>58400</v>
+        <v>57050</v>
       </c>
       <c r="E21" t="n">
-        <v>58400</v>
+        <v>57050</v>
       </c>
       <c r="F21" t="n">
-        <v>3.1664</v>
+        <v>0.8244</v>
       </c>
       <c r="G21" t="n">
-        <v>-193.3828</v>
+        <v>-469.8684000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>58550</v>
+        <v>56900</v>
       </c>
       <c r="C22" t="n">
-        <v>58650</v>
+        <v>56900</v>
       </c>
       <c r="D22" t="n">
-        <v>58700</v>
+        <v>56900</v>
       </c>
       <c r="E22" t="n">
-        <v>58550</v>
+        <v>56900</v>
       </c>
       <c r="F22" t="n">
-        <v>80.7621</v>
+        <v>10.3013</v>
       </c>
       <c r="G22" t="n">
-        <v>-112.6207</v>
+        <v>-480.1697000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>58650</v>
+        <v>56900</v>
       </c>
       <c r="C23" t="n">
-        <v>58650</v>
+        <v>57200</v>
       </c>
       <c r="D23" t="n">
-        <v>58650</v>
+        <v>57200</v>
       </c>
       <c r="E23" t="n">
-        <v>58650</v>
+        <v>56900</v>
       </c>
       <c r="F23" t="n">
-        <v>4.4531</v>
+        <v>20.4</v>
       </c>
       <c r="G23" t="n">
-        <v>-112.6207</v>
+        <v>-459.7697000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>58800</v>
+        <v>57200</v>
       </c>
       <c r="C24" t="n">
-        <v>58800</v>
+        <v>57200</v>
       </c>
       <c r="D24" t="n">
-        <v>58800</v>
+        <v>57200</v>
       </c>
       <c r="E24" t="n">
-        <v>58800</v>
+        <v>57200</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8264</v>
+        <v>0.1958</v>
       </c>
       <c r="G24" t="n">
-        <v>-111.7943</v>
+        <v>-459.7697000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="C25" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="D25" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="E25" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236</v>
+        <v>0.3577</v>
       </c>
       <c r="G25" t="n">
-        <v>-111.7943</v>
+        <v>-459.4120000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="C26" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="D26" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="E26" t="n">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="F26" t="n">
-        <v>1.6964</v>
+        <v>14.2445</v>
       </c>
       <c r="G26" t="n">
-        <v>-111.7943</v>
+        <v>-459.4120000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>58700</v>
+        <v>57500</v>
       </c>
       <c r="C27" t="n">
-        <v>58650</v>
+        <v>57500</v>
       </c>
       <c r="D27" t="n">
-        <v>58700</v>
+        <v>57500</v>
       </c>
       <c r="E27" t="n">
-        <v>58650</v>
+        <v>57500</v>
       </c>
       <c r="F27" t="n">
-        <v>51.0495</v>
+        <v>65.4007</v>
       </c>
       <c r="G27" t="n">
-        <v>-162.8438</v>
+        <v>-459.4120000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>58550</v>
+        <v>57550</v>
       </c>
       <c r="C28" t="n">
-        <v>58500</v>
+        <v>57550</v>
       </c>
       <c r="D28" t="n">
-        <v>58550</v>
+        <v>57550</v>
       </c>
       <c r="E28" t="n">
-        <v>58500</v>
+        <v>57550</v>
       </c>
       <c r="F28" t="n">
-        <v>74.60639999999999</v>
+        <v>0.35</v>
       </c>
       <c r="G28" t="n">
-        <v>-237.4502</v>
+        <v>-459.0620000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>59200</v>
+        <v>57500</v>
       </c>
       <c r="C29" t="n">
-        <v>59200</v>
+        <v>57500</v>
       </c>
       <c r="D29" t="n">
-        <v>59200</v>
+        <v>57500</v>
       </c>
       <c r="E29" t="n">
-        <v>59200</v>
+        <v>57500</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8266</v>
+        <v>0.4823</v>
       </c>
       <c r="G29" t="n">
-        <v>-236.6236</v>
+        <v>-459.5443000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>58850</v>
+        <v>57500</v>
       </c>
       <c r="C30" t="n">
-        <v>58850</v>
+        <v>57500</v>
       </c>
       <c r="D30" t="n">
-        <v>58850</v>
+        <v>57500</v>
       </c>
       <c r="E30" t="n">
-        <v>58850</v>
+        <v>57500</v>
       </c>
       <c r="F30" t="n">
-        <v>0.82</v>
+        <v>0.4581</v>
       </c>
       <c r="G30" t="n">
-        <v>-237.4436</v>
+        <v>-459.5443000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>58850</v>
+        <v>57300</v>
       </c>
       <c r="C31" t="n">
-        <v>58850</v>
+        <v>57300</v>
       </c>
       <c r="D31" t="n">
-        <v>58850</v>
+        <v>57300</v>
       </c>
       <c r="E31" t="n">
-        <v>58850</v>
+        <v>57300</v>
       </c>
       <c r="F31" t="n">
-        <v>27.961</v>
+        <v>2.0058</v>
       </c>
       <c r="G31" t="n">
-        <v>-237.4436</v>
+        <v>-461.5501000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="C32" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="D32" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="E32" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="F32" t="n">
-        <v>21.7967</v>
+        <v>5.5712</v>
       </c>
       <c r="G32" t="n">
-        <v>-259.2403</v>
+        <v>-461.5501000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="C33" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="D33" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="E33" t="n">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1283</v>
+        <v>0.3525</v>
       </c>
       <c r="G33" t="n">
-        <v>-259.2403</v>
+        <v>-461.5501000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>58550</v>
+        <v>57350</v>
       </c>
       <c r="C34" t="n">
-        <v>58600</v>
+        <v>57350</v>
       </c>
       <c r="D34" t="n">
-        <v>58600</v>
+        <v>57350</v>
       </c>
       <c r="E34" t="n">
-        <v>58550</v>
+        <v>57350</v>
       </c>
       <c r="F34" t="n">
-        <v>19.8</v>
+        <v>0.025</v>
       </c>
       <c r="G34" t="n">
-        <v>-259.2403</v>
+        <v>-461.5251000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>58300</v>
+        <v>57300</v>
       </c>
       <c r="C35" t="n">
-        <v>58300</v>
+        <v>57300</v>
       </c>
       <c r="D35" t="n">
-        <v>58300</v>
+        <v>57300</v>
       </c>
       <c r="E35" t="n">
-        <v>58300</v>
+        <v>57300</v>
       </c>
       <c r="F35" t="n">
-        <v>1.41</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-260.6503</v>
+        <v>-461.5956000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>58250</v>
+        <v>57050</v>
       </c>
       <c r="C36" t="n">
-        <v>58250</v>
+        <v>57050</v>
       </c>
       <c r="D36" t="n">
-        <v>58250</v>
+        <v>57050</v>
       </c>
       <c r="E36" t="n">
-        <v>58250</v>
+        <v>57050</v>
       </c>
       <c r="F36" t="n">
-        <v>8.8835</v>
+        <v>1.2916</v>
       </c>
       <c r="G36" t="n">
-        <v>-269.5338</v>
+        <v>-462.8872000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>58250</v>
+        <v>57100</v>
       </c>
       <c r="C37" t="n">
-        <v>58000</v>
+        <v>57100</v>
       </c>
       <c r="D37" t="n">
-        <v>58300</v>
+        <v>57100</v>
       </c>
       <c r="E37" t="n">
-        <v>58000</v>
+        <v>57100</v>
       </c>
       <c r="F37" t="n">
-        <v>18.9278</v>
+        <v>0.025</v>
       </c>
       <c r="G37" t="n">
-        <v>-288.4616</v>
+        <v>-462.8622000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="C38" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="D38" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="E38" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3867</v>
+        <v>1.35</v>
       </c>
       <c r="G38" t="n">
-        <v>-289.8483000000001</v>
+        <v>-464.2122000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="C39" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="D39" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="E39" t="n">
-        <v>57950</v>
+        <v>57000</v>
       </c>
       <c r="F39" t="n">
-        <v>8.613300000000001</v>
+        <v>3.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-289.8483000000001</v>
+        <v>-464.2122000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>57900</v>
+        <v>56950</v>
       </c>
       <c r="C40" t="n">
-        <v>57900</v>
+        <v>56950</v>
       </c>
       <c r="D40" t="n">
-        <v>57900</v>
+        <v>56950</v>
       </c>
       <c r="E40" t="n">
-        <v>57900</v>
+        <v>56950</v>
       </c>
       <c r="F40" t="n">
-        <v>2.2458</v>
+        <v>0.273</v>
       </c>
       <c r="G40" t="n">
-        <v>-292.0941</v>
+        <v>-464.4852000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>57900</v>
+        <v>57450</v>
       </c>
       <c r="C41" t="n">
-        <v>57850</v>
+        <v>57450</v>
       </c>
       <c r="D41" t="n">
-        <v>57900</v>
+        <v>57450</v>
       </c>
       <c r="E41" t="n">
-        <v>57850</v>
+        <v>57450</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1799</v>
+        <v>3.3799</v>
       </c>
       <c r="G41" t="n">
-        <v>-293.274</v>
+        <v>-461.1053000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>58000</v>
+        <v>57500</v>
       </c>
       <c r="C42" t="n">
-        <v>57850</v>
+        <v>57500</v>
       </c>
       <c r="D42" t="n">
-        <v>58000</v>
+        <v>57500</v>
       </c>
       <c r="E42" t="n">
-        <v>57850</v>
+        <v>57500</v>
       </c>
       <c r="F42" t="n">
-        <v>3.7723</v>
+        <v>16.3399</v>
       </c>
       <c r="G42" t="n">
-        <v>-293.274</v>
+        <v>-444.7654000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>57850</v>
+        <v>57600</v>
       </c>
       <c r="C43" t="n">
-        <v>57850</v>
+        <v>57650</v>
       </c>
       <c r="D43" t="n">
-        <v>57850</v>
+        <v>57650</v>
       </c>
       <c r="E43" t="n">
-        <v>57850</v>
+        <v>57600</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2893</v>
+        <v>63.3575</v>
       </c>
       <c r="G43" t="n">
-        <v>-293.274</v>
+        <v>-381.4079000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>57850</v>
+        <v>57600</v>
       </c>
       <c r="C44" t="n">
-        <v>57800</v>
+        <v>57600</v>
       </c>
       <c r="D44" t="n">
-        <v>57850</v>
+        <v>57600</v>
       </c>
       <c r="E44" t="n">
-        <v>57800</v>
+        <v>57600</v>
       </c>
       <c r="F44" t="n">
-        <v>9.3856</v>
+        <v>0.99</v>
       </c>
       <c r="G44" t="n">
-        <v>-302.6596</v>
+        <v>-382.3979000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>57700</v>
+        <v>57650</v>
       </c>
       <c r="C45" t="n">
-        <v>57700</v>
+        <v>57650</v>
       </c>
       <c r="D45" t="n">
-        <v>57700</v>
+        <v>57650</v>
       </c>
       <c r="E45" t="n">
-        <v>57700</v>
+        <v>57650</v>
       </c>
       <c r="F45" t="n">
-        <v>1.931</v>
+        <v>77.9374</v>
       </c>
       <c r="G45" t="n">
-        <v>-304.5906</v>
+        <v>-304.4605000000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="C46" t="n">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="D46" t="n">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="E46" t="n">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F46" t="n">
-        <v>0.85</v>
+        <v>39.2411</v>
       </c>
       <c r="G46" t="n">
-        <v>-305.4406</v>
+        <v>-265.2194000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>57300</v>
+        <v>57700</v>
       </c>
       <c r="C47" t="n">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="D47" t="n">
-        <v>57300</v>
+        <v>57700</v>
       </c>
       <c r="E47" t="n">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="F47" t="n">
-        <v>20.0393</v>
+        <v>0.0165</v>
       </c>
       <c r="G47" t="n">
-        <v>-325.4799</v>
+        <v>-265.2359000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>57300</v>
+        <v>57250</v>
       </c>
       <c r="C48" t="n">
-        <v>57300</v>
+        <v>57200</v>
       </c>
       <c r="D48" t="n">
-        <v>57300</v>
+        <v>57250</v>
       </c>
       <c r="E48" t="n">
-        <v>57300</v>
+        <v>57200</v>
       </c>
       <c r="F48" t="n">
-        <v>3.6602</v>
+        <v>10.1738</v>
       </c>
       <c r="G48" t="n">
-        <v>-321.8197000000001</v>
+        <v>-275.4097000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>57400</v>
+        <v>57200</v>
       </c>
       <c r="C49" t="n">
-        <v>57400</v>
+        <v>57200</v>
       </c>
       <c r="D49" t="n">
-        <v>57400</v>
+        <v>57200</v>
       </c>
       <c r="E49" t="n">
-        <v>57400</v>
+        <v>57200</v>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>19.7577</v>
       </c>
       <c r="G49" t="n">
-        <v>-312.8197000000001</v>
+        <v>-275.4097000000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>57200</v>
+        <v>57550</v>
       </c>
       <c r="C50" t="n">
-        <v>57300</v>
+        <v>57550</v>
       </c>
       <c r="D50" t="n">
-        <v>57300</v>
+        <v>57550</v>
       </c>
       <c r="E50" t="n">
-        <v>57200</v>
+        <v>57550</v>
       </c>
       <c r="F50" t="n">
-        <v>31.0448</v>
+        <v>11.1441</v>
       </c>
       <c r="G50" t="n">
-        <v>-343.8645000000001</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>57200</v>
+        <v>57500</v>
       </c>
       <c r="C51" t="n">
-        <v>57200</v>
+        <v>57550</v>
       </c>
       <c r="D51" t="n">
-        <v>57200</v>
+        <v>57550</v>
       </c>
       <c r="E51" t="n">
-        <v>57200</v>
+        <v>57500</v>
       </c>
       <c r="F51" t="n">
-        <v>24.5702</v>
+        <v>50</v>
       </c>
       <c r="G51" t="n">
-        <v>-368.4347000000001</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>57200</v>
+        <v>57550</v>
       </c>
       <c r="C52" t="n">
-        <v>57050</v>
+        <v>57550</v>
       </c>
       <c r="D52" t="n">
-        <v>57200</v>
+        <v>57550</v>
       </c>
       <c r="E52" t="n">
-        <v>57050</v>
+        <v>57550</v>
       </c>
       <c r="F52" t="n">
-        <v>117.5</v>
+        <v>7.7738</v>
       </c>
       <c r="G52" t="n">
-        <v>-485.9347000000001</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>56800</v>
+        <v>57550</v>
       </c>
       <c r="C53" t="n">
-        <v>56750</v>
+        <v>57550</v>
       </c>
       <c r="D53" t="n">
-        <v>56800</v>
+        <v>57550</v>
       </c>
       <c r="E53" t="n">
-        <v>56750</v>
+        <v>57550</v>
       </c>
       <c r="F53" t="n">
-        <v>20.4873</v>
+        <v>2.0721</v>
       </c>
       <c r="G53" t="n">
-        <v>-506.4220000000001</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>57000</v>
+        <v>57900</v>
       </c>
       <c r="C54" t="n">
-        <v>57000</v>
+        <v>57450</v>
       </c>
       <c r="D54" t="n">
-        <v>57000</v>
+        <v>58300</v>
       </c>
       <c r="E54" t="n">
-        <v>57000</v>
+        <v>57450</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1496</v>
+        <v>394.3235</v>
       </c>
       <c r="G54" t="n">
-        <v>-506.2724000000001</v>
+        <v>-658.5891000000004</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="C55" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="D55" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="E55" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0528</v>
+        <v>13.6</v>
       </c>
       <c r="G55" t="n">
-        <v>-506.2196000000001</v>
+        <v>-644.9891000000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="C56" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="D56" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="E56" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0528</v>
+        <v>5.1464</v>
       </c>
       <c r="G56" t="n">
-        <v>-506.2196000000001</v>
+        <v>-644.9891000000003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="C57" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="D57" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="E57" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="F57" t="n">
-        <v>3843.044</v>
+        <v>0.0001</v>
       </c>
       <c r="G57" t="n">
-        <v>-506.2196000000001</v>
+        <v>-644.9891000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>57050</v>
+        <v>58350</v>
       </c>
       <c r="C58" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="D58" t="n">
-        <v>57050</v>
+        <v>58350</v>
       </c>
       <c r="E58" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="F58" t="n">
-        <v>64050</v>
+        <v>10.5241</v>
       </c>
       <c r="G58" t="n">
-        <v>-506.2196000000001</v>
+        <v>-634.4650000000004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="C59" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="D59" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="E59" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0561</v>
+        <v>6.8</v>
       </c>
       <c r="G59" t="n">
-        <v>-506.1635000000001</v>
+        <v>-634.4650000000004</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="C60" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="D60" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="E60" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="F60" t="n">
-        <v>11.198</v>
+        <v>6.7825</v>
       </c>
       <c r="G60" t="n">
-        <v>-506.1635000000001</v>
+        <v>-634.4650000000004</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="C61" t="n">
-        <v>57050</v>
+        <v>58050</v>
       </c>
       <c r="D61" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="E61" t="n">
-        <v>57050</v>
+        <v>58050</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08169999999999999</v>
+        <v>6.8175</v>
       </c>
       <c r="G61" t="n">
-        <v>-506.2452000000001</v>
+        <v>-641.2825000000004</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>57350</v>
+        <v>57850</v>
       </c>
       <c r="C62" t="n">
-        <v>57350</v>
+        <v>57850</v>
       </c>
       <c r="D62" t="n">
-        <v>57350</v>
+        <v>57850</v>
       </c>
       <c r="E62" t="n">
-        <v>57350</v>
+        <v>57850</v>
       </c>
       <c r="F62" t="n">
-        <v>37.2012</v>
+        <v>1.9861</v>
       </c>
       <c r="G62" t="n">
-        <v>-469.0440000000001</v>
+        <v>-643.2686000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="C63" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="D63" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="E63" t="n">
-        <v>57050</v>
+        <v>57900</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8244</v>
+        <v>0.8026</v>
       </c>
       <c r="G63" t="n">
-        <v>-469.8684000000001</v>
+        <v>-642.4660000000003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>56900</v>
+        <v>57950</v>
       </c>
       <c r="C64" t="n">
-        <v>56900</v>
+        <v>57950</v>
       </c>
       <c r="D64" t="n">
-        <v>56900</v>
+        <v>57950</v>
       </c>
       <c r="E64" t="n">
-        <v>56900</v>
+        <v>57950</v>
       </c>
       <c r="F64" t="n">
-        <v>10.3013</v>
+        <v>7.1686</v>
       </c>
       <c r="G64" t="n">
-        <v>-480.1697000000001</v>
+        <v>-635.2974000000004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>56900</v>
+        <v>57950</v>
       </c>
       <c r="C65" t="n">
-        <v>57200</v>
+        <v>57950</v>
       </c>
       <c r="D65" t="n">
-        <v>57200</v>
+        <v>57950</v>
       </c>
       <c r="E65" t="n">
-        <v>56900</v>
+        <v>57950</v>
       </c>
       <c r="F65" t="n">
-        <v>20.4</v>
+        <v>9.723100000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>-459.7697000000002</v>
+        <v>-635.2974000000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>57200</v>
+        <v>57950</v>
       </c>
       <c r="C66" t="n">
-        <v>57200</v>
+        <v>57900</v>
       </c>
       <c r="D66" t="n">
-        <v>57200</v>
+        <v>57950</v>
       </c>
       <c r="E66" t="n">
-        <v>57200</v>
+        <v>57900</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1958</v>
+        <v>2.4918</v>
       </c>
       <c r="G66" t="n">
-        <v>-459.7697000000002</v>
+        <v>-637.7892000000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>57500</v>
+        <v>57800</v>
       </c>
       <c r="C67" t="n">
-        <v>57500</v>
+        <v>57800</v>
       </c>
       <c r="D67" t="n">
-        <v>57500</v>
+        <v>57800</v>
       </c>
       <c r="E67" t="n">
-        <v>57500</v>
+        <v>57800</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3577</v>
+        <v>4.9402</v>
       </c>
       <c r="G67" t="n">
-        <v>-459.4120000000001</v>
+        <v>-642.7294000000004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>57500</v>
+        <v>57700</v>
       </c>
       <c r="C68" t="n">
-        <v>57500</v>
+        <v>57700</v>
       </c>
       <c r="D68" t="n">
-        <v>57500</v>
+        <v>57700</v>
       </c>
       <c r="E68" t="n">
-        <v>57500</v>
+        <v>57700</v>
       </c>
       <c r="F68" t="n">
-        <v>14.2445</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>-459.4120000000001</v>
+        <v>-647.7294000000004</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>57500</v>
+        <v>57650</v>
       </c>
       <c r="C69" t="n">
-        <v>57500</v>
+        <v>57650</v>
       </c>
       <c r="D69" t="n">
-        <v>57500</v>
+        <v>57650</v>
       </c>
       <c r="E69" t="n">
-        <v>57500</v>
+        <v>57650</v>
       </c>
       <c r="F69" t="n">
-        <v>65.4007</v>
+        <v>7.8632</v>
       </c>
       <c r="G69" t="n">
-        <v>-459.4120000000001</v>
+        <v>-655.5926000000004</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>57550</v>
+        <v>57450</v>
       </c>
       <c r="C70" t="n">
-        <v>57550</v>
+        <v>57450</v>
       </c>
       <c r="D70" t="n">
-        <v>57550</v>
+        <v>57450</v>
       </c>
       <c r="E70" t="n">
-        <v>57550</v>
+        <v>57450</v>
       </c>
       <c r="F70" t="n">
-        <v>0.35</v>
+        <v>4.7633</v>
       </c>
       <c r="G70" t="n">
-        <v>-459.0620000000001</v>
+        <v>-660.3559000000004</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>57500</v>
+        <v>57450</v>
       </c>
       <c r="C71" t="n">
-        <v>57500</v>
+        <v>57250</v>
       </c>
       <c r="D71" t="n">
-        <v>57500</v>
+        <v>57450</v>
       </c>
       <c r="E71" t="n">
-        <v>57500</v>
+        <v>57250</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4823</v>
+        <v>5.2032</v>
       </c>
       <c r="G71" t="n">
-        <v>-459.5443000000001</v>
+        <v>-665.5591000000004</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>57500</v>
+        <v>57100</v>
       </c>
       <c r="C72" t="n">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="D72" t="n">
-        <v>57500</v>
+        <v>57100</v>
       </c>
       <c r="E72" t="n">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4581</v>
+        <v>21.824</v>
       </c>
       <c r="G72" t="n">
-        <v>-459.5443000000001</v>
+        <v>-687.3831000000004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>57300</v>
+        <v>56700</v>
       </c>
       <c r="C73" t="n">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="D73" t="n">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="E73" t="n">
-        <v>57300</v>
+        <v>56650</v>
       </c>
       <c r="F73" t="n">
-        <v>2.0058</v>
+        <v>7.83</v>
       </c>
       <c r="G73" t="n">
-        <v>-461.5501000000002</v>
+        <v>-695.2131000000004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="C74" t="n">
-        <v>57300</v>
+        <v>56300</v>
       </c>
       <c r="D74" t="n">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="E74" t="n">
-        <v>57300</v>
+        <v>56300</v>
       </c>
       <c r="F74" t="n">
-        <v>5.5712</v>
+        <v>45.6</v>
       </c>
       <c r="G74" t="n">
-        <v>-461.5501000000002</v>
+        <v>-740.8131000000004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="C75" t="n">
-        <v>57300</v>
+        <v>56200</v>
       </c>
       <c r="D75" t="n">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="E75" t="n">
-        <v>57300</v>
+        <v>56200</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3525</v>
+        <v>52</v>
       </c>
       <c r="G75" t="n">
-        <v>-461.5501000000002</v>
+        <v>-792.8131000000004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>57350</v>
+        <v>56800</v>
       </c>
       <c r="C76" t="n">
-        <v>57350</v>
+        <v>56800</v>
       </c>
       <c r="D76" t="n">
-        <v>57350</v>
+        <v>56800</v>
       </c>
       <c r="E76" t="n">
-        <v>57350</v>
+        <v>56800</v>
       </c>
       <c r="F76" t="n">
-        <v>0.025</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>-461.5251000000002</v>
+        <v>-789.8131000000004</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="C77" t="n">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="D77" t="n">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="E77" t="n">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="F77" t="n">
-        <v>0.07049999999999999</v>
+        <v>8.160399999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-461.5956000000002</v>
+        <v>-797.9735000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>57050</v>
+        <v>56750</v>
       </c>
       <c r="C78" t="n">
-        <v>57050</v>
+        <v>56750</v>
       </c>
       <c r="D78" t="n">
-        <v>57050</v>
+        <v>56750</v>
       </c>
       <c r="E78" t="n">
-        <v>57050</v>
+        <v>56750</v>
       </c>
       <c r="F78" t="n">
-        <v>1.2916</v>
+        <v>0.0121</v>
       </c>
       <c r="G78" t="n">
-        <v>-462.8872000000002</v>
+        <v>-797.9614000000004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>57100</v>
+        <v>57000</v>
       </c>
       <c r="C79" t="n">
-        <v>57100</v>
+        <v>57000</v>
       </c>
       <c r="D79" t="n">
-        <v>57100</v>
+        <v>57000</v>
       </c>
       <c r="E79" t="n">
-        <v>57100</v>
+        <v>57000</v>
       </c>
       <c r="F79" t="n">
-        <v>0.025</v>
+        <v>0.0234</v>
       </c>
       <c r="G79" t="n">
-        <v>-462.8622000000002</v>
+        <v>-797.9380000000003</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3175,10 +3258,10 @@
         <v>57000</v>
       </c>
       <c r="F80" t="n">
-        <v>1.35</v>
+        <v>0.0185</v>
       </c>
       <c r="G80" t="n">
-        <v>-464.2122000000002</v>
+        <v>-797.9380000000003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3210,10 +3294,10 @@
         <v>57000</v>
       </c>
       <c r="F81" t="n">
-        <v>3.9999</v>
+        <v>6.8</v>
       </c>
       <c r="G81" t="n">
-        <v>-464.2122000000002</v>
+        <v>-797.9380000000003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="C82" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="D82" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="E82" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="F82" t="n">
-        <v>0.273</v>
+        <v>0.2</v>
       </c>
       <c r="G82" t="n">
-        <v>-464.4852000000002</v>
+        <v>-797.7380000000003</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>57450</v>
+        <v>57050</v>
       </c>
       <c r="C83" t="n">
-        <v>57450</v>
+        <v>57050</v>
       </c>
       <c r="D83" t="n">
-        <v>57450</v>
+        <v>57050</v>
       </c>
       <c r="E83" t="n">
-        <v>57450</v>
+        <v>57050</v>
       </c>
       <c r="F83" t="n">
-        <v>3.3799</v>
+        <v>3.8587</v>
       </c>
       <c r="G83" t="n">
-        <v>-461.1053000000002</v>
+        <v>-797.7380000000003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="C84" t="n">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="D84" t="n">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="E84" t="n">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="F84" t="n">
-        <v>16.3399</v>
+        <v>0.8161</v>
       </c>
       <c r="G84" t="n">
-        <v>-444.7654000000002</v>
+        <v>-798.5541000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>57600</v>
+        <v>57050</v>
       </c>
       <c r="C85" t="n">
-        <v>57650</v>
+        <v>57150</v>
       </c>
       <c r="D85" t="n">
-        <v>57650</v>
+        <v>57150</v>
       </c>
       <c r="E85" t="n">
-        <v>57600</v>
+        <v>57050</v>
       </c>
       <c r="F85" t="n">
-        <v>63.3575</v>
+        <v>56.61448538</v>
       </c>
       <c r="G85" t="n">
-        <v>-381.4079000000002</v>
+        <v>-741.9396146200003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>57600</v>
+        <v>57050</v>
       </c>
       <c r="C86" t="n">
-        <v>57600</v>
+        <v>56900</v>
       </c>
       <c r="D86" t="n">
-        <v>57600</v>
+        <v>57050</v>
       </c>
       <c r="E86" t="n">
-        <v>57600</v>
+        <v>56900</v>
       </c>
       <c r="F86" t="n">
-        <v>0.99</v>
+        <v>48</v>
       </c>
       <c r="G86" t="n">
-        <v>-382.3979000000002</v>
+        <v>-789.9396146200003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>57650</v>
+        <v>56950</v>
       </c>
       <c r="C87" t="n">
-        <v>57650</v>
+        <v>56950</v>
       </c>
       <c r="D87" t="n">
-        <v>57650</v>
+        <v>56950</v>
       </c>
       <c r="E87" t="n">
-        <v>57650</v>
+        <v>56950</v>
       </c>
       <c r="F87" t="n">
-        <v>77.9374</v>
+        <v>0.1731</v>
       </c>
       <c r="G87" t="n">
-        <v>-304.4605000000003</v>
+        <v>-789.7665146200003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>57800</v>
+        <v>57150</v>
       </c>
       <c r="C88" t="n">
-        <v>57800</v>
+        <v>57150</v>
       </c>
       <c r="D88" t="n">
-        <v>57800</v>
+        <v>57150</v>
       </c>
       <c r="E88" t="n">
-        <v>57800</v>
+        <v>57150</v>
       </c>
       <c r="F88" t="n">
-        <v>39.2411</v>
+        <v>7.2135</v>
       </c>
       <c r="G88" t="n">
-        <v>-265.2194000000002</v>
+        <v>-782.5530146200003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>57700</v>
+        <v>57150</v>
       </c>
       <c r="C89" t="n">
-        <v>57700</v>
+        <v>57150</v>
       </c>
       <c r="D89" t="n">
-        <v>57700</v>
+        <v>57150</v>
       </c>
       <c r="E89" t="n">
-        <v>57700</v>
+        <v>57150</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0165</v>
+        <v>24.8312</v>
       </c>
       <c r="G89" t="n">
-        <v>-265.2359000000002</v>
+        <v>-782.5530146200003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>57250</v>
+        <v>57150</v>
       </c>
       <c r="C90" t="n">
-        <v>57200</v>
+        <v>57150</v>
       </c>
       <c r="D90" t="n">
-        <v>57250</v>
+        <v>57150</v>
       </c>
       <c r="E90" t="n">
-        <v>57200</v>
+        <v>57150</v>
       </c>
       <c r="F90" t="n">
-        <v>10.1738</v>
+        <v>0.0803</v>
       </c>
       <c r="G90" t="n">
-        <v>-275.4097000000003</v>
+        <v>-782.5530146200003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>57200</v>
+        <v>57250</v>
       </c>
       <c r="C91" t="n">
-        <v>57200</v>
+        <v>57250</v>
       </c>
       <c r="D91" t="n">
-        <v>57200</v>
+        <v>57250</v>
       </c>
       <c r="E91" t="n">
-        <v>57200</v>
+        <v>57250</v>
       </c>
       <c r="F91" t="n">
-        <v>19.7577</v>
+        <v>16.9375</v>
       </c>
       <c r="G91" t="n">
-        <v>-275.4097000000003</v>
+        <v>-765.6155146200003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>57550</v>
+        <v>57250</v>
       </c>
       <c r="C92" t="n">
-        <v>57550</v>
+        <v>57250</v>
       </c>
       <c r="D92" t="n">
-        <v>57550</v>
+        <v>57250</v>
       </c>
       <c r="E92" t="n">
-        <v>57550</v>
+        <v>57250</v>
       </c>
       <c r="F92" t="n">
-        <v>11.1441</v>
+        <v>0.58</v>
       </c>
       <c r="G92" t="n">
-        <v>-264.2656000000003</v>
+        <v>-765.6155146200003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="C93" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="D93" t="n">
-        <v>57550</v>
+        <v>57000</v>
       </c>
       <c r="E93" t="n">
-        <v>57500</v>
+        <v>56850</v>
       </c>
       <c r="F93" t="n">
-        <v>50</v>
+        <v>15.3</v>
       </c>
       <c r="G93" t="n">
-        <v>-264.2656000000003</v>
+        <v>-780.9155146200003</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="C94" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="D94" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="E94" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="F94" t="n">
-        <v>7.7738</v>
+        <v>8.864599999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>-264.2656000000003</v>
+        <v>-780.9155146200003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="C95" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="D95" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="E95" t="n">
-        <v>57550</v>
+        <v>56850</v>
       </c>
       <c r="F95" t="n">
-        <v>2.0721</v>
+        <v>0.049</v>
       </c>
       <c r="G95" t="n">
-        <v>-264.2656000000003</v>
+        <v>-780.9155146200003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>57900</v>
+        <v>56300</v>
       </c>
       <c r="C96" t="n">
-        <v>57450</v>
+        <v>56300</v>
       </c>
       <c r="D96" t="n">
-        <v>58300</v>
+        <v>56300</v>
       </c>
       <c r="E96" t="n">
-        <v>57450</v>
+        <v>56300</v>
       </c>
       <c r="F96" t="n">
-        <v>394.3235</v>
+        <v>70.7996</v>
       </c>
       <c r="G96" t="n">
-        <v>-658.5891000000004</v>
+        <v>-851.7151146200003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>57900</v>
+        <v>56500</v>
       </c>
       <c r="C97" t="n">
-        <v>57900</v>
+        <v>56500</v>
       </c>
       <c r="D97" t="n">
-        <v>57900</v>
+        <v>56500</v>
       </c>
       <c r="E97" t="n">
-        <v>57900</v>
+        <v>56500</v>
       </c>
       <c r="F97" t="n">
-        <v>13.6</v>
+        <v>1.7655</v>
       </c>
       <c r="G97" t="n">
-        <v>-644.9891000000003</v>
+        <v>-849.9496146200004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>57900</v>
+        <v>56500</v>
       </c>
       <c r="C98" t="n">
-        <v>57900</v>
+        <v>56300</v>
       </c>
       <c r="D98" t="n">
-        <v>57900</v>
+        <v>56500</v>
       </c>
       <c r="E98" t="n">
-        <v>57900</v>
+        <v>56300</v>
       </c>
       <c r="F98" t="n">
-        <v>5.1464</v>
+        <v>4.0726</v>
       </c>
       <c r="G98" t="n">
-        <v>-644.9891000000003</v>
+        <v>-854.0222146200003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>57900</v>
+        <v>56700</v>
       </c>
       <c r="C99" t="n">
-        <v>57900</v>
+        <v>56600</v>
       </c>
       <c r="D99" t="n">
-        <v>57900</v>
+        <v>56700</v>
       </c>
       <c r="E99" t="n">
-        <v>57900</v>
+        <v>56600</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0001</v>
+        <v>10.8276</v>
       </c>
       <c r="G99" t="n">
-        <v>-644.9891000000003</v>
+        <v>-843.1946146200004</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>58350</v>
+        <v>56600</v>
       </c>
       <c r="C100" t="n">
-        <v>58100</v>
+        <v>56600</v>
       </c>
       <c r="D100" t="n">
-        <v>58350</v>
+        <v>56600</v>
       </c>
       <c r="E100" t="n">
-        <v>58100</v>
+        <v>56600</v>
       </c>
       <c r="F100" t="n">
-        <v>10.5241</v>
+        <v>1.7823</v>
       </c>
       <c r="G100" t="n">
-        <v>-634.4650000000004</v>
+        <v>-843.1946146200004</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>58100</v>
+        <v>56600</v>
       </c>
       <c r="C101" t="n">
-        <v>58100</v>
+        <v>56600</v>
       </c>
       <c r="D101" t="n">
-        <v>58100</v>
+        <v>56600</v>
       </c>
       <c r="E101" t="n">
-        <v>58100</v>
+        <v>56600</v>
       </c>
       <c r="F101" t="n">
-        <v>6.8</v>
+        <v>6.6283</v>
       </c>
       <c r="G101" t="n">
-        <v>-634.4650000000004</v>
+        <v>-843.1946146200004</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>58100</v>
+        <v>56550</v>
       </c>
       <c r="C102" t="n">
-        <v>58100</v>
+        <v>56550</v>
       </c>
       <c r="D102" t="n">
-        <v>58100</v>
+        <v>56550</v>
       </c>
       <c r="E102" t="n">
-        <v>58100</v>
+        <v>56550</v>
       </c>
       <c r="F102" t="n">
-        <v>6.7825</v>
+        <v>7.1</v>
       </c>
       <c r="G102" t="n">
-        <v>-634.4650000000004</v>
+        <v>-850.2946146200004</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>58100</v>
+        <v>56500</v>
       </c>
       <c r="C103" t="n">
-        <v>58050</v>
+        <v>56350</v>
       </c>
       <c r="D103" t="n">
-        <v>58100</v>
+        <v>56500</v>
       </c>
       <c r="E103" t="n">
-        <v>58050</v>
+        <v>56350</v>
       </c>
       <c r="F103" t="n">
-        <v>6.8175</v>
+        <v>94.3633</v>
       </c>
       <c r="G103" t="n">
-        <v>-641.2825000000004</v>
+        <v>-944.6579146200004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>57850</v>
+        <v>56400</v>
       </c>
       <c r="C104" t="n">
-        <v>57850</v>
+        <v>56400</v>
       </c>
       <c r="D104" t="n">
-        <v>57850</v>
+        <v>56400</v>
       </c>
       <c r="E104" t="n">
-        <v>57850</v>
+        <v>56400</v>
       </c>
       <c r="F104" t="n">
-        <v>1.9861</v>
+        <v>0.14184397</v>
       </c>
       <c r="G104" t="n">
-        <v>-643.2686000000003</v>
+        <v>-944.5160706500004</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>57900</v>
+        <v>56250</v>
       </c>
       <c r="C105" t="n">
-        <v>57900</v>
+        <v>56250</v>
       </c>
       <c r="D105" t="n">
-        <v>57900</v>
+        <v>56250</v>
       </c>
       <c r="E105" t="n">
-        <v>57900</v>
+        <v>56250</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8026</v>
+        <v>16.0032</v>
       </c>
       <c r="G105" t="n">
-        <v>-642.4660000000003</v>
+        <v>-960.5192706500004</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>57950</v>
+        <v>56200</v>
       </c>
       <c r="C106" t="n">
-        <v>57950</v>
+        <v>56150</v>
       </c>
       <c r="D106" t="n">
-        <v>57950</v>
+        <v>56200</v>
       </c>
       <c r="E106" t="n">
-        <v>57950</v>
+        <v>56150</v>
       </c>
       <c r="F106" t="n">
-        <v>7.1686</v>
+        <v>12.3219</v>
       </c>
       <c r="G106" t="n">
-        <v>-635.2974000000004</v>
+        <v>-972.8411706500004</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>57950</v>
+        <v>56650</v>
       </c>
       <c r="C107" t="n">
-        <v>57950</v>
+        <v>56650</v>
       </c>
       <c r="D107" t="n">
-        <v>57950</v>
+        <v>56650</v>
       </c>
       <c r="E107" t="n">
-        <v>57950</v>
+        <v>56650</v>
       </c>
       <c r="F107" t="n">
-        <v>9.723100000000001</v>
+        <v>0.0176</v>
       </c>
       <c r="G107" t="n">
-        <v>-635.2974000000004</v>
+        <v>-972.8235706500004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>57950</v>
+        <v>56400</v>
       </c>
       <c r="C108" t="n">
-        <v>57900</v>
+        <v>56400</v>
       </c>
       <c r="D108" t="n">
-        <v>57950</v>
+        <v>56400</v>
       </c>
       <c r="E108" t="n">
-        <v>57900</v>
+        <v>56400</v>
       </c>
       <c r="F108" t="n">
-        <v>2.4918</v>
+        <v>10.0049</v>
       </c>
       <c r="G108" t="n">
-        <v>-637.7892000000004</v>
+        <v>-982.8284706500004</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>57800</v>
+        <v>56750</v>
       </c>
       <c r="C109" t="n">
-        <v>57800</v>
+        <v>56750</v>
       </c>
       <c r="D109" t="n">
-        <v>57800</v>
+        <v>56750</v>
       </c>
       <c r="E109" t="n">
-        <v>57800</v>
+        <v>56750</v>
       </c>
       <c r="F109" t="n">
-        <v>4.9402</v>
+        <v>2.0453</v>
       </c>
       <c r="G109" t="n">
-        <v>-642.7294000000004</v>
+        <v>-980.7831706500004</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>57700</v>
+        <v>56750</v>
       </c>
       <c r="C110" t="n">
-        <v>57700</v>
+        <v>56750</v>
       </c>
       <c r="D110" t="n">
-        <v>57700</v>
+        <v>56750</v>
       </c>
       <c r="E110" t="n">
-        <v>57700</v>
+        <v>56750</v>
       </c>
       <c r="F110" t="n">
-        <v>5</v>
+        <v>4.5831</v>
       </c>
       <c r="G110" t="n">
-        <v>-647.7294000000004</v>
+        <v>-980.7831706500004</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>57650</v>
+        <v>56800</v>
       </c>
       <c r="C111" t="n">
-        <v>57650</v>
+        <v>56850</v>
       </c>
       <c r="D111" t="n">
-        <v>57650</v>
+        <v>56850</v>
       </c>
       <c r="E111" t="n">
-        <v>57650</v>
+        <v>56800</v>
       </c>
       <c r="F111" t="n">
-        <v>7.8632</v>
+        <v>3.8022</v>
       </c>
       <c r="G111" t="n">
-        <v>-655.5926000000004</v>
+        <v>-976.9809706500005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="C112" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="D112" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="E112" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="F112" t="n">
-        <v>4.7633</v>
+        <v>2.1882</v>
       </c>
       <c r="G112" t="n">
-        <v>-660.3559000000004</v>
+        <v>-974.7927706500004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="C113" t="n">
-        <v>57250</v>
+        <v>56950</v>
       </c>
       <c r="D113" t="n">
-        <v>57450</v>
+        <v>56950</v>
       </c>
       <c r="E113" t="n">
-        <v>57250</v>
+        <v>56950</v>
       </c>
       <c r="F113" t="n">
-        <v>5.2032</v>
+        <v>22.1963</v>
       </c>
       <c r="G113" t="n">
-        <v>-665.5591000000004</v>
+        <v>-974.7927706500004</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>57100</v>
+        <v>57050</v>
       </c>
       <c r="C114" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="D114" t="n">
-        <v>57100</v>
+        <v>57050</v>
       </c>
       <c r="E114" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="F114" t="n">
-        <v>21.824</v>
+        <v>0.8167</v>
       </c>
       <c r="G114" t="n">
-        <v>-687.3831000000004</v>
+        <v>-973.9760706500005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>56700</v>
+        <v>56950</v>
       </c>
       <c r="C115" t="n">
-        <v>56800</v>
+        <v>56950</v>
       </c>
       <c r="D115" t="n">
-        <v>56800</v>
+        <v>56950</v>
       </c>
       <c r="E115" t="n">
-        <v>56650</v>
+        <v>56950</v>
       </c>
       <c r="F115" t="n">
-        <v>7.83</v>
+        <v>0.0249</v>
       </c>
       <c r="G115" t="n">
-        <v>-695.2131000000004</v>
+        <v>-974.0009706500005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>56500</v>
+        <v>56350</v>
       </c>
       <c r="C116" t="n">
-        <v>56300</v>
+        <v>56200</v>
       </c>
       <c r="D116" t="n">
-        <v>56500</v>
+        <v>56350</v>
       </c>
       <c r="E116" t="n">
-        <v>56300</v>
+        <v>56200</v>
       </c>
       <c r="F116" t="n">
-        <v>45.6</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-740.8131000000004</v>
+        <v>-984.0009706500005</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>56500</v>
+        <v>56300</v>
       </c>
       <c r="C117" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="D117" t="n">
-        <v>56500</v>
+        <v>56300</v>
       </c>
       <c r="E117" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="F117" t="n">
-        <v>52</v>
+        <v>71.0214</v>
       </c>
       <c r="G117" t="n">
-        <v>-792.8131000000004</v>
+        <v>-912.9795706500005</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>56800</v>
+        <v>56100</v>
       </c>
       <c r="C118" t="n">
-        <v>56800</v>
+        <v>56100</v>
       </c>
       <c r="D118" t="n">
-        <v>56800</v>
+        <v>56100</v>
       </c>
       <c r="E118" t="n">
-        <v>56800</v>
+        <v>56100</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>56.5999</v>
       </c>
       <c r="G118" t="n">
-        <v>-789.8131000000004</v>
+        <v>-969.5794706500005</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4517,37 +4638,38 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="K118" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>56800</v>
+        <v>56100</v>
       </c>
       <c r="C119" t="n">
-        <v>56500</v>
+        <v>56100</v>
       </c>
       <c r="D119" t="n">
-        <v>56800</v>
+        <v>56100</v>
       </c>
       <c r="E119" t="n">
-        <v>56500</v>
+        <v>56100</v>
       </c>
       <c r="F119" t="n">
-        <v>8.160399999999999</v>
+        <v>7.3066</v>
       </c>
       <c r="G119" t="n">
-        <v>-797.9735000000004</v>
+        <v>-969.5794706500005</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4556,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>56800</v>
+        <v>56100</v>
       </c>
       <c r="K119" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4569,28 +4691,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="C120" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="D120" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="E120" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0121</v>
+        <v>0.4765</v>
       </c>
       <c r="G120" t="n">
-        <v>-797.9614000000004</v>
+        <v>-970.0559706500005</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4599,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>56500</v>
+        <v>56100</v>
       </c>
       <c r="K120" t="n">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4612,28 +4735,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>57000</v>
+        <v>56700</v>
       </c>
       <c r="C121" t="n">
-        <v>57000</v>
+        <v>56700</v>
       </c>
       <c r="D121" t="n">
-        <v>57000</v>
+        <v>56700</v>
       </c>
       <c r="E121" t="n">
-        <v>57000</v>
+        <v>56700</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0234</v>
+        <v>0.2858</v>
       </c>
       <c r="G121" t="n">
-        <v>-797.9380000000003</v>
+        <v>-969.7701706500005</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4642,37 +4766,38 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="K121" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>57000</v>
+        <v>57400</v>
       </c>
       <c r="C122" t="n">
-        <v>57000</v>
+        <v>57500</v>
       </c>
       <c r="D122" t="n">
-        <v>57000</v>
+        <v>57500</v>
       </c>
       <c r="E122" t="n">
-        <v>57000</v>
+        <v>57400</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0185</v>
+        <v>15.7248</v>
       </c>
       <c r="G122" t="n">
-        <v>-797.9380000000003</v>
+        <v>-954.0453706500006</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4681,10 +4806,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>57000</v>
+        <v>56700</v>
       </c>
       <c r="K122" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4694,40 +4819,39 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="C123" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="D123" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="E123" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="F123" t="n">
-        <v>6.8</v>
+        <v>0.85</v>
       </c>
       <c r="G123" t="n">
-        <v>-797.9380000000003</v>
+        <v>-953.1953706500005</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>57000</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>56750</v>
+        <v>56050</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4737,192 +4861,173 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>57050</v>
+        <v>58000</v>
       </c>
       <c r="C124" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="D124" t="n">
-        <v>57050</v>
+        <v>58000</v>
       </c>
       <c r="E124" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2</v>
+        <v>1.4767</v>
       </c>
       <c r="G124" t="n">
-        <v>-797.7380000000003</v>
+        <v>-951.7186706500005</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>57000</v>
-      </c>
-      <c r="K124" t="n">
-        <v>57000</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="C125" t="n">
-        <v>57050</v>
+        <v>58000</v>
       </c>
       <c r="D125" t="n">
-        <v>57050</v>
+        <v>58000</v>
       </c>
       <c r="E125" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="F125" t="n">
-        <v>3.8587</v>
+        <v>0.4926</v>
       </c>
       <c r="G125" t="n">
-        <v>-797.7380000000003</v>
+        <v>-951.2260706500005</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K125" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="C126" t="n">
-        <v>57000</v>
+        <v>58100</v>
       </c>
       <c r="D126" t="n">
-        <v>57000</v>
+        <v>58100</v>
       </c>
       <c r="E126" t="n">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8161</v>
+        <v>0.836</v>
       </c>
       <c r="G126" t="n">
-        <v>-798.5541000000003</v>
+        <v>-950.3900706500004</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K126" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>57050</v>
+        <v>57700</v>
       </c>
       <c r="C127" t="n">
-        <v>57150</v>
+        <v>58400</v>
       </c>
       <c r="D127" t="n">
-        <v>57150</v>
+        <v>58400</v>
       </c>
       <c r="E127" t="n">
-        <v>57050</v>
+        <v>57700</v>
       </c>
       <c r="F127" t="n">
-        <v>56.61448538</v>
+        <v>95.233</v>
       </c>
       <c r="G127" t="n">
-        <v>-741.9396146200003</v>
+        <v>-855.1570706500004</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>57000</v>
-      </c>
-      <c r="K127" t="n">
-        <v>57000</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>57050</v>
+        <v>58300</v>
       </c>
       <c r="C128" t="n">
-        <v>56900</v>
+        <v>58400</v>
       </c>
       <c r="D128" t="n">
-        <v>57050</v>
+        <v>58400</v>
       </c>
       <c r="E128" t="n">
-        <v>56900</v>
+        <v>58300</v>
       </c>
       <c r="F128" t="n">
-        <v>48</v>
+        <v>59.0024</v>
       </c>
       <c r="G128" t="n">
-        <v>-789.9396146200003</v>
+        <v>-855.1570706500004</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4931,39 +5036,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>56950</v>
+        <v>58400</v>
       </c>
       <c r="C129" t="n">
-        <v>56950</v>
+        <v>58400</v>
       </c>
       <c r="D129" t="n">
-        <v>56950</v>
+        <v>58400</v>
       </c>
       <c r="E129" t="n">
-        <v>56950</v>
+        <v>58400</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1731</v>
+        <v>5.118</v>
       </c>
       <c r="G129" t="n">
-        <v>-789.7665146200003</v>
+        <v>-855.1570706500004</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4972,39 +5072,34 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>57150</v>
+        <v>58500</v>
       </c>
       <c r="C130" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="D130" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="E130" t="n">
-        <v>57150</v>
+        <v>58500</v>
       </c>
       <c r="F130" t="n">
-        <v>7.2135</v>
+        <v>27.0587</v>
       </c>
       <c r="G130" t="n">
-        <v>-782.5530146200003</v>
+        <v>-828.0983706500003</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5013,1870 +5108,120 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="C131" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="D131" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="E131" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="F131" t="n">
-        <v>24.8312</v>
+        <v>14.5913</v>
       </c>
       <c r="G131" t="n">
-        <v>-782.5530146200003</v>
+        <v>-828.0983706500003</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>57150</v>
-      </c>
-      <c r="K131" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="C132" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="D132" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="E132" t="n">
-        <v>57150</v>
+        <v>58850</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0803</v>
+        <v>40.2035</v>
       </c>
       <c r="G132" t="n">
-        <v>-782.5530146200003</v>
+        <v>-828.0983706500003</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>57150</v>
-      </c>
-      <c r="K132" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>57250</v>
+        <v>59000</v>
       </c>
       <c r="C133" t="n">
-        <v>57250</v>
+        <v>59000</v>
       </c>
       <c r="D133" t="n">
-        <v>57250</v>
+        <v>59000</v>
       </c>
       <c r="E133" t="n">
-        <v>57250</v>
+        <v>59000</v>
       </c>
       <c r="F133" t="n">
-        <v>16.9375</v>
+        <v>0.8186</v>
       </c>
       <c r="G133" t="n">
-        <v>-765.6155146200003</v>
+        <v>-827.2797706500004</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>57150</v>
-      </c>
-      <c r="K133" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>57250</v>
-      </c>
-      <c r="C134" t="n">
-        <v>57250</v>
-      </c>
-      <c r="D134" t="n">
-        <v>57250</v>
-      </c>
-      <c r="E134" t="n">
-        <v>57250</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-765.6155146200003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C135" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D135" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E135" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F135" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>56850</v>
-      </c>
-      <c r="C136" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D136" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E136" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F136" t="n">
-        <v>8.864599999999999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>56850</v>
-      </c>
-      <c r="C137" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D137" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E137" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>56300</v>
-      </c>
-      <c r="C138" t="n">
-        <v>56300</v>
-      </c>
-      <c r="D138" t="n">
-        <v>56300</v>
-      </c>
-      <c r="E138" t="n">
-        <v>56300</v>
-      </c>
-      <c r="F138" t="n">
-        <v>70.7996</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-851.7151146200003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>56500</v>
-      </c>
-      <c r="C139" t="n">
-        <v>56500</v>
-      </c>
-      <c r="D139" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E139" t="n">
-        <v>56500</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1.7655</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-849.9496146200004</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>56500</v>
-      </c>
-      <c r="C140" t="n">
-        <v>56300</v>
-      </c>
-      <c r="D140" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E140" t="n">
-        <v>56300</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4.0726</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-854.0222146200003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>56700</v>
-      </c>
-      <c r="C141" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D141" t="n">
-        <v>56700</v>
-      </c>
-      <c r="E141" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10.8276</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>56600</v>
-      </c>
-      <c r="C142" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D142" t="n">
-        <v>56600</v>
-      </c>
-      <c r="E142" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1.7823</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>56600</v>
-      </c>
-      <c r="C143" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D143" t="n">
-        <v>56600</v>
-      </c>
-      <c r="E143" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F143" t="n">
-        <v>6.6283</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>56550</v>
-      </c>
-      <c r="C144" t="n">
-        <v>56550</v>
-      </c>
-      <c r="D144" t="n">
-        <v>56550</v>
-      </c>
-      <c r="E144" t="n">
-        <v>56550</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-850.2946146200004</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>56500</v>
-      </c>
-      <c r="C145" t="n">
-        <v>56350</v>
-      </c>
-      <c r="D145" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E145" t="n">
-        <v>56350</v>
-      </c>
-      <c r="F145" t="n">
-        <v>94.3633</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-944.6579146200004</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>56400</v>
-      </c>
-      <c r="C146" t="n">
-        <v>56400</v>
-      </c>
-      <c r="D146" t="n">
-        <v>56400</v>
-      </c>
-      <c r="E146" t="n">
-        <v>56400</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.14184397</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-944.5160706500004</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>56250</v>
-      </c>
-      <c r="C147" t="n">
-        <v>56250</v>
-      </c>
-      <c r="D147" t="n">
-        <v>56250</v>
-      </c>
-      <c r="E147" t="n">
-        <v>56250</v>
-      </c>
-      <c r="F147" t="n">
-        <v>16.0032</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-960.5192706500004</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>56200</v>
-      </c>
-      <c r="C148" t="n">
-        <v>56150</v>
-      </c>
-      <c r="D148" t="n">
-        <v>56200</v>
-      </c>
-      <c r="E148" t="n">
-        <v>56150</v>
-      </c>
-      <c r="F148" t="n">
-        <v>12.3219</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-972.8411706500004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>56650</v>
-      </c>
-      <c r="C149" t="n">
-        <v>56650</v>
-      </c>
-      <c r="D149" t="n">
-        <v>56650</v>
-      </c>
-      <c r="E149" t="n">
-        <v>56650</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.0176</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-972.8235706500004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>56400</v>
-      </c>
-      <c r="C150" t="n">
-        <v>56400</v>
-      </c>
-      <c r="D150" t="n">
-        <v>56400</v>
-      </c>
-      <c r="E150" t="n">
-        <v>56400</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10.0049</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-982.8284706500004</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>56750</v>
-      </c>
-      <c r="C151" t="n">
-        <v>56750</v>
-      </c>
-      <c r="D151" t="n">
-        <v>56750</v>
-      </c>
-      <c r="E151" t="n">
-        <v>56750</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2.0453</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-980.7831706500004</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>56750</v>
-      </c>
-      <c r="C152" t="n">
-        <v>56750</v>
-      </c>
-      <c r="D152" t="n">
-        <v>56750</v>
-      </c>
-      <c r="E152" t="n">
-        <v>56750</v>
-      </c>
-      <c r="F152" t="n">
-        <v>4.5831</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-980.7831706500004</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C153" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D153" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E153" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3.8022</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-976.9809706500005</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C154" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D154" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E154" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2.1882</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-974.7927706500004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C155" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D155" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E155" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F155" t="n">
-        <v>22.1963</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-974.7927706500004</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C156" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D156" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E156" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.8167</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-973.9760706500005</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C157" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D157" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E157" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.0249</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-974.0009706500005</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>56350</v>
-      </c>
-      <c r="C158" t="n">
-        <v>56200</v>
-      </c>
-      <c r="D158" t="n">
-        <v>56350</v>
-      </c>
-      <c r="E158" t="n">
-        <v>56200</v>
-      </c>
-      <c r="F158" t="n">
-        <v>10</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-984.0009706500005</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>56300</v>
-      </c>
-      <c r="C159" t="n">
-        <v>56300</v>
-      </c>
-      <c r="D159" t="n">
-        <v>56300</v>
-      </c>
-      <c r="E159" t="n">
-        <v>56300</v>
-      </c>
-      <c r="F159" t="n">
-        <v>71.0214</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-912.9795706500005</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>56100</v>
-      </c>
-      <c r="C160" t="n">
-        <v>56100</v>
-      </c>
-      <c r="D160" t="n">
-        <v>56100</v>
-      </c>
-      <c r="E160" t="n">
-        <v>56100</v>
-      </c>
-      <c r="F160" t="n">
-        <v>56.5999</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-969.5794706500005</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>56100</v>
-      </c>
-      <c r="C161" t="n">
-        <v>56100</v>
-      </c>
-      <c r="D161" t="n">
-        <v>56100</v>
-      </c>
-      <c r="E161" t="n">
-        <v>56100</v>
-      </c>
-      <c r="F161" t="n">
-        <v>7.3066</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-969.5794706500005</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>56050</v>
-      </c>
-      <c r="C162" t="n">
-        <v>56050</v>
-      </c>
-      <c r="D162" t="n">
-        <v>56050</v>
-      </c>
-      <c r="E162" t="n">
-        <v>56050</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-970.0559706500005</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>56700</v>
-      </c>
-      <c r="C163" t="n">
-        <v>56700</v>
-      </c>
-      <c r="D163" t="n">
-        <v>56700</v>
-      </c>
-      <c r="E163" t="n">
-        <v>56700</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.2858</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-969.7701706500005</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>56050</v>
-      </c>
-      <c r="K163" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>57400</v>
-      </c>
-      <c r="C164" t="n">
-        <v>57500</v>
-      </c>
-      <c r="D164" t="n">
-        <v>57500</v>
-      </c>
-      <c r="E164" t="n">
-        <v>57400</v>
-      </c>
-      <c r="F164" t="n">
-        <v>15.7248</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-954.0453706500006</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>57800</v>
-      </c>
-      <c r="C165" t="n">
-        <v>57800</v>
-      </c>
-      <c r="D165" t="n">
-        <v>57800</v>
-      </c>
-      <c r="E165" t="n">
-        <v>57800</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-953.1953706500005</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>58000</v>
-      </c>
-      <c r="C166" t="n">
-        <v>57950</v>
-      </c>
-      <c r="D166" t="n">
-        <v>58000</v>
-      </c>
-      <c r="E166" t="n">
-        <v>57950</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1.4767</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-951.7186706500005</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>57950</v>
-      </c>
-      <c r="C167" t="n">
-        <v>58000</v>
-      </c>
-      <c r="D167" t="n">
-        <v>58000</v>
-      </c>
-      <c r="E167" t="n">
-        <v>57950</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.4926</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-951.2260706500005</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>58000</v>
-      </c>
-      <c r="C168" t="n">
-        <v>58100</v>
-      </c>
-      <c r="D168" t="n">
-        <v>58100</v>
-      </c>
-      <c r="E168" t="n">
-        <v>58000</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-950.3900706500004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>57700</v>
-      </c>
-      <c r="C169" t="n">
-        <v>58400</v>
-      </c>
-      <c r="D169" t="n">
-        <v>58400</v>
-      </c>
-      <c r="E169" t="n">
-        <v>57700</v>
-      </c>
-      <c r="F169" t="n">
-        <v>95.233</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>58300</v>
-      </c>
-      <c r="C170" t="n">
-        <v>58400</v>
-      </c>
-      <c r="D170" t="n">
-        <v>58400</v>
-      </c>
-      <c r="E170" t="n">
-        <v>58300</v>
-      </c>
-      <c r="F170" t="n">
-        <v>59.0024</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>58400</v>
-      </c>
-      <c r="C171" t="n">
-        <v>58400</v>
-      </c>
-      <c r="D171" t="n">
-        <v>58400</v>
-      </c>
-      <c r="E171" t="n">
-        <v>58400</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5.118</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>58500</v>
-      </c>
-      <c r="C172" t="n">
-        <v>58850</v>
-      </c>
-      <c r="D172" t="n">
-        <v>58850</v>
-      </c>
-      <c r="E172" t="n">
-        <v>58500</v>
-      </c>
-      <c r="F172" t="n">
-        <v>27.0587</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>58850</v>
-      </c>
-      <c r="C173" t="n">
-        <v>58850</v>
-      </c>
-      <c r="D173" t="n">
-        <v>58850</v>
-      </c>
-      <c r="E173" t="n">
-        <v>58850</v>
-      </c>
-      <c r="F173" t="n">
-        <v>14.5913</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>58850</v>
-      </c>
-      <c r="C174" t="n">
-        <v>58850</v>
-      </c>
-      <c r="D174" t="n">
-        <v>58850</v>
-      </c>
-      <c r="E174" t="n">
-        <v>58850</v>
-      </c>
-      <c r="F174" t="n">
-        <v>40.2035</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>59000</v>
-      </c>
-      <c r="C175" t="n">
-        <v>59000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>59000</v>
-      </c>
-      <c r="E175" t="n">
-        <v>59000</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.8186</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-827.2797706500004</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>57000</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>57850</v>
+        <v>56900</v>
       </c>
       <c r="C2" t="n">
-        <v>57800</v>
+        <v>56900</v>
       </c>
       <c r="D2" t="n">
-        <v>57850</v>
+        <v>56900</v>
       </c>
       <c r="E2" t="n">
-        <v>57800</v>
+        <v>56900</v>
       </c>
       <c r="F2" t="n">
-        <v>9.3856</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>-302.6596</v>
+        <v>-72.14320000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>57700</v>
+        <v>56950</v>
       </c>
       <c r="C3" t="n">
-        <v>57700</v>
+        <v>56950</v>
       </c>
       <c r="D3" t="n">
-        <v>57700</v>
+        <v>56950</v>
       </c>
       <c r="E3" t="n">
-        <v>57700</v>
+        <v>56950</v>
       </c>
       <c r="F3" t="n">
-        <v>1.931</v>
+        <v>4.0915</v>
       </c>
       <c r="G3" t="n">
-        <v>-304.5906</v>
+        <v>-68.05170000000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>57600</v>
+        <v>56750</v>
       </c>
       <c r="C4" t="n">
-        <v>57600</v>
+        <v>56750</v>
       </c>
       <c r="D4" t="n">
-        <v>57600</v>
+        <v>56750</v>
       </c>
       <c r="E4" t="n">
-        <v>57600</v>
+        <v>56750</v>
       </c>
       <c r="F4" t="n">
-        <v>0.85</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>-305.4406</v>
+        <v>-70.07170000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57300</v>
+        <v>56750</v>
       </c>
       <c r="C5" t="n">
-        <v>57200</v>
+        <v>56750</v>
       </c>
       <c r="D5" t="n">
-        <v>57300</v>
+        <v>56750</v>
       </c>
       <c r="E5" t="n">
-        <v>57200</v>
+        <v>56750</v>
       </c>
       <c r="F5" t="n">
-        <v>20.0393</v>
+        <v>2.0715</v>
       </c>
       <c r="G5" t="n">
-        <v>-325.4799</v>
+        <v>-70.07170000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="C6" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="D6" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="E6" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="F6" t="n">
-        <v>3.6602</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-321.8197000000001</v>
+        <v>-65.07170000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="C7" t="n">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="D7" t="n">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="E7" t="n">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-312.8197000000001</v>
+        <v>-65.57170000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57200</v>
+        <v>57000</v>
       </c>
       <c r="C8" t="n">
-        <v>57300</v>
+        <v>57000</v>
       </c>
       <c r="D8" t="n">
-        <v>57300</v>
+        <v>57000</v>
       </c>
       <c r="E8" t="n">
-        <v>57200</v>
+        <v>57000</v>
       </c>
       <c r="F8" t="n">
-        <v>31.0448</v>
+        <v>0.3</v>
       </c>
       <c r="G8" t="n">
-        <v>-343.8645000000001</v>
+        <v>-65.27170000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57200</v>
+        <v>57100</v>
       </c>
       <c r="C9" t="n">
-        <v>57200</v>
+        <v>57100</v>
       </c>
       <c r="D9" t="n">
-        <v>57200</v>
+        <v>57100</v>
       </c>
       <c r="E9" t="n">
-        <v>57200</v>
+        <v>57100</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5702</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>-368.4347000000001</v>
+        <v>-56.27170000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="C10" t="n">
-        <v>57050</v>
+        <v>57300</v>
       </c>
       <c r="D10" t="n">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="E10" t="n">
-        <v>57050</v>
+        <v>57300</v>
       </c>
       <c r="F10" t="n">
-        <v>117.5</v>
+        <v>0.0455</v>
       </c>
       <c r="G10" t="n">
-        <v>-485.9347000000001</v>
+        <v>-56.22620000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>56800</v>
+        <v>58000</v>
       </c>
       <c r="C11" t="n">
-        <v>56750</v>
+        <v>58000</v>
       </c>
       <c r="D11" t="n">
-        <v>56800</v>
+        <v>58000</v>
       </c>
       <c r="E11" t="n">
-        <v>56750</v>
+        <v>58000</v>
       </c>
       <c r="F11" t="n">
-        <v>20.4873</v>
+        <v>12.2728</v>
       </c>
       <c r="G11" t="n">
-        <v>-506.4220000000001</v>
+        <v>-43.95340000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="C12" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="D12" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="E12" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1496</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>-506.2724000000001</v>
+        <v>-42.95340000000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57050</v>
+        <v>58350</v>
       </c>
       <c r="C13" t="n">
-        <v>57050</v>
+        <v>58400</v>
       </c>
       <c r="D13" t="n">
-        <v>57050</v>
+        <v>58400</v>
       </c>
       <c r="E13" t="n">
-        <v>57050</v>
+        <v>58350</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0528</v>
+        <v>16.6856</v>
       </c>
       <c r="G13" t="n">
-        <v>-506.2196000000001</v>
+        <v>-26.26780000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>57050</v>
+        <v>58450</v>
       </c>
       <c r="C14" t="n">
-        <v>57050</v>
+        <v>58450</v>
       </c>
       <c r="D14" t="n">
-        <v>57050</v>
+        <v>58450</v>
       </c>
       <c r="E14" t="n">
-        <v>57050</v>
+        <v>58450</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0528</v>
+        <v>0.8591</v>
       </c>
       <c r="G14" t="n">
-        <v>-506.2196000000001</v>
+        <v>-25.40870000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57050</v>
+        <v>58850</v>
       </c>
       <c r="C15" t="n">
-        <v>57050</v>
+        <v>58850</v>
       </c>
       <c r="D15" t="n">
-        <v>57050</v>
+        <v>58850</v>
       </c>
       <c r="E15" t="n">
-        <v>57050</v>
+        <v>58850</v>
       </c>
       <c r="F15" t="n">
-        <v>3843.044</v>
+        <v>2.8306</v>
       </c>
       <c r="G15" t="n">
-        <v>-506.2196000000001</v>
+        <v>-22.57810000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>57050</v>
+        <v>59300</v>
       </c>
       <c r="C16" t="n">
-        <v>57050</v>
+        <v>59400</v>
       </c>
       <c r="D16" t="n">
-        <v>57050</v>
+        <v>59400</v>
       </c>
       <c r="E16" t="n">
-        <v>57050</v>
+        <v>59300</v>
       </c>
       <c r="F16" t="n">
-        <v>64050</v>
+        <v>3.0929</v>
       </c>
       <c r="G16" t="n">
-        <v>-506.2196000000001</v>
+        <v>-19.48520000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57250</v>
+        <v>59450</v>
       </c>
       <c r="C17" t="n">
-        <v>57250</v>
+        <v>59700</v>
       </c>
       <c r="D17" t="n">
-        <v>57250</v>
+        <v>59700</v>
       </c>
       <c r="E17" t="n">
-        <v>57250</v>
+        <v>59450</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0561</v>
+        <v>59.5979</v>
       </c>
       <c r="G17" t="n">
-        <v>-506.1635000000001</v>
+        <v>40.11269999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>57250</v>
+        <v>59850</v>
       </c>
       <c r="C18" t="n">
-        <v>57250</v>
+        <v>59550</v>
       </c>
       <c r="D18" t="n">
-        <v>57250</v>
+        <v>59850</v>
       </c>
       <c r="E18" t="n">
-        <v>57250</v>
+        <v>59550</v>
       </c>
       <c r="F18" t="n">
-        <v>11.198</v>
+        <v>20.0487</v>
       </c>
       <c r="G18" t="n">
-        <v>-506.1635000000001</v>
+        <v>20.06399999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>57050</v>
+        <v>59650</v>
       </c>
       <c r="C19" t="n">
-        <v>57050</v>
+        <v>59600</v>
       </c>
       <c r="D19" t="n">
-        <v>57050</v>
+        <v>59650</v>
       </c>
       <c r="E19" t="n">
-        <v>57050</v>
+        <v>59550</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08169999999999999</v>
+        <v>67.6636</v>
       </c>
       <c r="G19" t="n">
-        <v>-506.2452000000001</v>
+        <v>87.72759999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57350</v>
+        <v>59550</v>
       </c>
       <c r="C20" t="n">
-        <v>57350</v>
+        <v>59250</v>
       </c>
       <c r="D20" t="n">
-        <v>57350</v>
+        <v>59550</v>
       </c>
       <c r="E20" t="n">
-        <v>57350</v>
+        <v>59200</v>
       </c>
       <c r="F20" t="n">
-        <v>37.2012</v>
+        <v>28.8949</v>
       </c>
       <c r="G20" t="n">
-        <v>-469.0440000000001</v>
+        <v>58.83269999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>57050</v>
+        <v>58900</v>
       </c>
       <c r="C21" t="n">
-        <v>57050</v>
+        <v>58900</v>
       </c>
       <c r="D21" t="n">
-        <v>57050</v>
+        <v>58900</v>
       </c>
       <c r="E21" t="n">
-        <v>57050</v>
+        <v>58900</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8244</v>
+        <v>6.2548</v>
       </c>
       <c r="G21" t="n">
-        <v>-469.8684000000001</v>
+        <v>52.57789999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>56900</v>
+        <v>58800</v>
       </c>
       <c r="C22" t="n">
-        <v>56900</v>
+        <v>58650</v>
       </c>
       <c r="D22" t="n">
-        <v>56900</v>
+        <v>58800</v>
       </c>
       <c r="E22" t="n">
-        <v>56900</v>
+        <v>58650</v>
       </c>
       <c r="F22" t="n">
-        <v>10.3013</v>
+        <v>1.7394</v>
       </c>
       <c r="G22" t="n">
-        <v>-480.1697000000001</v>
+        <v>50.83849999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>56900</v>
+        <v>58900</v>
       </c>
       <c r="C23" t="n">
-        <v>57200</v>
+        <v>58900</v>
       </c>
       <c r="D23" t="n">
-        <v>57200</v>
+        <v>58900</v>
       </c>
       <c r="E23" t="n">
-        <v>56900</v>
+        <v>58900</v>
       </c>
       <c r="F23" t="n">
-        <v>20.4</v>
+        <v>1.4497</v>
       </c>
       <c r="G23" t="n">
-        <v>-459.7697000000002</v>
+        <v>52.28819999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>57200</v>
+        <v>59100</v>
       </c>
       <c r="C24" t="n">
-        <v>57200</v>
+        <v>59100</v>
       </c>
       <c r="D24" t="n">
-        <v>57200</v>
+        <v>59100</v>
       </c>
       <c r="E24" t="n">
-        <v>57200</v>
+        <v>59100</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1958</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>-459.7697000000002</v>
+        <v>59.28819999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>57500</v>
+        <v>58800</v>
       </c>
       <c r="C25" t="n">
-        <v>57500</v>
+        <v>58800</v>
       </c>
       <c r="D25" t="n">
-        <v>57500</v>
+        <v>58800</v>
       </c>
       <c r="E25" t="n">
-        <v>57500</v>
+        <v>58800</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3577</v>
+        <v>1.4501</v>
       </c>
       <c r="G25" t="n">
-        <v>-459.4120000000001</v>
+        <v>57.83809999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>57500</v>
+        <v>58800</v>
       </c>
       <c r="C26" t="n">
-        <v>57500</v>
+        <v>58600</v>
       </c>
       <c r="D26" t="n">
-        <v>57500</v>
+        <v>58800</v>
       </c>
       <c r="E26" t="n">
-        <v>57500</v>
+        <v>58600</v>
       </c>
       <c r="F26" t="n">
-        <v>14.2445</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>-459.4120000000001</v>
+        <v>45.83809999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>57500</v>
+        <v>58600</v>
       </c>
       <c r="C27" t="n">
-        <v>57500</v>
+        <v>58500</v>
       </c>
       <c r="D27" t="n">
-        <v>57500</v>
+        <v>58600</v>
       </c>
       <c r="E27" t="n">
-        <v>57500</v>
+        <v>58500</v>
       </c>
       <c r="F27" t="n">
-        <v>65.4007</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>-459.4120000000001</v>
+        <v>30.83809999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57550</v>
+        <v>59200</v>
       </c>
       <c r="C28" t="n">
-        <v>57550</v>
+        <v>59200</v>
       </c>
       <c r="D28" t="n">
-        <v>57550</v>
+        <v>59200</v>
       </c>
       <c r="E28" t="n">
-        <v>57550</v>
+        <v>59200</v>
       </c>
       <c r="F28" t="n">
-        <v>0.35</v>
+        <v>0.829</v>
       </c>
       <c r="G28" t="n">
-        <v>-459.0620000000001</v>
+        <v>31.66709999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57500</v>
+        <v>59000</v>
       </c>
       <c r="C29" t="n">
-        <v>57500</v>
+        <v>59100</v>
       </c>
       <c r="D29" t="n">
-        <v>57500</v>
+        <v>59100</v>
       </c>
       <c r="E29" t="n">
-        <v>57500</v>
+        <v>59000</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4823</v>
+        <v>8.8246</v>
       </c>
       <c r="G29" t="n">
-        <v>-459.5443000000001</v>
+        <v>22.84249999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57500</v>
+        <v>59100</v>
       </c>
       <c r="C30" t="n">
-        <v>57500</v>
+        <v>59100</v>
       </c>
       <c r="D30" t="n">
-        <v>57500</v>
+        <v>59100</v>
       </c>
       <c r="E30" t="n">
-        <v>57500</v>
+        <v>59100</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4581</v>
+        <v>18.8816</v>
       </c>
       <c r="G30" t="n">
-        <v>-459.5443000000001</v>
+        <v>22.84249999999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57300</v>
+        <v>59150</v>
       </c>
       <c r="C31" t="n">
-        <v>57300</v>
+        <v>59150</v>
       </c>
       <c r="D31" t="n">
-        <v>57300</v>
+        <v>59150</v>
       </c>
       <c r="E31" t="n">
-        <v>57300</v>
+        <v>59150</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0058</v>
+        <v>1.839</v>
       </c>
       <c r="G31" t="n">
-        <v>-461.5501000000002</v>
+        <v>24.68149999999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57300</v>
+        <v>59050</v>
       </c>
       <c r="C32" t="n">
-        <v>57300</v>
+        <v>58400</v>
       </c>
       <c r="D32" t="n">
-        <v>57300</v>
+        <v>59050</v>
       </c>
       <c r="E32" t="n">
-        <v>57300</v>
+        <v>58400</v>
       </c>
       <c r="F32" t="n">
-        <v>5.5712</v>
+        <v>16.0321</v>
       </c>
       <c r="G32" t="n">
-        <v>-461.5501000000002</v>
+        <v>8.649399999999975</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57300</v>
+        <v>58350</v>
       </c>
       <c r="C33" t="n">
-        <v>57300</v>
+        <v>57900</v>
       </c>
       <c r="D33" t="n">
-        <v>57300</v>
+        <v>58350</v>
       </c>
       <c r="E33" t="n">
-        <v>57300</v>
+        <v>57900</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3525</v>
+        <v>58.7</v>
       </c>
       <c r="G33" t="n">
-        <v>-461.5501000000002</v>
+        <v>-50.05060000000003</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>57350</v>
+        <v>57500</v>
       </c>
       <c r="C34" t="n">
-        <v>57350</v>
+        <v>57500</v>
       </c>
       <c r="D34" t="n">
-        <v>57350</v>
+        <v>57850</v>
       </c>
       <c r="E34" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="F34" t="n">
-        <v>0.025</v>
+        <v>108.8766</v>
       </c>
       <c r="G34" t="n">
-        <v>-461.5251000000002</v>
+        <v>-158.9272</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="C35" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="D35" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="E35" t="n">
-        <v>57300</v>
+        <v>57500</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07049999999999999</v>
+        <v>1.7757</v>
       </c>
       <c r="G35" t="n">
-        <v>-461.5956000000002</v>
+        <v>-158.9272</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="C36" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="D36" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="E36" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="F36" t="n">
-        <v>1.2916</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>-462.8872000000002</v>
+        <v>-151.9272</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>57100</v>
+        <v>58000</v>
       </c>
       <c r="C37" t="n">
-        <v>57100</v>
+        <v>58000</v>
       </c>
       <c r="D37" t="n">
-        <v>57100</v>
+        <v>58000</v>
       </c>
       <c r="E37" t="n">
-        <v>57100</v>
+        <v>58000</v>
       </c>
       <c r="F37" t="n">
-        <v>0.025</v>
+        <v>57.5625</v>
       </c>
       <c r="G37" t="n">
-        <v>-462.8622000000002</v>
+        <v>-209.4897</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>57000</v>
+        <v>58200</v>
       </c>
       <c r="C38" t="n">
-        <v>57000</v>
+        <v>58050</v>
       </c>
       <c r="D38" t="n">
-        <v>57000</v>
+        <v>58300</v>
       </c>
       <c r="E38" t="n">
-        <v>57000</v>
+        <v>58050</v>
       </c>
       <c r="F38" t="n">
-        <v>1.35</v>
+        <v>17.8</v>
       </c>
       <c r="G38" t="n">
-        <v>-464.2122000000002</v>
+        <v>-191.6897</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="C39" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="D39" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="E39" t="n">
-        <v>57000</v>
+        <v>58350</v>
       </c>
       <c r="F39" t="n">
-        <v>3.9999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-464.2122000000002</v>
+        <v>-191.1287</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>56950</v>
+        <v>58150</v>
       </c>
       <c r="C40" t="n">
-        <v>56950</v>
+        <v>58150</v>
       </c>
       <c r="D40" t="n">
-        <v>56950</v>
+        <v>58150</v>
       </c>
       <c r="E40" t="n">
-        <v>56950</v>
+        <v>58150</v>
       </c>
       <c r="F40" t="n">
-        <v>0.273</v>
+        <v>0.2293</v>
       </c>
       <c r="G40" t="n">
-        <v>-464.4852000000002</v>
+        <v>-191.358</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>57450</v>
+        <v>58200</v>
       </c>
       <c r="C41" t="n">
-        <v>57450</v>
+        <v>58200</v>
       </c>
       <c r="D41" t="n">
-        <v>57450</v>
+        <v>58200</v>
       </c>
       <c r="E41" t="n">
-        <v>57450</v>
+        <v>58200</v>
       </c>
       <c r="F41" t="n">
-        <v>3.3799</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>-461.1053000000002</v>
+        <v>-186.358</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="C42" t="n">
         <v>57500</v>
       </c>
       <c r="D42" t="n">
-        <v>57500</v>
+        <v>57550</v>
       </c>
       <c r="E42" t="n">
         <v>57500</v>
       </c>
       <c r="F42" t="n">
-        <v>16.3399</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-444.7654000000002</v>
+        <v>-194.908</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>57600</v>
+        <v>57850</v>
       </c>
       <c r="C43" t="n">
-        <v>57650</v>
+        <v>57900</v>
       </c>
       <c r="D43" t="n">
-        <v>57650</v>
+        <v>57900</v>
       </c>
       <c r="E43" t="n">
-        <v>57600</v>
+        <v>57850</v>
       </c>
       <c r="F43" t="n">
-        <v>63.3575</v>
+        <v>4.2</v>
       </c>
       <c r="G43" t="n">
-        <v>-381.4079000000002</v>
+        <v>-190.708</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>57600</v>
+        <v>57550</v>
       </c>
       <c r="C44" t="n">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="D44" t="n">
-        <v>57600</v>
+        <v>57550</v>
       </c>
       <c r="E44" t="n">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="F44" t="n">
-        <v>0.99</v>
+        <v>18.8816</v>
       </c>
       <c r="G44" t="n">
-        <v>-382.3979000000002</v>
+        <v>-209.5896</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>57650</v>
+        <v>58050</v>
       </c>
       <c r="C45" t="n">
-        <v>57650</v>
+        <v>58500</v>
       </c>
       <c r="D45" t="n">
-        <v>57650</v>
+        <v>58500</v>
       </c>
       <c r="E45" t="n">
-        <v>57650</v>
+        <v>58050</v>
       </c>
       <c r="F45" t="n">
-        <v>77.9374</v>
+        <v>13.1</v>
       </c>
       <c r="G45" t="n">
-        <v>-304.4605000000003</v>
+        <v>-196.4896</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>57800</v>
+        <v>58200</v>
       </c>
       <c r="C46" t="n">
-        <v>57800</v>
+        <v>58200</v>
       </c>
       <c r="D46" t="n">
-        <v>57800</v>
+        <v>58200</v>
       </c>
       <c r="E46" t="n">
-        <v>57800</v>
+        <v>58200</v>
       </c>
       <c r="F46" t="n">
-        <v>39.2411</v>
+        <v>0.5285</v>
       </c>
       <c r="G46" t="n">
-        <v>-265.2194000000002</v>
+        <v>-197.0181</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="C47" t="n">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="D47" t="n">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="E47" t="n">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0165</v>
+        <v>0.43</v>
       </c>
       <c r="G47" t="n">
-        <v>-265.2359000000002</v>
+        <v>-197.4481</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>57250</v>
+        <v>58450</v>
       </c>
       <c r="C48" t="n">
-        <v>57200</v>
+        <v>58450</v>
       </c>
       <c r="D48" t="n">
-        <v>57250</v>
+        <v>58450</v>
       </c>
       <c r="E48" t="n">
-        <v>57200</v>
+        <v>58450</v>
       </c>
       <c r="F48" t="n">
-        <v>10.1738</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>-275.4097000000003</v>
+        <v>-196.4481</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>57200</v>
+        <v>58250</v>
       </c>
       <c r="C49" t="n">
-        <v>57200</v>
+        <v>58250</v>
       </c>
       <c r="D49" t="n">
-        <v>57200</v>
+        <v>58250</v>
       </c>
       <c r="E49" t="n">
-        <v>57200</v>
+        <v>58250</v>
       </c>
       <c r="F49" t="n">
-        <v>19.7577</v>
+        <v>0.1011</v>
       </c>
       <c r="G49" t="n">
-        <v>-275.4097000000003</v>
+        <v>-196.5492</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>57550</v>
+        <v>58400</v>
       </c>
       <c r="C50" t="n">
-        <v>57550</v>
+        <v>58400</v>
       </c>
       <c r="D50" t="n">
-        <v>57550</v>
+        <v>58400</v>
       </c>
       <c r="E50" t="n">
-        <v>57550</v>
+        <v>58400</v>
       </c>
       <c r="F50" t="n">
-        <v>11.1441</v>
+        <v>3.1664</v>
       </c>
       <c r="G50" t="n">
-        <v>-264.2656000000003</v>
+        <v>-193.3828</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>57500</v>
+        <v>58550</v>
       </c>
       <c r="C51" t="n">
-        <v>57550</v>
+        <v>58650</v>
       </c>
       <c r="D51" t="n">
-        <v>57550</v>
+        <v>58700</v>
       </c>
       <c r="E51" t="n">
-        <v>57500</v>
+        <v>58550</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>80.7621</v>
       </c>
       <c r="G51" t="n">
-        <v>-264.2656000000003</v>
+        <v>-112.6207</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>57550</v>
+        <v>58650</v>
       </c>
       <c r="C52" t="n">
-        <v>57550</v>
+        <v>58650</v>
       </c>
       <c r="D52" t="n">
-        <v>57550</v>
+        <v>58650</v>
       </c>
       <c r="E52" t="n">
-        <v>57550</v>
+        <v>58650</v>
       </c>
       <c r="F52" t="n">
-        <v>7.7738</v>
+        <v>4.4531</v>
       </c>
       <c r="G52" t="n">
-        <v>-264.2656000000003</v>
+        <v>-112.6207</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>57550</v>
+        <v>58800</v>
       </c>
       <c r="C53" t="n">
-        <v>57550</v>
+        <v>58800</v>
       </c>
       <c r="D53" t="n">
-        <v>57550</v>
+        <v>58800</v>
       </c>
       <c r="E53" t="n">
-        <v>57550</v>
+        <v>58800</v>
       </c>
       <c r="F53" t="n">
-        <v>2.0721</v>
+        <v>0.8264</v>
       </c>
       <c r="G53" t="n">
-        <v>-264.2656000000003</v>
+        <v>-111.7943</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="C54" t="n">
-        <v>57450</v>
+        <v>58800</v>
       </c>
       <c r="D54" t="n">
-        <v>58300</v>
+        <v>58800</v>
       </c>
       <c r="E54" t="n">
-        <v>57450</v>
+        <v>58800</v>
       </c>
       <c r="F54" t="n">
-        <v>394.3235</v>
+        <v>0.0236</v>
       </c>
       <c r="G54" t="n">
-        <v>-658.5891000000004</v>
+        <v>-111.7943</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="C55" t="n">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="D55" t="n">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="E55" t="n">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="F55" t="n">
-        <v>13.6</v>
+        <v>1.6964</v>
       </c>
       <c r="G55" t="n">
-        <v>-644.9891000000003</v>
+        <v>-111.7943</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>57900</v>
+        <v>58700</v>
       </c>
       <c r="C56" t="n">
-        <v>57900</v>
+        <v>58650</v>
       </c>
       <c r="D56" t="n">
-        <v>57900</v>
+        <v>58700</v>
       </c>
       <c r="E56" t="n">
-        <v>57900</v>
+        <v>58650</v>
       </c>
       <c r="F56" t="n">
-        <v>5.1464</v>
+        <v>51.0495</v>
       </c>
       <c r="G56" t="n">
-        <v>-644.9891000000003</v>
+        <v>-162.8438</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>57900</v>
+        <v>58550</v>
       </c>
       <c r="C57" t="n">
-        <v>57900</v>
+        <v>58500</v>
       </c>
       <c r="D57" t="n">
-        <v>57900</v>
+        <v>58550</v>
       </c>
       <c r="E57" t="n">
-        <v>57900</v>
+        <v>58500</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0001</v>
+        <v>74.60639999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-644.9891000000003</v>
+        <v>-237.4502</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>58350</v>
+        <v>59200</v>
       </c>
       <c r="C58" t="n">
-        <v>58100</v>
+        <v>59200</v>
       </c>
       <c r="D58" t="n">
-        <v>58350</v>
+        <v>59200</v>
       </c>
       <c r="E58" t="n">
-        <v>58100</v>
+        <v>59200</v>
       </c>
       <c r="F58" t="n">
-        <v>10.5241</v>
+        <v>0.8266</v>
       </c>
       <c r="G58" t="n">
-        <v>-634.4650000000004</v>
+        <v>-236.6236</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="C59" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="D59" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="E59" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="F59" t="n">
-        <v>6.8</v>
+        <v>0.82</v>
       </c>
       <c r="G59" t="n">
-        <v>-634.4650000000004</v>
+        <v>-237.4436</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="C60" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="D60" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="E60" t="n">
-        <v>58100</v>
+        <v>58850</v>
       </c>
       <c r="F60" t="n">
-        <v>6.7825</v>
+        <v>27.961</v>
       </c>
       <c r="G60" t="n">
-        <v>-634.4650000000004</v>
+        <v>-237.4436</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>58100</v>
+        <v>58600</v>
       </c>
       <c r="C61" t="n">
-        <v>58050</v>
+        <v>58600</v>
       </c>
       <c r="D61" t="n">
-        <v>58100</v>
+        <v>58600</v>
       </c>
       <c r="E61" t="n">
-        <v>58050</v>
+        <v>58600</v>
       </c>
       <c r="F61" t="n">
-        <v>6.8175</v>
+        <v>21.7967</v>
       </c>
       <c r="G61" t="n">
-        <v>-641.2825000000004</v>
+        <v>-259.2403</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>57850</v>
+        <v>58600</v>
       </c>
       <c r="C62" t="n">
-        <v>57850</v>
+        <v>58600</v>
       </c>
       <c r="D62" t="n">
-        <v>57850</v>
+        <v>58600</v>
       </c>
       <c r="E62" t="n">
-        <v>57850</v>
+        <v>58600</v>
       </c>
       <c r="F62" t="n">
-        <v>1.9861</v>
+        <v>0.1283</v>
       </c>
       <c r="G62" t="n">
-        <v>-643.2686000000003</v>
+        <v>-259.2403</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>57900</v>
+        <v>58550</v>
       </c>
       <c r="C63" t="n">
-        <v>57900</v>
+        <v>58600</v>
       </c>
       <c r="D63" t="n">
-        <v>57900</v>
+        <v>58600</v>
       </c>
       <c r="E63" t="n">
-        <v>57900</v>
+        <v>58550</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8026</v>
+        <v>19.8</v>
       </c>
       <c r="G63" t="n">
-        <v>-642.4660000000003</v>
+        <v>-259.2403</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>57950</v>
+        <v>58300</v>
       </c>
       <c r="C64" t="n">
-        <v>57950</v>
+        <v>58300</v>
       </c>
       <c r="D64" t="n">
-        <v>57950</v>
+        <v>58300</v>
       </c>
       <c r="E64" t="n">
-        <v>57950</v>
+        <v>58300</v>
       </c>
       <c r="F64" t="n">
-        <v>7.1686</v>
+        <v>1.41</v>
       </c>
       <c r="G64" t="n">
-        <v>-635.2974000000004</v>
+        <v>-260.6503</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>57950</v>
+        <v>58250</v>
       </c>
       <c r="C65" t="n">
-        <v>57950</v>
+        <v>58250</v>
       </c>
       <c r="D65" t="n">
-        <v>57950</v>
+        <v>58250</v>
       </c>
       <c r="E65" t="n">
-        <v>57950</v>
+        <v>58250</v>
       </c>
       <c r="F65" t="n">
-        <v>9.723100000000001</v>
+        <v>8.8835</v>
       </c>
       <c r="G65" t="n">
-        <v>-635.2974000000004</v>
+        <v>-269.5338</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>57950</v>
+        <v>58250</v>
       </c>
       <c r="C66" t="n">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="D66" t="n">
-        <v>57950</v>
+        <v>58300</v>
       </c>
       <c r="E66" t="n">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="F66" t="n">
-        <v>2.4918</v>
+        <v>18.9278</v>
       </c>
       <c r="G66" t="n">
-        <v>-637.7892000000004</v>
+        <v>-288.4616</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>57800</v>
+        <v>57950</v>
       </c>
       <c r="C67" t="n">
-        <v>57800</v>
+        <v>57950</v>
       </c>
       <c r="D67" t="n">
-        <v>57800</v>
+        <v>57950</v>
       </c>
       <c r="E67" t="n">
-        <v>57800</v>
+        <v>57950</v>
       </c>
       <c r="F67" t="n">
-        <v>4.9402</v>
+        <v>1.3867</v>
       </c>
       <c r="G67" t="n">
-        <v>-642.7294000000004</v>
+        <v>-289.8483000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>57700</v>
+        <v>57950</v>
       </c>
       <c r="C68" t="n">
-        <v>57700</v>
+        <v>57950</v>
       </c>
       <c r="D68" t="n">
-        <v>57700</v>
+        <v>57950</v>
       </c>
       <c r="E68" t="n">
-        <v>57700</v>
+        <v>57950</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>8.613300000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-647.7294000000004</v>
+        <v>-289.8483000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>57650</v>
+        <v>57900</v>
       </c>
       <c r="C69" t="n">
-        <v>57650</v>
+        <v>57900</v>
       </c>
       <c r="D69" t="n">
-        <v>57650</v>
+        <v>57900</v>
       </c>
       <c r="E69" t="n">
-        <v>57650</v>
+        <v>57900</v>
       </c>
       <c r="F69" t="n">
-        <v>7.8632</v>
+        <v>2.2458</v>
       </c>
       <c r="G69" t="n">
-        <v>-655.5926000000004</v>
+        <v>-292.0941</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>57450</v>
+        <v>57900</v>
       </c>
       <c r="C70" t="n">
-        <v>57450</v>
+        <v>57850</v>
       </c>
       <c r="D70" t="n">
-        <v>57450</v>
+        <v>57900</v>
       </c>
       <c r="E70" t="n">
-        <v>57450</v>
+        <v>57850</v>
       </c>
       <c r="F70" t="n">
-        <v>4.7633</v>
+        <v>1.1799</v>
       </c>
       <c r="G70" t="n">
-        <v>-660.3559000000004</v>
+        <v>-293.274</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>57450</v>
+        <v>58000</v>
       </c>
       <c r="C71" t="n">
-        <v>57250</v>
+        <v>57850</v>
       </c>
       <c r="D71" t="n">
-        <v>57450</v>
+        <v>58000</v>
       </c>
       <c r="E71" t="n">
-        <v>57250</v>
+        <v>57850</v>
       </c>
       <c r="F71" t="n">
-        <v>5.2032</v>
+        <v>3.7723</v>
       </c>
       <c r="G71" t="n">
-        <v>-665.5591000000004</v>
+        <v>-293.274</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>57100</v>
+        <v>57850</v>
       </c>
       <c r="C72" t="n">
-        <v>57000</v>
+        <v>57850</v>
       </c>
       <c r="D72" t="n">
-        <v>57100</v>
+        <v>57850</v>
       </c>
       <c r="E72" t="n">
-        <v>57000</v>
+        <v>57850</v>
       </c>
       <c r="F72" t="n">
-        <v>21.824</v>
+        <v>0.2893</v>
       </c>
       <c r="G72" t="n">
-        <v>-687.3831000000004</v>
+        <v>-293.274</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>56700</v>
+        <v>57850</v>
       </c>
       <c r="C73" t="n">
-        <v>56800</v>
+        <v>57800</v>
       </c>
       <c r="D73" t="n">
-        <v>56800</v>
+        <v>57850</v>
       </c>
       <c r="E73" t="n">
-        <v>56650</v>
+        <v>57800</v>
       </c>
       <c r="F73" t="n">
-        <v>7.83</v>
+        <v>9.3856</v>
       </c>
       <c r="G73" t="n">
-        <v>-695.2131000000004</v>
+        <v>-302.6596</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>56500</v>
+        <v>57700</v>
       </c>
       <c r="C74" t="n">
-        <v>56300</v>
+        <v>57700</v>
       </c>
       <c r="D74" t="n">
-        <v>56500</v>
+        <v>57700</v>
       </c>
       <c r="E74" t="n">
-        <v>56300</v>
+        <v>57700</v>
       </c>
       <c r="F74" t="n">
-        <v>45.6</v>
+        <v>1.931</v>
       </c>
       <c r="G74" t="n">
-        <v>-740.8131000000004</v>
+        <v>-304.5906</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>56500</v>
+        <v>57600</v>
       </c>
       <c r="C75" t="n">
-        <v>56200</v>
+        <v>57600</v>
       </c>
       <c r="D75" t="n">
-        <v>56500</v>
+        <v>57600</v>
       </c>
       <c r="E75" t="n">
-        <v>56200</v>
+        <v>57600</v>
       </c>
       <c r="F75" t="n">
-        <v>52</v>
+        <v>0.85</v>
       </c>
       <c r="G75" t="n">
-        <v>-792.8131000000004</v>
+        <v>-305.4406</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="C76" t="n">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="D76" t="n">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="E76" t="n">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>20.0393</v>
       </c>
       <c r="G76" t="n">
-        <v>-789.8131000000004</v>
+        <v>-325.4799</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="C77" t="n">
-        <v>56500</v>
+        <v>57300</v>
       </c>
       <c r="D77" t="n">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="E77" t="n">
-        <v>56500</v>
+        <v>57300</v>
       </c>
       <c r="F77" t="n">
-        <v>8.160399999999999</v>
+        <v>3.6602</v>
       </c>
       <c r="G77" t="n">
-        <v>-797.9735000000004</v>
+        <v>-321.8197000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>56750</v>
+        <v>57400</v>
       </c>
       <c r="C78" t="n">
-        <v>56750</v>
+        <v>57400</v>
       </c>
       <c r="D78" t="n">
-        <v>56750</v>
+        <v>57400</v>
       </c>
       <c r="E78" t="n">
-        <v>56750</v>
+        <v>57400</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0121</v>
+        <v>9</v>
       </c>
       <c r="G78" t="n">
-        <v>-797.9614000000004</v>
+        <v>-312.8197000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="C79" t="n">
-        <v>57000</v>
+        <v>57300</v>
       </c>
       <c r="D79" t="n">
-        <v>57000</v>
+        <v>57300</v>
       </c>
       <c r="E79" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0234</v>
+        <v>31.0448</v>
       </c>
       <c r="G79" t="n">
-        <v>-797.9380000000003</v>
+        <v>-343.8645000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="C80" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="D80" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="E80" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0185</v>
+        <v>24.5702</v>
       </c>
       <c r="G80" t="n">
-        <v>-797.9380000000003</v>
+        <v>-368.4347000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="C81" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="D81" t="n">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="E81" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="F81" t="n">
-        <v>6.8</v>
+        <v>117.5</v>
       </c>
       <c r="G81" t="n">
-        <v>-797.9380000000003</v>
+        <v>-485.9347000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>57050</v>
+        <v>56800</v>
       </c>
       <c r="C82" t="n">
-        <v>57050</v>
+        <v>56750</v>
       </c>
       <c r="D82" t="n">
-        <v>57050</v>
+        <v>56800</v>
       </c>
       <c r="E82" t="n">
-        <v>57050</v>
+        <v>56750</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2</v>
+        <v>20.4873</v>
       </c>
       <c r="G82" t="n">
-        <v>-797.7380000000003</v>
+        <v>-506.4220000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="C83" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="D83" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="E83" t="n">
-        <v>57050</v>
+        <v>57000</v>
       </c>
       <c r="F83" t="n">
-        <v>3.8587</v>
+        <v>0.1496</v>
       </c>
       <c r="G83" t="n">
-        <v>-797.7380000000003</v>
+        <v>-506.2724000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="C84" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="D84" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="E84" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8161</v>
+        <v>0.0528</v>
       </c>
       <c r="G84" t="n">
-        <v>-798.5541000000003</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>57050</v>
       </c>
       <c r="C85" t="n">
-        <v>57150</v>
+        <v>57050</v>
       </c>
       <c r="D85" t="n">
-        <v>57150</v>
+        <v>57050</v>
       </c>
       <c r="E85" t="n">
         <v>57050</v>
       </c>
       <c r="F85" t="n">
-        <v>56.61448538</v>
+        <v>0.0528</v>
       </c>
       <c r="G85" t="n">
-        <v>-741.9396146200003</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3465,19 +3465,19 @@
         <v>57050</v>
       </c>
       <c r="C86" t="n">
-        <v>56900</v>
+        <v>57050</v>
       </c>
       <c r="D86" t="n">
         <v>57050</v>
       </c>
       <c r="E86" t="n">
-        <v>56900</v>
+        <v>57050</v>
       </c>
       <c r="F86" t="n">
-        <v>48</v>
+        <v>3843.044</v>
       </c>
       <c r="G86" t="n">
-        <v>-789.9396146200003</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="C87" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="D87" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="E87" t="n">
-        <v>56950</v>
+        <v>57050</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1731</v>
+        <v>64050</v>
       </c>
       <c r="G87" t="n">
-        <v>-789.7665146200003</v>
+        <v>-506.2196000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="C88" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="D88" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="E88" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="F88" t="n">
-        <v>7.2135</v>
+        <v>0.0561</v>
       </c>
       <c r="G88" t="n">
-        <v>-782.5530146200003</v>
+        <v>-506.1635000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="C89" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="D89" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="E89" t="n">
-        <v>57150</v>
+        <v>57250</v>
       </c>
       <c r="F89" t="n">
-        <v>24.8312</v>
+        <v>11.198</v>
       </c>
       <c r="G89" t="n">
-        <v>-782.5530146200003</v>
+        <v>-506.1635000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>57150</v>
+        <v>57050</v>
       </c>
       <c r="C90" t="n">
-        <v>57150</v>
+        <v>57050</v>
       </c>
       <c r="D90" t="n">
-        <v>57150</v>
+        <v>57050</v>
       </c>
       <c r="E90" t="n">
-        <v>57150</v>
+        <v>57050</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0803</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-782.5530146200003</v>
+        <v>-506.2452000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>57250</v>
+        <v>57350</v>
       </c>
       <c r="C91" t="n">
-        <v>57250</v>
+        <v>57350</v>
       </c>
       <c r="D91" t="n">
-        <v>57250</v>
+        <v>57350</v>
       </c>
       <c r="E91" t="n">
-        <v>57250</v>
+        <v>57350</v>
       </c>
       <c r="F91" t="n">
-        <v>16.9375</v>
+        <v>37.2012</v>
       </c>
       <c r="G91" t="n">
-        <v>-765.6155146200003</v>
+        <v>-469.0440000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="C92" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="D92" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="E92" t="n">
-        <v>57250</v>
+        <v>57050</v>
       </c>
       <c r="F92" t="n">
-        <v>0.58</v>
+        <v>0.8244</v>
       </c>
       <c r="G92" t="n">
-        <v>-765.6155146200003</v>
+        <v>-469.8684000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>57000</v>
+        <v>56900</v>
       </c>
       <c r="C93" t="n">
-        <v>56850</v>
+        <v>56900</v>
       </c>
       <c r="D93" t="n">
-        <v>57000</v>
+        <v>56900</v>
       </c>
       <c r="E93" t="n">
-        <v>56850</v>
+        <v>56900</v>
       </c>
       <c r="F93" t="n">
-        <v>15.3</v>
+        <v>10.3013</v>
       </c>
       <c r="G93" t="n">
-        <v>-780.9155146200003</v>
+        <v>-480.1697000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>56850</v>
+        <v>56900</v>
       </c>
       <c r="C94" t="n">
-        <v>56850</v>
+        <v>57200</v>
       </c>
       <c r="D94" t="n">
-        <v>56850</v>
+        <v>57200</v>
       </c>
       <c r="E94" t="n">
-        <v>56850</v>
+        <v>56900</v>
       </c>
       <c r="F94" t="n">
-        <v>8.864599999999999</v>
+        <v>20.4</v>
       </c>
       <c r="G94" t="n">
-        <v>-780.9155146200003</v>
+        <v>-459.7697000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>56850</v>
+        <v>57200</v>
       </c>
       <c r="C95" t="n">
-        <v>56850</v>
+        <v>57200</v>
       </c>
       <c r="D95" t="n">
-        <v>56850</v>
+        <v>57200</v>
       </c>
       <c r="E95" t="n">
-        <v>56850</v>
+        <v>57200</v>
       </c>
       <c r="F95" t="n">
-        <v>0.049</v>
+        <v>0.1958</v>
       </c>
       <c r="G95" t="n">
-        <v>-780.9155146200003</v>
+        <v>-459.7697000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="C96" t="n">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="D96" t="n">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="E96" t="n">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="F96" t="n">
-        <v>70.7996</v>
+        <v>0.3577</v>
       </c>
       <c r="G96" t="n">
-        <v>-851.7151146200003</v>
+        <v>-459.4120000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="C97" t="n">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="D97" t="n">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="E97" t="n">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="F97" t="n">
-        <v>1.7655</v>
+        <v>14.2445</v>
       </c>
       <c r="G97" t="n">
-        <v>-849.9496146200004</v>
+        <v>-459.4120000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="C98" t="n">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="D98" t="n">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="E98" t="n">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="F98" t="n">
-        <v>4.0726</v>
+        <v>65.4007</v>
       </c>
       <c r="G98" t="n">
-        <v>-854.0222146200003</v>
+        <v>-459.4120000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>56700</v>
+        <v>57550</v>
       </c>
       <c r="C99" t="n">
-        <v>56600</v>
+        <v>57550</v>
       </c>
       <c r="D99" t="n">
-        <v>56700</v>
+        <v>57550</v>
       </c>
       <c r="E99" t="n">
-        <v>56600</v>
+        <v>57550</v>
       </c>
       <c r="F99" t="n">
-        <v>10.8276</v>
+        <v>0.35</v>
       </c>
       <c r="G99" t="n">
-        <v>-843.1946146200004</v>
+        <v>-459.0620000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="C100" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="D100" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="E100" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="F100" t="n">
-        <v>1.7823</v>
+        <v>0.4823</v>
       </c>
       <c r="G100" t="n">
-        <v>-843.1946146200004</v>
+        <v>-459.5443000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="C101" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="D101" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="E101" t="n">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="F101" t="n">
-        <v>6.6283</v>
+        <v>0.4581</v>
       </c>
       <c r="G101" t="n">
-        <v>-843.1946146200004</v>
+        <v>-459.5443000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>56550</v>
+        <v>57300</v>
       </c>
       <c r="C102" t="n">
-        <v>56550</v>
+        <v>57300</v>
       </c>
       <c r="D102" t="n">
-        <v>56550</v>
+        <v>57300</v>
       </c>
       <c r="E102" t="n">
-        <v>56550</v>
+        <v>57300</v>
       </c>
       <c r="F102" t="n">
-        <v>7.1</v>
+        <v>2.0058</v>
       </c>
       <c r="G102" t="n">
-        <v>-850.2946146200004</v>
+        <v>-461.5501000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>56500</v>
+        <v>57300</v>
       </c>
       <c r="C103" t="n">
-        <v>56350</v>
+        <v>57300</v>
       </c>
       <c r="D103" t="n">
-        <v>56500</v>
+        <v>57300</v>
       </c>
       <c r="E103" t="n">
-        <v>56350</v>
+        <v>57300</v>
       </c>
       <c r="F103" t="n">
-        <v>94.3633</v>
+        <v>5.5712</v>
       </c>
       <c r="G103" t="n">
-        <v>-944.6579146200004</v>
+        <v>-461.5501000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>56400</v>
+        <v>57300</v>
       </c>
       <c r="C104" t="n">
-        <v>56400</v>
+        <v>57300</v>
       </c>
       <c r="D104" t="n">
-        <v>56400</v>
+        <v>57300</v>
       </c>
       <c r="E104" t="n">
-        <v>56400</v>
+        <v>57300</v>
       </c>
       <c r="F104" t="n">
-        <v>0.14184397</v>
+        <v>0.3525</v>
       </c>
       <c r="G104" t="n">
-        <v>-944.5160706500004</v>
+        <v>-461.5501000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>56250</v>
+        <v>57350</v>
       </c>
       <c r="C105" t="n">
-        <v>56250</v>
+        <v>57350</v>
       </c>
       <c r="D105" t="n">
-        <v>56250</v>
+        <v>57350</v>
       </c>
       <c r="E105" t="n">
-        <v>56250</v>
+        <v>57350</v>
       </c>
       <c r="F105" t="n">
-        <v>16.0032</v>
+        <v>0.025</v>
       </c>
       <c r="G105" t="n">
-        <v>-960.5192706500004</v>
+        <v>-461.5251000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>56200</v>
+        <v>57300</v>
       </c>
       <c r="C106" t="n">
-        <v>56150</v>
+        <v>57300</v>
       </c>
       <c r="D106" t="n">
-        <v>56200</v>
+        <v>57300</v>
       </c>
       <c r="E106" t="n">
-        <v>56150</v>
+        <v>57300</v>
       </c>
       <c r="F106" t="n">
-        <v>12.3219</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-972.8411706500004</v>
+        <v>-461.5956000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>56650</v>
+        <v>57050</v>
       </c>
       <c r="C107" t="n">
-        <v>56650</v>
+        <v>57050</v>
       </c>
       <c r="D107" t="n">
-        <v>56650</v>
+        <v>57050</v>
       </c>
       <c r="E107" t="n">
-        <v>56650</v>
+        <v>57050</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0176</v>
+        <v>1.2916</v>
       </c>
       <c r="G107" t="n">
-        <v>-972.8235706500004</v>
+        <v>-462.8872000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>56400</v>
+        <v>57100</v>
       </c>
       <c r="C108" t="n">
-        <v>56400</v>
+        <v>57100</v>
       </c>
       <c r="D108" t="n">
-        <v>56400</v>
+        <v>57100</v>
       </c>
       <c r="E108" t="n">
-        <v>56400</v>
+        <v>57100</v>
       </c>
       <c r="F108" t="n">
-        <v>10.0049</v>
+        <v>0.025</v>
       </c>
       <c r="G108" t="n">
-        <v>-982.8284706500004</v>
+        <v>-462.8622000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="C109" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="D109" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="E109" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="F109" t="n">
-        <v>2.0453</v>
+        <v>1.35</v>
       </c>
       <c r="G109" t="n">
-        <v>-980.7831706500004</v>
+        <v>-464.2122000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="C110" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="D110" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="E110" t="n">
-        <v>56750</v>
+        <v>57000</v>
       </c>
       <c r="F110" t="n">
-        <v>4.5831</v>
+        <v>3.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>-980.7831706500004</v>
+        <v>-464.2122000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>56800</v>
+        <v>56950</v>
       </c>
       <c r="C111" t="n">
-        <v>56850</v>
+        <v>56950</v>
       </c>
       <c r="D111" t="n">
-        <v>56850</v>
+        <v>56950</v>
       </c>
       <c r="E111" t="n">
-        <v>56800</v>
+        <v>56950</v>
       </c>
       <c r="F111" t="n">
-        <v>3.8022</v>
+        <v>0.273</v>
       </c>
       <c r="G111" t="n">
-        <v>-976.9809706500005</v>
+        <v>-464.4852000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>56950</v>
+        <v>57450</v>
       </c>
       <c r="C112" t="n">
-        <v>56950</v>
+        <v>57450</v>
       </c>
       <c r="D112" t="n">
-        <v>56950</v>
+        <v>57450</v>
       </c>
       <c r="E112" t="n">
-        <v>56950</v>
+        <v>57450</v>
       </c>
       <c r="F112" t="n">
-        <v>2.1882</v>
+        <v>3.3799</v>
       </c>
       <c r="G112" t="n">
-        <v>-974.7927706500004</v>
+        <v>-461.1053000000002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>56950</v>
+        <v>57500</v>
       </c>
       <c r="C113" t="n">
-        <v>56950</v>
+        <v>57500</v>
       </c>
       <c r="D113" t="n">
-        <v>56950</v>
+        <v>57500</v>
       </c>
       <c r="E113" t="n">
-        <v>56950</v>
+        <v>57500</v>
       </c>
       <c r="F113" t="n">
-        <v>22.1963</v>
+        <v>16.3399</v>
       </c>
       <c r="G113" t="n">
-        <v>-974.7927706500004</v>
+        <v>-444.7654000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>57050</v>
+        <v>57600</v>
       </c>
       <c r="C114" t="n">
-        <v>57050</v>
+        <v>57650</v>
       </c>
       <c r="D114" t="n">
-        <v>57050</v>
+        <v>57650</v>
       </c>
       <c r="E114" t="n">
-        <v>57050</v>
+        <v>57600</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8167</v>
+        <v>63.3575</v>
       </c>
       <c r="G114" t="n">
-        <v>-973.9760706500005</v>
+        <v>-381.4079000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>56950</v>
+        <v>57600</v>
       </c>
       <c r="C115" t="n">
-        <v>56950</v>
+        <v>57600</v>
       </c>
       <c r="D115" t="n">
-        <v>56950</v>
+        <v>57600</v>
       </c>
       <c r="E115" t="n">
-        <v>56950</v>
+        <v>57600</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0249</v>
+        <v>0.99</v>
       </c>
       <c r="G115" t="n">
-        <v>-974.0009706500005</v>
+        <v>-382.3979000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>56350</v>
+        <v>57650</v>
       </c>
       <c r="C116" t="n">
-        <v>56200</v>
+        <v>57650</v>
       </c>
       <c r="D116" t="n">
-        <v>56350</v>
+        <v>57650</v>
       </c>
       <c r="E116" t="n">
-        <v>56200</v>
+        <v>57650</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>77.9374</v>
       </c>
       <c r="G116" t="n">
-        <v>-984.0009706500005</v>
+        <v>-304.4605000000003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>56300</v>
+        <v>57800</v>
       </c>
       <c r="C117" t="n">
-        <v>56300</v>
+        <v>57800</v>
       </c>
       <c r="D117" t="n">
-        <v>56300</v>
+        <v>57800</v>
       </c>
       <c r="E117" t="n">
-        <v>56300</v>
+        <v>57800</v>
       </c>
       <c r="F117" t="n">
-        <v>71.0214</v>
+        <v>39.2411</v>
       </c>
       <c r="G117" t="n">
-        <v>-912.9795706500005</v>
+        <v>-265.2194000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,35 +4614,31 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>56100</v>
+        <v>57700</v>
       </c>
       <c r="C118" t="n">
-        <v>56100</v>
+        <v>57700</v>
       </c>
       <c r="D118" t="n">
-        <v>56100</v>
+        <v>57700</v>
       </c>
       <c r="E118" t="n">
-        <v>56100</v>
+        <v>57700</v>
       </c>
       <c r="F118" t="n">
-        <v>56.5999</v>
+        <v>0.0165</v>
       </c>
       <c r="G118" t="n">
-        <v>-969.5794706500005</v>
+        <v>-265.2359000000002</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>56300</v>
-      </c>
-      <c r="K118" t="n">
-        <v>56300</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4654,40 +4650,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>56100</v>
+        <v>57250</v>
       </c>
       <c r="C119" t="n">
-        <v>56100</v>
+        <v>57200</v>
       </c>
       <c r="D119" t="n">
-        <v>56100</v>
+        <v>57250</v>
       </c>
       <c r="E119" t="n">
-        <v>56100</v>
+        <v>57200</v>
       </c>
       <c r="F119" t="n">
-        <v>7.3066</v>
+        <v>10.1738</v>
       </c>
       <c r="G119" t="n">
-        <v>-969.5794706500005</v>
+        <v>-275.4097000000003</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>56100</v>
-      </c>
-      <c r="K119" t="n">
-        <v>56300</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4698,40 +4686,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>56050</v>
+        <v>57200</v>
       </c>
       <c r="C120" t="n">
-        <v>56050</v>
+        <v>57200</v>
       </c>
       <c r="D120" t="n">
-        <v>56050</v>
+        <v>57200</v>
       </c>
       <c r="E120" t="n">
-        <v>56050</v>
+        <v>57200</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4765</v>
+        <v>19.7577</v>
       </c>
       <c r="G120" t="n">
-        <v>-970.0559706500005</v>
+        <v>-275.4097000000003</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>56100</v>
-      </c>
-      <c r="K120" t="n">
-        <v>56300</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4742,35 +4722,31 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>56700</v>
+        <v>57550</v>
       </c>
       <c r="C121" t="n">
-        <v>56700</v>
+        <v>57550</v>
       </c>
       <c r="D121" t="n">
-        <v>56700</v>
+        <v>57550</v>
       </c>
       <c r="E121" t="n">
-        <v>56700</v>
+        <v>57550</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2858</v>
+        <v>11.1441</v>
       </c>
       <c r="G121" t="n">
-        <v>-969.7701706500005</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>56050</v>
-      </c>
-      <c r="K121" t="n">
-        <v>56050</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
@@ -4782,40 +4758,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>57400</v>
+        <v>57500</v>
       </c>
       <c r="C122" t="n">
+        <v>57550</v>
+      </c>
+      <c r="D122" t="n">
+        <v>57550</v>
+      </c>
+      <c r="E122" t="n">
         <v>57500</v>
       </c>
-      <c r="D122" t="n">
-        <v>57500</v>
-      </c>
-      <c r="E122" t="n">
-        <v>57400</v>
-      </c>
       <c r="F122" t="n">
-        <v>15.7248</v>
+        <v>50</v>
       </c>
       <c r="G122" t="n">
-        <v>-954.0453706500006</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>56700</v>
-      </c>
-      <c r="K122" t="n">
-        <v>56050</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4826,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>57800</v>
+        <v>57550</v>
       </c>
       <c r="C123" t="n">
-        <v>57800</v>
+        <v>57550</v>
       </c>
       <c r="D123" t="n">
-        <v>57800</v>
+        <v>57550</v>
       </c>
       <c r="E123" t="n">
-        <v>57800</v>
+        <v>57550</v>
       </c>
       <c r="F123" t="n">
-        <v>0.85</v>
+        <v>7.7738</v>
       </c>
       <c r="G123" t="n">
-        <v>-953.1953706500005</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4850,14 +4818,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>56050</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4868,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>58000</v>
+        <v>57550</v>
       </c>
       <c r="C124" t="n">
-        <v>57950</v>
+        <v>57550</v>
       </c>
       <c r="D124" t="n">
-        <v>58000</v>
+        <v>57550</v>
       </c>
       <c r="E124" t="n">
-        <v>57950</v>
+        <v>57550</v>
       </c>
       <c r="F124" t="n">
-        <v>1.4767</v>
+        <v>2.0721</v>
       </c>
       <c r="G124" t="n">
-        <v>-951.7186706500005</v>
+        <v>-264.2656000000003</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4904,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>57950</v>
+        <v>57900</v>
       </c>
       <c r="C125" t="n">
-        <v>58000</v>
+        <v>57450</v>
       </c>
       <c r="D125" t="n">
-        <v>58000</v>
+        <v>58300</v>
       </c>
       <c r="E125" t="n">
-        <v>57950</v>
+        <v>57450</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4926</v>
+        <v>394.3235</v>
       </c>
       <c r="G125" t="n">
-        <v>-951.2260706500005</v>
+        <v>-658.5891000000004</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4940,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="C126" t="n">
-        <v>58100</v>
+        <v>57900</v>
       </c>
       <c r="D126" t="n">
-        <v>58100</v>
+        <v>57900</v>
       </c>
       <c r="E126" t="n">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="F126" t="n">
-        <v>0.836</v>
+        <v>13.6</v>
       </c>
       <c r="G126" t="n">
-        <v>-950.3900706500004</v>
+        <v>-644.9891000000003</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4976,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="C127" t="n">
-        <v>58400</v>
+        <v>57900</v>
       </c>
       <c r="D127" t="n">
-        <v>58400</v>
+        <v>57900</v>
       </c>
       <c r="E127" t="n">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="F127" t="n">
-        <v>95.233</v>
+        <v>5.1464</v>
       </c>
       <c r="G127" t="n">
-        <v>-855.1570706500004</v>
+        <v>-644.9891000000003</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5012,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>58300</v>
+        <v>57900</v>
       </c>
       <c r="C128" t="n">
-        <v>58400</v>
+        <v>57900</v>
       </c>
       <c r="D128" t="n">
-        <v>58400</v>
+        <v>57900</v>
       </c>
       <c r="E128" t="n">
-        <v>58300</v>
+        <v>57900</v>
       </c>
       <c r="F128" t="n">
-        <v>59.0024</v>
+        <v>0.0001</v>
       </c>
       <c r="G128" t="n">
-        <v>-855.1570706500004</v>
+        <v>-644.9891000000003</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5048,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>58400</v>
+        <v>58350</v>
       </c>
       <c r="C129" t="n">
-        <v>58400</v>
+        <v>58100</v>
       </c>
       <c r="D129" t="n">
-        <v>58400</v>
+        <v>58350</v>
       </c>
       <c r="E129" t="n">
-        <v>58400</v>
+        <v>58100</v>
       </c>
       <c r="F129" t="n">
-        <v>5.118</v>
+        <v>10.5241</v>
       </c>
       <c r="G129" t="n">
-        <v>-855.1570706500004</v>
+        <v>-634.4650000000004</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5084,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>58500</v>
+        <v>58100</v>
       </c>
       <c r="C130" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="D130" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="E130" t="n">
-        <v>58500</v>
+        <v>58100</v>
       </c>
       <c r="F130" t="n">
-        <v>27.0587</v>
+        <v>6.8</v>
       </c>
       <c r="G130" t="n">
-        <v>-828.0983706500003</v>
+        <v>-634.4650000000004</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5120,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="C131" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="D131" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="E131" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="F131" t="n">
-        <v>14.5913</v>
+        <v>6.7825</v>
       </c>
       <c r="G131" t="n">
-        <v>-828.0983706500003</v>
+        <v>-634.4650000000004</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5156,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="C132" t="n">
-        <v>58850</v>
+        <v>58050</v>
       </c>
       <c r="D132" t="n">
-        <v>58850</v>
+        <v>58100</v>
       </c>
       <c r="E132" t="n">
-        <v>58850</v>
+        <v>58050</v>
       </c>
       <c r="F132" t="n">
-        <v>40.2035</v>
+        <v>6.8175</v>
       </c>
       <c r="G132" t="n">
-        <v>-828.0983706500003</v>
+        <v>-641.2825000000004</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5192,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>59000</v>
+        <v>57850</v>
       </c>
       <c r="C133" t="n">
-        <v>59000</v>
+        <v>57850</v>
       </c>
       <c r="D133" t="n">
-        <v>59000</v>
+        <v>57850</v>
       </c>
       <c r="E133" t="n">
-        <v>59000</v>
+        <v>57850</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8186</v>
+        <v>1.9861</v>
       </c>
       <c r="G133" t="n">
-        <v>-827.2797706500004</v>
+        <v>-643.2686000000003</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5223,6 +5185,2846 @@
       </c>
       <c r="N133" t="inlineStr"/>
     </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>57900</v>
+      </c>
+      <c r="C134" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D134" t="n">
+        <v>57900</v>
+      </c>
+      <c r="E134" t="n">
+        <v>57900</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.8026</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-642.4660000000003</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>57950</v>
+      </c>
+      <c r="C135" t="n">
+        <v>57950</v>
+      </c>
+      <c r="D135" t="n">
+        <v>57950</v>
+      </c>
+      <c r="E135" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7.1686</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-635.2974000000004</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>57950</v>
+      </c>
+      <c r="C136" t="n">
+        <v>57950</v>
+      </c>
+      <c r="D136" t="n">
+        <v>57950</v>
+      </c>
+      <c r="E136" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9.723100000000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-635.2974000000004</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>57950</v>
+      </c>
+      <c r="C137" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D137" t="n">
+        <v>57950</v>
+      </c>
+      <c r="E137" t="n">
+        <v>57900</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.4918</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-637.7892000000004</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>57800</v>
+      </c>
+      <c r="C138" t="n">
+        <v>57800</v>
+      </c>
+      <c r="D138" t="n">
+        <v>57800</v>
+      </c>
+      <c r="E138" t="n">
+        <v>57800</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4.9402</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-642.7294000000004</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C139" t="n">
+        <v>57700</v>
+      </c>
+      <c r="D139" t="n">
+        <v>57700</v>
+      </c>
+      <c r="E139" t="n">
+        <v>57700</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-647.7294000000004</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>57650</v>
+      </c>
+      <c r="C140" t="n">
+        <v>57650</v>
+      </c>
+      <c r="D140" t="n">
+        <v>57650</v>
+      </c>
+      <c r="E140" t="n">
+        <v>57650</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7.8632</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-655.5926000000004</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>57450</v>
+      </c>
+      <c r="C141" t="n">
+        <v>57450</v>
+      </c>
+      <c r="D141" t="n">
+        <v>57450</v>
+      </c>
+      <c r="E141" t="n">
+        <v>57450</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.7633</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-660.3559000000004</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>57450</v>
+      </c>
+      <c r="C142" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D142" t="n">
+        <v>57450</v>
+      </c>
+      <c r="E142" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5.2032</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-665.5591000000004</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>57100</v>
+      </c>
+      <c r="C143" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E143" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21.824</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-687.3831000000004</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C144" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D144" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E144" t="n">
+        <v>56650</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-695.2131000000004</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C145" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D145" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E145" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F145" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-740.8131000000004</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C146" t="n">
+        <v>56200</v>
+      </c>
+      <c r="D146" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E146" t="n">
+        <v>56200</v>
+      </c>
+      <c r="F146" t="n">
+        <v>52</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-792.8131000000004</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>56300</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-789.8131000000004</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>56200</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C148" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D148" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E148" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8.160399999999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-797.9735000000004</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>56800</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="C149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="D149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="E149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-797.9614000000004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-797.9380000000003</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>56750</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-797.9380000000003</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-797.9380000000003</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-797.7380000000003</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3.8587</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-797.7380000000003</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.8161</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-798.5541000000003</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C156" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D156" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E156" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F156" t="n">
+        <v>56.61448538</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-741.9396146200003</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C157" t="n">
+        <v>56900</v>
+      </c>
+      <c r="D157" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E157" t="n">
+        <v>56900</v>
+      </c>
+      <c r="F157" t="n">
+        <v>48</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-789.9396146200003</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.1731</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-789.7665146200003</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.2135</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-782.5530146200003</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="C160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="F160" t="n">
+        <v>24.8312</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-782.5530146200003</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="C161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-782.5530146200003</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="E162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16.9375</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-765.6155146200003</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="E163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-765.6155146200003</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D164" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E164" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-780.9155146200003</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8.864599999999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-780.9155146200003</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-780.9155146200003</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>56300</v>
+      </c>
+      <c r="C167" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D167" t="n">
+        <v>56300</v>
+      </c>
+      <c r="E167" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F167" t="n">
+        <v>70.7996</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-851.7151146200003</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.7655</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-849.9496146200004</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C169" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D169" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E169" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4.0726</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-854.0222146200003</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>56500</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C170" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D170" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E170" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10.8276</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-843.1946146200004</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>56300</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="E171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.7823</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-843.1946146200004</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="E172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6.6283</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-843.1946146200004</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="C173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="D173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="E173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-850.2946146200004</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>56600</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C174" t="n">
+        <v>56350</v>
+      </c>
+      <c r="D174" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E174" t="n">
+        <v>56350</v>
+      </c>
+      <c r="F174" t="n">
+        <v>94.3633</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-944.6579146200004</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>56550</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="D175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="E175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.14184397</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-944.5160706500004</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>56350</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="C176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="D176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="E176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16.0032</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-960.5192706500004</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>56400</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>56200</v>
+      </c>
+      <c r="C177" t="n">
+        <v>56150</v>
+      </c>
+      <c r="D177" t="n">
+        <v>56200</v>
+      </c>
+      <c r="E177" t="n">
+        <v>56150</v>
+      </c>
+      <c r="F177" t="n">
+        <v>12.3219</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-972.8411706500004</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>56250</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="C178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="D178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="E178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-972.8235706500004</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>56150</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="D179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="E179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10.0049</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-982.8284706500004</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>56650</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="C180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="D180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="E180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.0453</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-980.7831706500004</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>56400</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="C181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="D181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="E181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4.5831</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-980.7831706500004</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C182" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D182" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E182" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3.8022</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-976.9809706500005</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>56750</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.1882</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-974.7927706500004</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F184" t="n">
+        <v>22.1963</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-974.7927706500004</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.8167</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-973.9760706500005</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-974.0009706500005</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>56350</v>
+      </c>
+      <c r="C187" t="n">
+        <v>56200</v>
+      </c>
+      <c r="D187" t="n">
+        <v>56350</v>
+      </c>
+      <c r="E187" t="n">
+        <v>56200</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-984.0009706500005</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="C188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="E188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F188" t="n">
+        <v>71.0214</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-912.9795706500005</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="C189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="D189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="F189" t="n">
+        <v>56.5999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-969.5794706500005</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="C190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="D190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7.3066</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-969.5794706500005</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="C191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="D191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="E191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-970.0559706500005</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>56100</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="D192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.2858</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-969.7701706500005</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>56050</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>57400</v>
+      </c>
+      <c r="C193" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D193" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E193" t="n">
+        <v>57400</v>
+      </c>
+      <c r="F193" t="n">
+        <v>15.7248</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-954.0453706500006</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>56700</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="C194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="D194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="E194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-953.1953706500005</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>57500</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C195" t="n">
+        <v>57950</v>
+      </c>
+      <c r="D195" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E195" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.4767</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-951.7186706500005</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>57950</v>
+      </c>
+      <c r="C196" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D196" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E196" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.4926</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-951.2260706500005</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C197" t="n">
+        <v>58100</v>
+      </c>
+      <c r="D197" t="n">
+        <v>58100</v>
+      </c>
+      <c r="E197" t="n">
+        <v>58000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-950.3900706500004</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C198" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D198" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E198" t="n">
+        <v>57700</v>
+      </c>
+      <c r="F198" t="n">
+        <v>95.233</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-855.1570706500004</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>58300</v>
+      </c>
+      <c r="C199" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D199" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E199" t="n">
+        <v>58300</v>
+      </c>
+      <c r="F199" t="n">
+        <v>59.0024</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-855.1570706500004</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="C200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5.118</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-855.1570706500004</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>58500</v>
+      </c>
+      <c r="C201" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D201" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E201" t="n">
+        <v>58500</v>
+      </c>
+      <c r="F201" t="n">
+        <v>27.0587</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-828.0983706500003</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="C202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14.5913</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-828.0983706500003</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="C203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="F203" t="n">
+        <v>40.2035</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-828.0983706500003</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="D204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.8186</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-827.2797706500004</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>52.57789999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>50.83849999999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>31.66709999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>24.68149999999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>8.649399999999975</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-50.05060000000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-197.0181</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-197.4481</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-196.5492</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-193.3828</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,2392 +5203,2191 @@
         <v>-792.8131000000004</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E147" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-789.8131000000004</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C148" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D148" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E148" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8.160399999999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-797.9735000000004</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="C149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="D149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="E149" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-797.9614000000004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-797.9380000000003</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-797.9380000000003</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-797.9380000000003</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E153" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-797.7380000000003</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E154" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3.8587</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-797.7380000000003</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.8161</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-798.5541000000003</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C156" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D156" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E156" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F156" t="n">
+        <v>56.61448538</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-741.9396146200003</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C157" t="n">
+        <v>56900</v>
+      </c>
+      <c r="D157" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E157" t="n">
+        <v>56900</v>
+      </c>
+      <c r="F157" t="n">
+        <v>48</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-789.9396146200003</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E158" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.1731</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-789.7665146200003</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="C159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E159" t="n">
+        <v>57150</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.2135</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-782.5530146200003</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="C160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E160" t="n">
+        <v>57150</v>
+      </c>
+      <c r="F160" t="n">
+        <v>24.8312</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-782.5530146200003</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="C161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="D161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E161" t="n">
+        <v>57150</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-782.5530146200003</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="E162" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16.9375</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-765.6155146200003</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="E163" t="n">
+        <v>57250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-765.6155146200003</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D164" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E164" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F164" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-780.9155146200003</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E165" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8.864599999999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-780.9155146200003</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="C166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E166" t="n">
+        <v>56850</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-780.9155146200003</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>56300</v>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="C167" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D167" t="n">
+        <v>56300</v>
+      </c>
+      <c r="E167" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F167" t="n">
+        <v>70.7996</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-851.7151146200003</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>56850</v>
+      </c>
+      <c r="J167" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E168" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.7655</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-849.9496146200004</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J168" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C169" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D169" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E169" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4.0726</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-854.0222146200003</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>56500</v>
+      </c>
+      <c r="J169" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C147" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D147" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E147" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-789.8131000000004</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>56200</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C170" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D170" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E170" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10.8276</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-843.1946146200004</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J170" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C148" t="n">
-        <v>56500</v>
-      </c>
-      <c r="D148" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E148" t="n">
-        <v>56500</v>
-      </c>
-      <c r="F148" t="n">
-        <v>8.160399999999999</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-797.9735000000004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>56800</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="E171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.7823</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-843.1946146200004</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>56600</v>
+      </c>
+      <c r="J171" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>56750</v>
-      </c>
-      <c r="C149" t="n">
-        <v>56750</v>
-      </c>
-      <c r="D149" t="n">
-        <v>56750</v>
-      </c>
-      <c r="E149" t="n">
-        <v>56750</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.0121</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-797.9614000000004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="E172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6.6283</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-843.1946146200004</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>56600</v>
+      </c>
+      <c r="J172" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C150" t="n">
-        <v>57000</v>
-      </c>
-      <c r="D150" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E150" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.0234</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-797.9380000000003</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>56750</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="C173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="D173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="E173" t="n">
+        <v>56550</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-850.2946146200004</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>56600</v>
+      </c>
+      <c r="J173" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C151" t="n">
-        <v>57000</v>
-      </c>
-      <c r="D151" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E151" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-797.9380000000003</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C174" t="n">
+        <v>56350</v>
+      </c>
+      <c r="D174" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E174" t="n">
+        <v>56350</v>
+      </c>
+      <c r="F174" t="n">
+        <v>94.3633</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-944.6579146200004</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>56550</v>
+      </c>
+      <c r="J174" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C152" t="n">
-        <v>57000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E152" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F152" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-797.9380000000003</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="D175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="E175" t="n">
+        <v>56400</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.14184397</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-944.5160706500004</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J175" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C153" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D153" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E153" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-797.7380000000003</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="C176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="D176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="E176" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16.0032</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-960.5192706500004</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J176" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C154" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D154" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E154" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3.8587</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-797.7380000000003</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>56200</v>
+      </c>
+      <c r="C177" t="n">
+        <v>56150</v>
+      </c>
+      <c r="D177" t="n">
+        <v>56200</v>
+      </c>
+      <c r="E177" t="n">
+        <v>56150</v>
+      </c>
+      <c r="F177" t="n">
+        <v>12.3219</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-972.8411706500004</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>56250</v>
+      </c>
+      <c r="J177" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C155" t="n">
-        <v>57000</v>
-      </c>
-      <c r="D155" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E155" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.8161</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-798.5541000000003</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="C178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="D178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="E178" t="n">
+        <v>56650</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-972.8235706500004</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J178" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C156" t="n">
-        <v>57150</v>
-      </c>
-      <c r="D156" t="n">
-        <v>57150</v>
-      </c>
-      <c r="E156" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F156" t="n">
-        <v>56.61448538</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-741.9396146200003</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="D179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="E179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10.0049</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-982.8284706500004</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C157" t="n">
-        <v>56900</v>
-      </c>
-      <c r="D157" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E157" t="n">
-        <v>56900</v>
-      </c>
-      <c r="F157" t="n">
-        <v>48</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-789.9396146200003</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="C180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="D180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="E180" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.0453</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-980.7831706500004</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C158" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D158" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E158" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.1731</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-789.7665146200003</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="C181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="D181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="E181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4.5831</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-980.7831706500004</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>57150</v>
-      </c>
-      <c r="C159" t="n">
-        <v>57150</v>
-      </c>
-      <c r="D159" t="n">
-        <v>57150</v>
-      </c>
-      <c r="E159" t="n">
-        <v>57150</v>
-      </c>
-      <c r="F159" t="n">
-        <v>7.2135</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-782.5530146200003</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C182" t="n">
+        <v>56850</v>
+      </c>
+      <c r="D182" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E182" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3.8022</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-976.9809706500005</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>57150</v>
-      </c>
-      <c r="C160" t="n">
-        <v>57150</v>
-      </c>
-      <c r="D160" t="n">
-        <v>57150</v>
-      </c>
-      <c r="E160" t="n">
-        <v>57150</v>
-      </c>
-      <c r="F160" t="n">
-        <v>24.8312</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-782.5530146200003</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E183" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.1882</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-974.7927706500004</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>57150</v>
-      </c>
-      <c r="C161" t="n">
-        <v>57150</v>
-      </c>
-      <c r="D161" t="n">
-        <v>57150</v>
-      </c>
-      <c r="E161" t="n">
-        <v>57150</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.0803</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-782.5530146200003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E184" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F184" t="n">
+        <v>22.1963</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-974.7927706500004</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>57250</v>
-      </c>
-      <c r="C162" t="n">
-        <v>57250</v>
-      </c>
-      <c r="D162" t="n">
-        <v>57250</v>
-      </c>
-      <c r="E162" t="n">
-        <v>57250</v>
-      </c>
-      <c r="F162" t="n">
-        <v>16.9375</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-765.6155146200003</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E185" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.8167</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-973.9760706500005</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>57250</v>
-      </c>
-      <c r="C163" t="n">
-        <v>57250</v>
-      </c>
-      <c r="D163" t="n">
-        <v>57250</v>
-      </c>
-      <c r="E163" t="n">
-        <v>57250</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-765.6155146200003</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="C186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="E186" t="n">
+        <v>56950</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-974.0009706500005</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C164" t="n">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>56350</v>
+      </c>
+      <c r="C187" t="n">
+        <v>56200</v>
+      </c>
+      <c r="D187" t="n">
+        <v>56350</v>
+      </c>
+      <c r="E187" t="n">
+        <v>56200</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-984.0009706500005</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
         <v>56850</v>
       </c>
-      <c r="D164" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E164" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F164" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="C188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="E188" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F188" t="n">
+        <v>71.0214</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-912.9795706500005</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
         <v>56850</v>
       </c>
-      <c r="C165" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D165" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E165" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F165" t="n">
-        <v>8.864599999999999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="C189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="D189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E189" t="n">
+        <v>56100</v>
+      </c>
+      <c r="F189" t="n">
+        <v>56.5999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-969.5794706500005</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
         <v>56850</v>
       </c>
-      <c r="C166" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D166" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E166" t="n">
-        <v>56850</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>56300</v>
-      </c>
-      <c r="C167" t="n">
-        <v>56300</v>
-      </c>
-      <c r="D167" t="n">
-        <v>56300</v>
-      </c>
-      <c r="E167" t="n">
-        <v>56300</v>
-      </c>
-      <c r="F167" t="n">
-        <v>70.7996</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-851.7151146200003</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="C190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="D190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7.3066</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-969.5794706500005</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J190" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>56500</v>
-      </c>
-      <c r="C168" t="n">
-        <v>56500</v>
-      </c>
-      <c r="D168" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E168" t="n">
-        <v>56500</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1.7655</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-849.9496146200004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="C191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="D191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="E191" t="n">
+        <v>56050</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.4765</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-970.0559706500005</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J191" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>56500</v>
-      </c>
-      <c r="C169" t="n">
-        <v>56300</v>
-      </c>
-      <c r="D169" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E169" t="n">
-        <v>56300</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4.0726</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-854.0222146200003</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>56500</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="D192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E192" t="n">
+        <v>56700</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.2858</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-969.7701706500005</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" t="n">
+        <v>56050</v>
+      </c>
+      <c r="J192" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>57400</v>
+      </c>
+      <c r="C193" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D193" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E193" t="n">
+        <v>57400</v>
+      </c>
+      <c r="F193" t="n">
+        <v>15.7248</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-954.0453706500006</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+      <c r="I193" t="n">
         <v>56700</v>
       </c>
-      <c r="C170" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D170" t="n">
-        <v>56700</v>
-      </c>
-      <c r="E170" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F170" t="n">
-        <v>10.8276</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>56300</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="J193" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>56600</v>
-      </c>
-      <c r="C171" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D171" t="n">
-        <v>56600</v>
-      </c>
-      <c r="E171" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1.7823</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>56600</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="C194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="D194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="E194" t="n">
+        <v>57800</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-953.1953706500005</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+      <c r="I194" t="n">
+        <v>57500</v>
+      </c>
+      <c r="J194" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>56600</v>
-      </c>
-      <c r="C172" t="n">
-        <v>56600</v>
-      </c>
-      <c r="D172" t="n">
-        <v>56600</v>
-      </c>
-      <c r="E172" t="n">
-        <v>56600</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6.6283</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>56600</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C195" t="n">
+        <v>57950</v>
+      </c>
+      <c r="D195" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E195" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.4767</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-951.7186706500005</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" t="n">
+        <v>57800</v>
+      </c>
+      <c r="J195" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>56550</v>
-      </c>
-      <c r="C173" t="n">
-        <v>56550</v>
-      </c>
-      <c r="D173" t="n">
-        <v>56550</v>
-      </c>
-      <c r="E173" t="n">
-        <v>56550</v>
-      </c>
-      <c r="F173" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-850.2946146200004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>56600</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>57950</v>
+      </c>
+      <c r="C196" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D196" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E196" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.4926</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-951.2260706500005</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>56500</v>
-      </c>
-      <c r="C174" t="n">
-        <v>56350</v>
-      </c>
-      <c r="D174" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E174" t="n">
-        <v>56350</v>
-      </c>
-      <c r="F174" t="n">
-        <v>94.3633</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-944.6579146200004</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>56550</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C197" t="n">
+        <v>58100</v>
+      </c>
+      <c r="D197" t="n">
+        <v>58100</v>
+      </c>
+      <c r="E197" t="n">
+        <v>58000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-950.3900706500004</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>56400</v>
-      </c>
-      <c r="C175" t="n">
-        <v>56400</v>
-      </c>
-      <c r="D175" t="n">
-        <v>56400</v>
-      </c>
-      <c r="E175" t="n">
-        <v>56400</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.14184397</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-944.5160706500004</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>56350</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C198" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D198" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E198" t="n">
+        <v>57700</v>
+      </c>
+      <c r="F198" t="n">
+        <v>95.233</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-855.1570706500004</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>56250</v>
-      </c>
-      <c r="C176" t="n">
-        <v>56250</v>
-      </c>
-      <c r="D176" t="n">
-        <v>56250</v>
-      </c>
-      <c r="E176" t="n">
-        <v>56250</v>
-      </c>
-      <c r="F176" t="n">
-        <v>16.0032</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-960.5192706500004</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>56400</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>58300</v>
+      </c>
+      <c r="C199" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D199" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E199" t="n">
+        <v>58300</v>
+      </c>
+      <c r="F199" t="n">
+        <v>59.0024</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-855.1570706500004</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>56200</v>
-      </c>
-      <c r="C177" t="n">
-        <v>56150</v>
-      </c>
-      <c r="D177" t="n">
-        <v>56200</v>
-      </c>
-      <c r="E177" t="n">
-        <v>56150</v>
-      </c>
-      <c r="F177" t="n">
-        <v>12.3219</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-972.8411706500004</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>56250</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="C200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E200" t="n">
+        <v>58400</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5.118</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-855.1570706500004</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>56650</v>
-      </c>
-      <c r="C178" t="n">
-        <v>56650</v>
-      </c>
-      <c r="D178" t="n">
-        <v>56650</v>
-      </c>
-      <c r="E178" t="n">
-        <v>56650</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.0176</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-972.8235706500004</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>56150</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>58500</v>
+      </c>
+      <c r="C201" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D201" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E201" t="n">
+        <v>58500</v>
+      </c>
+      <c r="F201" t="n">
+        <v>27.0587</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-828.0983706500003</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>56400</v>
-      </c>
-      <c r="C179" t="n">
-        <v>56400</v>
-      </c>
-      <c r="D179" t="n">
-        <v>56400</v>
-      </c>
-      <c r="E179" t="n">
-        <v>56400</v>
-      </c>
-      <c r="F179" t="n">
-        <v>10.0049</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-982.8284706500004</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>56650</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="C202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E202" t="n">
+        <v>58850</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14.5913</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-828.0983706500003</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>56750</v>
-      </c>
-      <c r="C180" t="n">
-        <v>56750</v>
-      </c>
-      <c r="D180" t="n">
-        <v>56750</v>
-      </c>
-      <c r="E180" t="n">
-        <v>56750</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2.0453</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-980.7831706500004</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>56400</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="C203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="E203" t="n">
+        <v>58850</v>
+      </c>
+      <c r="F203" t="n">
+        <v>40.2035</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-828.0983706500003</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>56750</v>
-      </c>
-      <c r="C181" t="n">
-        <v>56750</v>
-      </c>
-      <c r="D181" t="n">
-        <v>56750</v>
-      </c>
-      <c r="E181" t="n">
-        <v>56750</v>
-      </c>
-      <c r="F181" t="n">
-        <v>4.5831</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-980.7831706500004</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>56750</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="D204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E204" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.8186</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-827.2797706500004</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>56850</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C182" t="n">
-        <v>56850</v>
-      </c>
-      <c r="D182" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E182" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3.8022</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-976.9809706500005</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>56750</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C183" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D183" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E183" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2.1882</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-974.7927706500004</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>56850</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C184" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D184" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E184" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F184" t="n">
-        <v>22.1963</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-974.7927706500004</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C185" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D185" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E185" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.8167</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-973.9760706500005</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>56950</v>
-      </c>
-      <c r="C186" t="n">
-        <v>56950</v>
-      </c>
-      <c r="D186" t="n">
-        <v>56950</v>
-      </c>
-      <c r="E186" t="n">
-        <v>56950</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.0249</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-974.0009706500005</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>56350</v>
-      </c>
-      <c r="C187" t="n">
-        <v>56200</v>
-      </c>
-      <c r="D187" t="n">
-        <v>56350</v>
-      </c>
-      <c r="E187" t="n">
-        <v>56200</v>
-      </c>
-      <c r="F187" t="n">
-        <v>10</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-984.0009706500005</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>56300</v>
-      </c>
-      <c r="C188" t="n">
-        <v>56300</v>
-      </c>
-      <c r="D188" t="n">
-        <v>56300</v>
-      </c>
-      <c r="E188" t="n">
-        <v>56300</v>
-      </c>
-      <c r="F188" t="n">
-        <v>71.0214</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-912.9795706500005</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>56100</v>
-      </c>
-      <c r="C189" t="n">
-        <v>56100</v>
-      </c>
-      <c r="D189" t="n">
-        <v>56100</v>
-      </c>
-      <c r="E189" t="n">
-        <v>56100</v>
-      </c>
-      <c r="F189" t="n">
-        <v>56.5999</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-969.5794706500005</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>56100</v>
-      </c>
-      <c r="C190" t="n">
-        <v>56100</v>
-      </c>
-      <c r="D190" t="n">
-        <v>56100</v>
-      </c>
-      <c r="E190" t="n">
-        <v>56100</v>
-      </c>
-      <c r="F190" t="n">
-        <v>7.3066</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-969.5794706500005</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>56100</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>56050</v>
-      </c>
-      <c r="C191" t="n">
-        <v>56050</v>
-      </c>
-      <c r="D191" t="n">
-        <v>56050</v>
-      </c>
-      <c r="E191" t="n">
-        <v>56050</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.4765</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-970.0559706500005</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>56100</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>56700</v>
-      </c>
-      <c r="C192" t="n">
-        <v>56700</v>
-      </c>
-      <c r="D192" t="n">
-        <v>56700</v>
-      </c>
-      <c r="E192" t="n">
-        <v>56700</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.2858</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-969.7701706500005</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>56050</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>57400</v>
-      </c>
-      <c r="C193" t="n">
-        <v>57500</v>
-      </c>
-      <c r="D193" t="n">
-        <v>57500</v>
-      </c>
-      <c r="E193" t="n">
-        <v>57400</v>
-      </c>
-      <c r="F193" t="n">
-        <v>15.7248</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-954.0453706500006</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>56700</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>57800</v>
-      </c>
-      <c r="C194" t="n">
-        <v>57800</v>
-      </c>
-      <c r="D194" t="n">
-        <v>57800</v>
-      </c>
-      <c r="E194" t="n">
-        <v>57800</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-953.1953706500005</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>57500</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>58000</v>
-      </c>
-      <c r="C195" t="n">
-        <v>57950</v>
-      </c>
-      <c r="D195" t="n">
-        <v>58000</v>
-      </c>
-      <c r="E195" t="n">
-        <v>57950</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1.4767</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-951.7186706500005</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>57950</v>
-      </c>
-      <c r="C196" t="n">
-        <v>58000</v>
-      </c>
-      <c r="D196" t="n">
-        <v>58000</v>
-      </c>
-      <c r="E196" t="n">
-        <v>57950</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.4926</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-951.2260706500005</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>58000</v>
-      </c>
-      <c r="C197" t="n">
-        <v>58100</v>
-      </c>
-      <c r="D197" t="n">
-        <v>58100</v>
-      </c>
-      <c r="E197" t="n">
-        <v>58000</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-950.3900706500004</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>57700</v>
-      </c>
-      <c r="C198" t="n">
-        <v>58400</v>
-      </c>
-      <c r="D198" t="n">
-        <v>58400</v>
-      </c>
-      <c r="E198" t="n">
-        <v>57700</v>
-      </c>
-      <c r="F198" t="n">
-        <v>95.233</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>58300</v>
-      </c>
-      <c r="C199" t="n">
-        <v>58400</v>
-      </c>
-      <c r="D199" t="n">
-        <v>58400</v>
-      </c>
-      <c r="E199" t="n">
-        <v>58300</v>
-      </c>
-      <c r="F199" t="n">
-        <v>59.0024</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>58400</v>
-      </c>
-      <c r="C200" t="n">
-        <v>58400</v>
-      </c>
-      <c r="D200" t="n">
-        <v>58400</v>
-      </c>
-      <c r="E200" t="n">
-        <v>58400</v>
-      </c>
-      <c r="F200" t="n">
-        <v>5.118</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>58500</v>
-      </c>
-      <c r="C201" t="n">
-        <v>58850</v>
-      </c>
-      <c r="D201" t="n">
-        <v>58850</v>
-      </c>
-      <c r="E201" t="n">
-        <v>58500</v>
-      </c>
-      <c r="F201" t="n">
-        <v>27.0587</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>58850</v>
-      </c>
-      <c r="C202" t="n">
-        <v>58850</v>
-      </c>
-      <c r="D202" t="n">
-        <v>58850</v>
-      </c>
-      <c r="E202" t="n">
-        <v>58850</v>
-      </c>
-      <c r="F202" t="n">
-        <v>14.5913</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>58850</v>
-      </c>
-      <c r="C203" t="n">
-        <v>58850</v>
-      </c>
-      <c r="D203" t="n">
-        <v>58850</v>
-      </c>
-      <c r="E203" t="n">
-        <v>58850</v>
-      </c>
-      <c r="F203" t="n">
-        <v>40.2035</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>59000</v>
-      </c>
-      <c r="C204" t="n">
-        <v>59000</v>
-      </c>
-      <c r="D204" t="n">
-        <v>59000</v>
-      </c>
-      <c r="E204" t="n">
-        <v>59000</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.8186</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-827.2797706500004</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-72.14320000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-68.05170000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-70.07170000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-70.07170000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-65.07170000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-65.57170000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-65.27170000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-56.27170000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-56.22620000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-43.95340000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>52.57789999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>50.83849999999997</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>45.83809999999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>30.83809999999998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>31.66709999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>24.68149999999997</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>8.649399999999975</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-50.05060000000003</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-158.9272</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-158.9272</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-151.9272</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-209.4897</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-191.6897</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-191.1287</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-191.358</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-186.358</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-194.908</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-190.708</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-209.5896</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-196.4896</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-197.0181</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-197.4481</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-196.4481</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-196.5492</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-193.3828</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-269.5338</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-288.4616</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-289.8483000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-289.8483000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-292.0941</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-293.274</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-293.274</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-293.274</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-302.6596</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-304.5906</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-305.4406</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-325.4799</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-321.8197000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-312.8197000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-343.8645000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-368.4347000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-485.9347000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -5203,11 +5203,17 @@
         <v>-792.8131000000004</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>56300</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5242,17 @@
         <v>-789.8131000000004</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>56200</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5281,17 @@
         <v>-797.9735000000004</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>56800</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5320,17 @@
         <v>-797.9614000000004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>56500</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5359,17 @@
         <v>-797.9380000000003</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>56750</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5398,17 @@
         <v>-797.9380000000003</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>57000</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5437,17 @@
         <v>-797.9380000000003</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>57000</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5476,17 @@
         <v>-797.7380000000003</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>57000</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5519,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5556,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5593,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5630,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5667,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5704,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5741,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5778,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5815,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5852,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5889,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +5926,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +5963,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,15 +5996,15 @@
         <v>-851.7151146200003</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>56850</v>
-      </c>
-      <c r="J167" t="n">
-        <v>56850</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,17 +6033,13 @@
         <v>-849.9496146200004</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>56300</v>
-      </c>
-      <c r="J168" t="n">
-        <v>56850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -5974,17 +6070,13 @@
         <v>-854.0222146200003</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J169" t="n">
-        <v>56850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6015,14 +6107,12 @@
         <v>-843.1946146200004</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>56300</v>
       </c>
-      <c r="J170" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,14 +6146,12 @@
         <v>-843.1946146200004</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>56600</v>
       </c>
-      <c r="J171" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,14 +6185,12 @@
         <v>-843.1946146200004</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>56600</v>
       </c>
-      <c r="J172" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,14 +6224,12 @@
         <v>-850.2946146200004</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>56600</v>
       </c>
-      <c r="J173" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6179,14 +6263,12 @@
         <v>-944.6579146200004</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>56550</v>
       </c>
-      <c r="J174" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,14 +6302,12 @@
         <v>-944.5160706500004</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>56350</v>
       </c>
-      <c r="J175" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6261,14 +6341,12 @@
         <v>-960.5192706500004</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>56400</v>
       </c>
-      <c r="J176" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,14 +6380,12 @@
         <v>-972.8411706500004</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>56250</v>
       </c>
-      <c r="J177" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6343,14 +6419,12 @@
         <v>-972.8235706500004</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>56150</v>
       </c>
-      <c r="J178" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,12 +6458,12 @@
         <v>-982.8284706500004</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>56850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>56650</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6423,12 +6497,12 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>56850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6462,12 +6536,12 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>56850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>56750</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6501,12 +6575,12 @@
         <v>-976.9809706500005</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>56850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>56750</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6540,12 +6614,12 @@
         <v>-974.7927706500004</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
         <v>56850</v>
       </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,9 +6656,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,9 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,9 +6730,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,9 +6767,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6735,12 +6801,12 @@
         <v>-912.9795706500005</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>56850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6774,12 +6840,12 @@
         <v>-969.5794706500005</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>56850</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6813,14 +6879,12 @@
         <v>-969.5794706500005</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>56100</v>
       </c>
-      <c r="J190" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,14 +6918,12 @@
         <v>-970.0559706500005</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>56100</v>
       </c>
-      <c r="J191" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6895,14 +6957,12 @@
         <v>-969.7701706500005</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>56050</v>
       </c>
-      <c r="J192" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,14 +6996,12 @@
         <v>-954.0453706500006</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>56700</v>
       </c>
-      <c r="J193" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6977,14 +7035,12 @@
         <v>-953.1953706500005</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>57500</v>
       </c>
-      <c r="J194" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7018,14 +7074,10 @@
         <v>-951.7186706500005</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>57800</v>
-      </c>
-      <c r="J195" t="n">
-        <v>56850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,9 +7114,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7101,9 +7151,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7140,9 +7188,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,9 +7225,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,9 +7262,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7257,9 +7299,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7296,9 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7335,9 +7373,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7374,9 +7410,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>56850</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7388,6 +7422,6 @@
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-72.14320000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-68.05170000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-70.07170000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-70.07170000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-65.07170000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-65.57170000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-65.27170000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-56.27170000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-56.22620000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-43.95340000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>45.83809999999998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>30.83809999999998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>31.66709999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>24.68149999999997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>8.649399999999975</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-50.05060000000003</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-158.9272</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-158.9272</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-151.9272</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-209.4897</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-191.6897</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-191.1287</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-191.358</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-196.4481</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-269.5338</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-288.4616</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-289.8483000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-289.8483000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-292.0941</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-293.274</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-293.274</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-293.274</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-302.6596</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-304.5906</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-305.4406</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-325.4799</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-321.8197000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-312.8197000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-343.8645000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-368.4347000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-485.9347000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -5203,17 +5203,11 @@
         <v>-792.8131000000004</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>56300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5242,17 +5236,11 @@
         <v>-789.8131000000004</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>56200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5281,17 +5269,11 @@
         <v>-797.9735000000004</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>56800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5320,17 +5302,11 @@
         <v>-797.9614000000004</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>56500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5359,17 +5335,11 @@
         <v>-797.9380000000003</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>56750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5398,17 +5368,11 @@
         <v>-797.9380000000003</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>57000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5437,17 +5401,11 @@
         <v>-797.9380000000003</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>57000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5476,17 +5434,11 @@
         <v>-797.7380000000003</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>57000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5556,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5593,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5630,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5667,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5741,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5852,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5926,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5963,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6000,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6074,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6107,17 +5995,11 @@
         <v>-843.1946146200004</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>56300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6146,17 +6028,11 @@
         <v>-843.1946146200004</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>56600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6185,17 +6061,11 @@
         <v>-843.1946146200004</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>56600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6224,17 +6094,11 @@
         <v>-850.2946146200004</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>56600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6263,17 +6127,11 @@
         <v>-944.6579146200004</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>56550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6302,17 +6160,11 @@
         <v>-944.5160706500004</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>56350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6341,17 +6193,11 @@
         <v>-960.5192706500004</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>56400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6388,7 +6234,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6575,11 +6421,9 @@
         <v>-976.9809706500005</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>56750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6614,11 +6458,9 @@
         <v>-974.7927706500004</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>56850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6801,11 +6643,9 @@
         <v>-912.9795706500005</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>56200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6840,11 +6680,9 @@
         <v>-969.5794706500005</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>56300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6879,11 +6717,9 @@
         <v>-969.5794706500005</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>56100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6957,11 +6793,9 @@
         <v>-969.7701706500005</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>56050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6996,11 +6830,9 @@
         <v>-954.0453706500006</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>56700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7035,11 +6867,9 @@
         <v>-953.1953706500005</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>57500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7422,6 +7252,6 @@
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -979,7 +979,7 @@
         <v>20.06399999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>87.72759999999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>58.83269999999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>52.57789999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>50.83849999999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>59.28819999999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>57.83809999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>45.83809999999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>31.66709999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>24.68149999999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>8.649399999999975</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-50.05060000000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-158.9272</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-191.6897</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-191.358</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-190.708</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-209.5896</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-196.4896</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-196.4481</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-196.5492</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-193.3828</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-112.6207</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-112.6207</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-162.8438</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-237.4502</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-236.6236</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-237.4436</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-237.4436</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -6226,17 +6226,11 @@
         <v>-972.8411706500004</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>56250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6265,17 +6259,11 @@
         <v>-972.8235706500004</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>56150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6304,17 +6292,11 @@
         <v>-982.8284706500004</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>56650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6343,17 +6325,11 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>56400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6382,17 +6358,11 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>56750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6499,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6536,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6684,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6717,15 +6655,15 @@
         <v>-969.5794706500005</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J190" t="n">
+        <v>56100</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6759,10 +6697,12 @@
       <c r="I191" t="n">
         <v>56100</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>56100</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6793,13 +6733,17 @@
         <v>-969.7701706500005</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>56050</v>
+      </c>
+      <c r="J192" t="n">
+        <v>56100</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6830,15 +6774,15 @@
         <v>-954.0453706500006</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>56700</v>
+      </c>
+      <c r="J193" t="n">
+        <v>56700</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6870,10 +6814,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>56700</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6907,10 +6853,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>56700</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -6945,11 +6893,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6982,11 +6926,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7019,11 +6959,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +6992,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7093,11 +7025,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +7058,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7167,11 +7091,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +7124,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +7157,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-21 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-21 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>-72.14320000000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4.0915</v>
       </c>
       <c r="G3" t="n">
-        <v>-68.05170000000003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>-70.07170000000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2.0715</v>
       </c>
       <c r="G5" t="n">
-        <v>-70.07170000000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-65.07170000000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-65.57170000000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>0.3</v>
       </c>
       <c r="G8" t="n">
-        <v>-65.27170000000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>-56.27170000000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.0455</v>
       </c>
       <c r="G10" t="n">
-        <v>-56.22620000000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>12.2728</v>
       </c>
       <c r="G11" t="n">
-        <v>-43.95340000000003</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>-42.95340000000003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>16.6856</v>
       </c>
       <c r="G13" t="n">
-        <v>-26.26780000000003</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>0.8591</v>
       </c>
       <c r="G14" t="n">
-        <v>-25.40870000000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2.8306</v>
       </c>
       <c r="G15" t="n">
-        <v>-22.57810000000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3.0929</v>
       </c>
       <c r="G16" t="n">
-        <v>-19.48520000000003</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>59.5979</v>
       </c>
       <c r="G17" t="n">
-        <v>40.11269999999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>20.0487</v>
       </c>
       <c r="G18" t="n">
-        <v>20.06399999999998</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>67.6636</v>
       </c>
       <c r="G19" t="n">
-        <v>87.72759999999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>28.8949</v>
       </c>
       <c r="G20" t="n">
-        <v>58.83269999999998</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>6.2548</v>
       </c>
       <c r="G21" t="n">
-        <v>52.57789999999998</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1.7394</v>
       </c>
       <c r="G22" t="n">
-        <v>50.83849999999997</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1.4497</v>
       </c>
       <c r="G23" t="n">
-        <v>52.28819999999997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>59.28819999999997</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1.4501</v>
       </c>
       <c r="G25" t="n">
-        <v>57.83809999999998</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>45.83809999999998</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>30.83809999999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>0.829</v>
       </c>
       <c r="G28" t="n">
-        <v>31.66709999999998</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>8.8246</v>
       </c>
       <c r="G29" t="n">
-        <v>22.84249999999998</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>18.8816</v>
       </c>
       <c r="G30" t="n">
-        <v>22.84249999999998</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1.839</v>
       </c>
       <c r="G31" t="n">
-        <v>24.68149999999997</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>16.0321</v>
       </c>
       <c r="G32" t="n">
-        <v>8.649399999999975</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>58.7</v>
       </c>
       <c r="G33" t="n">
-        <v>-50.05060000000003</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>108.8766</v>
       </c>
       <c r="G34" t="n">
-        <v>-158.9272</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1.7757</v>
       </c>
       <c r="G35" t="n">
-        <v>-158.9272</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>-151.9272</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>57.5625</v>
       </c>
       <c r="G37" t="n">
-        <v>-209.4897</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>17.8</v>
       </c>
       <c r="G38" t="n">
-        <v>-191.6897</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-191.1287</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>0.2293</v>
       </c>
       <c r="G40" t="n">
-        <v>-191.358</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>-186.358</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>8.550000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-194.908</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4.2</v>
       </c>
       <c r="G43" t="n">
-        <v>-190.708</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>18.8816</v>
       </c>
       <c r="G44" t="n">
-        <v>-209.5896</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>13.1</v>
       </c>
       <c r="G45" t="n">
-        <v>-196.4896</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>0.5285</v>
       </c>
       <c r="G46" t="n">
-        <v>-197.0181</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>0.43</v>
       </c>
       <c r="G47" t="n">
-        <v>-197.4481</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>-196.4481</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>0.1011</v>
       </c>
       <c r="G49" t="n">
-        <v>-196.5492</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>3.1664</v>
       </c>
       <c r="G50" t="n">
-        <v>-193.3828</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>80.7621</v>
       </c>
       <c r="G51" t="n">
-        <v>-112.6207</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>4.4531</v>
       </c>
       <c r="G52" t="n">
-        <v>-112.6207</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>0.8264</v>
       </c>
       <c r="G53" t="n">
-        <v>-111.7943</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>0.0236</v>
       </c>
       <c r="G54" t="n">
-        <v>-111.7943</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1.6964</v>
       </c>
       <c r="G55" t="n">
-        <v>-111.7943</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>51.0495</v>
       </c>
       <c r="G56" t="n">
-        <v>-162.8438</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>74.60639999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-237.4502</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>0.8266</v>
       </c>
       <c r="G58" t="n">
-        <v>-236.6236</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>0.82</v>
       </c>
       <c r="G59" t="n">
-        <v>-237.4436</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>27.961</v>
       </c>
       <c r="G60" t="n">
-        <v>-237.4436</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>21.7967</v>
       </c>
       <c r="G61" t="n">
-        <v>-259.2403</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>0.1283</v>
       </c>
       <c r="G62" t="n">
-        <v>-259.2403</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>19.8</v>
       </c>
       <c r="G63" t="n">
-        <v>-259.2403</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1.41</v>
       </c>
       <c r="G64" t="n">
-        <v>-260.6503</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>8.8835</v>
       </c>
       <c r="G65" t="n">
-        <v>-269.5338</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>18.9278</v>
       </c>
       <c r="G66" t="n">
-        <v>-288.4616</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1.3867</v>
       </c>
       <c r="G67" t="n">
-        <v>-289.8483000000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>8.613300000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-289.8483000000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>2.2458</v>
       </c>
       <c r="G69" t="n">
-        <v>-292.0941</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1.1799</v>
       </c>
       <c r="G70" t="n">
-        <v>-293.274</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>3.7723</v>
       </c>
       <c r="G71" t="n">
-        <v>-293.274</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>0.2893</v>
       </c>
       <c r="G72" t="n">
-        <v>-293.274</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>9.3856</v>
       </c>
       <c r="G73" t="n">
-        <v>-302.6596</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1.931</v>
       </c>
       <c r="G74" t="n">
-        <v>-304.5906</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>0.85</v>
       </c>
       <c r="G75" t="n">
-        <v>-305.4406</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>20.0393</v>
       </c>
       <c r="G76" t="n">
-        <v>-325.4799</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3.6602</v>
       </c>
       <c r="G77" t="n">
-        <v>-321.8197000000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>9</v>
       </c>
       <c r="G78" t="n">
-        <v>-312.8197000000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>31.0448</v>
       </c>
       <c r="G79" t="n">
-        <v>-343.8645000000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>24.5702</v>
       </c>
       <c r="G80" t="n">
-        <v>-368.4347000000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>117.5</v>
       </c>
       <c r="G81" t="n">
-        <v>-485.9347000000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>20.4873</v>
       </c>
       <c r="G82" t="n">
-        <v>-506.4220000000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>0.1496</v>
       </c>
       <c r="G83" t="n">
-        <v>-506.2724000000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>0.0528</v>
       </c>
       <c r="G84" t="n">
-        <v>-506.2196000000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>0.0528</v>
       </c>
       <c r="G85" t="n">
-        <v>-506.2196000000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>3843.044</v>
       </c>
       <c r="G86" t="n">
-        <v>-506.2196000000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>64050</v>
       </c>
       <c r="G87" t="n">
-        <v>-506.2196000000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>0.0561</v>
       </c>
       <c r="G88" t="n">
-        <v>-506.1635000000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>11.198</v>
       </c>
       <c r="G89" t="n">
-        <v>-506.1635000000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-506.2452000000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>37.2012</v>
       </c>
       <c r="G91" t="n">
-        <v>-469.0440000000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>0.8244</v>
       </c>
       <c r="G92" t="n">
-        <v>-469.8684000000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>10.3013</v>
       </c>
       <c r="G93" t="n">
-        <v>-480.1697000000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>20.4</v>
       </c>
       <c r="G94" t="n">
-        <v>-459.7697000000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>0.1958</v>
       </c>
       <c r="G95" t="n">
-        <v>-459.7697000000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>0.3577</v>
       </c>
       <c r="G96" t="n">
-        <v>-459.4120000000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>14.2445</v>
       </c>
       <c r="G97" t="n">
-        <v>-459.4120000000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>65.4007</v>
       </c>
       <c r="G98" t="n">
-        <v>-459.4120000000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>0.35</v>
       </c>
       <c r="G99" t="n">
-        <v>-459.0620000000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>0.4823</v>
       </c>
       <c r="G100" t="n">
-        <v>-459.5443000000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>0.4581</v>
       </c>
       <c r="G101" t="n">
-        <v>-459.5443000000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>2.0058</v>
       </c>
       <c r="G102" t="n">
-        <v>-461.5501000000002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>5.5712</v>
       </c>
       <c r="G103" t="n">
-        <v>-461.5501000000002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>0.3525</v>
       </c>
       <c r="G104" t="n">
-        <v>-461.5501000000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>0.025</v>
       </c>
       <c r="G105" t="n">
-        <v>-461.5251000000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-461.5956000000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1.2916</v>
       </c>
       <c r="G107" t="n">
-        <v>-462.8872000000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>0.025</v>
       </c>
       <c r="G108" t="n">
-        <v>-462.8622000000002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1.35</v>
       </c>
       <c r="G109" t="n">
-        <v>-464.2122000000002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>3.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>-464.2122000000002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>0.273</v>
       </c>
       <c r="G111" t="n">
-        <v>-464.4852000000002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>3.3799</v>
       </c>
       <c r="G112" t="n">
-        <v>-461.1053000000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>16.3399</v>
       </c>
       <c r="G113" t="n">
-        <v>-444.7654000000002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>63.3575</v>
       </c>
       <c r="G114" t="n">
-        <v>-381.4079000000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>0.99</v>
       </c>
       <c r="G115" t="n">
-        <v>-382.3979000000002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>77.9374</v>
       </c>
       <c r="G116" t="n">
-        <v>-304.4605000000003</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>39.2411</v>
       </c>
       <c r="G117" t="n">
-        <v>-265.2194000000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>0.0165</v>
       </c>
       <c r="G118" t="n">
-        <v>-265.2359000000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>10.1738</v>
       </c>
       <c r="G119" t="n">
-        <v>-275.4097000000003</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>19.7577</v>
       </c>
       <c r="G120" t="n">
-        <v>-275.4097000000003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>11.1441</v>
       </c>
       <c r="G121" t="n">
-        <v>-264.2656000000003</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>50</v>
       </c>
       <c r="G122" t="n">
-        <v>-264.2656000000003</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>7.7738</v>
       </c>
       <c r="G123" t="n">
-        <v>-264.2656000000003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>2.0721</v>
       </c>
       <c r="G124" t="n">
-        <v>-264.2656000000003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>394.3235</v>
       </c>
       <c r="G125" t="n">
-        <v>-658.5891000000004</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>13.6</v>
       </c>
       <c r="G126" t="n">
-        <v>-644.9891000000003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>5.1464</v>
       </c>
       <c r="G127" t="n">
-        <v>-644.9891000000003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>0.0001</v>
       </c>
       <c r="G128" t="n">
-        <v>-644.9891000000003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>10.5241</v>
       </c>
       <c r="G129" t="n">
-        <v>-634.4650000000004</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>6.8</v>
       </c>
       <c r="G130" t="n">
-        <v>-634.4650000000004</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>6.7825</v>
       </c>
       <c r="G131" t="n">
-        <v>-634.4650000000004</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>6.8175</v>
       </c>
       <c r="G132" t="n">
-        <v>-641.2825000000004</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1.9861</v>
       </c>
       <c r="G133" t="n">
-        <v>-643.2686000000003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>0.8026</v>
       </c>
       <c r="G134" t="n">
-        <v>-642.4660000000003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>7.1686</v>
       </c>
       <c r="G135" t="n">
-        <v>-635.2974000000004</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>9.723100000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>-635.2974000000004</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>2.4918</v>
       </c>
       <c r="G137" t="n">
-        <v>-637.7892000000004</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>4.9402</v>
       </c>
       <c r="G138" t="n">
-        <v>-642.7294000000004</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>5</v>
       </c>
       <c r="G139" t="n">
-        <v>-647.7294000000004</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>7.8632</v>
       </c>
       <c r="G140" t="n">
-        <v>-655.5926000000004</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>4.7633</v>
       </c>
       <c r="G141" t="n">
-        <v>-660.3559000000004</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>5.2032</v>
       </c>
       <c r="G142" t="n">
-        <v>-665.5591000000004</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>21.824</v>
       </c>
       <c r="G143" t="n">
-        <v>-687.3831000000004</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>7.83</v>
       </c>
       <c r="G144" t="n">
-        <v>-695.2131000000004</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>45.6</v>
       </c>
       <c r="G145" t="n">
-        <v>-740.8131000000004</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>52</v>
       </c>
       <c r="G146" t="n">
-        <v>-792.8131000000004</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>-789.8131000000004</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>8.160399999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>-797.9735000000004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>0.0121</v>
       </c>
       <c r="G149" t="n">
-        <v>-797.9614000000004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>0.0234</v>
       </c>
       <c r="G150" t="n">
-        <v>-797.9380000000003</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>0.0185</v>
       </c>
       <c r="G151" t="n">
-        <v>-797.9380000000003</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>6.8</v>
       </c>
       <c r="G152" t="n">
-        <v>-797.9380000000003</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>0.2</v>
       </c>
       <c r="G153" t="n">
-        <v>-797.7380000000003</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>3.8587</v>
       </c>
       <c r="G154" t="n">
-        <v>-797.7380000000003</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>0.8161</v>
       </c>
       <c r="G155" t="n">
-        <v>-798.5541000000003</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>56.61448538</v>
       </c>
       <c r="G156" t="n">
-        <v>-741.9396146200003</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>48</v>
       </c>
       <c r="G157" t="n">
-        <v>-789.9396146200003</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>0.1731</v>
       </c>
       <c r="G158" t="n">
-        <v>-789.7665146200003</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>7.2135</v>
       </c>
       <c r="G159" t="n">
-        <v>-782.5530146200003</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>24.8312</v>
       </c>
       <c r="G160" t="n">
-        <v>-782.5530146200003</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>0.0803</v>
       </c>
       <c r="G161" t="n">
-        <v>-782.5530146200003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>16.9375</v>
       </c>
       <c r="G162" t="n">
-        <v>-765.6155146200003</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>0.58</v>
       </c>
       <c r="G163" t="n">
-        <v>-765.6155146200003</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>15.3</v>
       </c>
       <c r="G164" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>8.864599999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>0.049</v>
       </c>
       <c r="G166" t="n">
-        <v>-780.9155146200003</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>70.7996</v>
       </c>
       <c r="G167" t="n">
-        <v>-851.7151146200003</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>1.7655</v>
       </c>
       <c r="G168" t="n">
-        <v>-849.9496146200004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>4.0726</v>
       </c>
       <c r="G169" t="n">
-        <v>-854.0222146200003</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>10.8276</v>
       </c>
       <c r="G170" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>1.7823</v>
       </c>
       <c r="G171" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>6.6283</v>
       </c>
       <c r="G172" t="n">
-        <v>-843.1946146200004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>7.1</v>
       </c>
       <c r="G173" t="n">
-        <v>-850.2946146200004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>94.3633</v>
       </c>
       <c r="G174" t="n">
-        <v>-944.6579146200004</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>0.14184397</v>
       </c>
       <c r="G175" t="n">
-        <v>-944.5160706500004</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,19 @@
         <v>16.0032</v>
       </c>
       <c r="G176" t="n">
-        <v>-960.5192706500004</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>56400</v>
+      </c>
+      <c r="I176" t="n">
+        <v>56400</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5697,23 @@
         <v>12.3219</v>
       </c>
       <c r="G177" t="n">
-        <v>-972.8411706500004</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>56250</v>
+      </c>
+      <c r="I177" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5735,23 @@
         <v>0.0176</v>
       </c>
       <c r="G178" t="n">
-        <v>-972.8235706500004</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>56150</v>
+      </c>
+      <c r="I178" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5773,23 @@
         <v>10.0049</v>
       </c>
       <c r="G179" t="n">
-        <v>-982.8284706500004</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>56650</v>
+      </c>
+      <c r="I179" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5811,23 @@
         <v>2.0453</v>
       </c>
       <c r="G180" t="n">
-        <v>-980.7831706500004</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>56400</v>
+      </c>
+      <c r="I180" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5849,21 @@
         <v>4.5831</v>
       </c>
       <c r="G181" t="n">
-        <v>-980.7831706500004</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5885,21 @@
         <v>3.8022</v>
       </c>
       <c r="G182" t="n">
-        <v>-976.9809706500005</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5921,21 @@
         <v>2.1882</v>
       </c>
       <c r="G183" t="n">
-        <v>-974.7927706500004</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5957,21 @@
         <v>22.1963</v>
       </c>
       <c r="G184" t="n">
-        <v>-974.7927706500004</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5993,21 @@
         <v>0.8167</v>
       </c>
       <c r="G185" t="n">
-        <v>-973.9760706500005</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6029,21 @@
         <v>0.0249</v>
       </c>
       <c r="G186" t="n">
-        <v>-974.0009706500005</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6065,21 @@
         <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>-984.0009706500005</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6101,21 @@
         <v>71.0214</v>
       </c>
       <c r="G188" t="n">
-        <v>-912.9795706500005</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6137,21 @@
         <v>56.5999</v>
       </c>
       <c r="G189" t="n">
-        <v>-969.5794706500005</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,22 +6173,21 @@
         <v>7.3066</v>
       </c>
       <c r="G190" t="n">
-        <v>-969.5794706500005</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>56100</v>
-      </c>
-      <c r="J190" t="n">
-        <v>56100</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>56400</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6689,26 +6209,21 @@
         <v>0.4765</v>
       </c>
       <c r="G191" t="n">
-        <v>-970.0559706500005</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>56100</v>
-      </c>
-      <c r="J191" t="n">
-        <v>56100</v>
-      </c>
-      <c r="K191" t="inlineStr">
+        <v>56400</v>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6730,26 +6245,21 @@
         <v>0.2858</v>
       </c>
       <c r="G192" t="n">
-        <v>-969.7701706500005</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>56050</v>
-      </c>
-      <c r="J192" t="n">
-        <v>56100</v>
-      </c>
-      <c r="K192" t="inlineStr">
+        <v>56400</v>
+      </c>
+      <c r="J192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6771,22 +6281,21 @@
         <v>15.7248</v>
       </c>
       <c r="G193" t="n">
-        <v>-954.0453706500006</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>56700</v>
-      </c>
-      <c r="J193" t="n">
-        <v>56700</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>56400</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6808,24 +6317,21 @@
         <v>0.85</v>
       </c>
       <c r="G194" t="n">
-        <v>-953.1953706500005</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>56700</v>
-      </c>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6847,24 +6353,21 @@
         <v>1.4767</v>
       </c>
       <c r="G195" t="n">
-        <v>-951.7186706500005</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>56700</v>
-      </c>
-      <c r="K195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J195" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6886,18 +6389,21 @@
         <v>0.4926</v>
       </c>
       <c r="G196" t="n">
-        <v>-951.2260706500005</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6919,18 +6425,21 @@
         <v>0.836</v>
       </c>
       <c r="G197" t="n">
-        <v>-950.3900706500004</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6952,18 +6461,21 @@
         <v>95.233</v>
       </c>
       <c r="G198" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6985,18 +6497,21 @@
         <v>59.0024</v>
       </c>
       <c r="G199" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7018,18 +6533,21 @@
         <v>5.118</v>
       </c>
       <c r="G200" t="n">
-        <v>-855.1570706500004</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7051,18 +6569,21 @@
         <v>27.0587</v>
       </c>
       <c r="G201" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7084,18 +6605,21 @@
         <v>14.5913</v>
       </c>
       <c r="G202" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7117,18 +6641,21 @@
         <v>40.2035</v>
       </c>
       <c r="G203" t="n">
-        <v>-828.0983706500003</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1.038439716312057</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7150,18 +6677,15 @@
         <v>0.8186</v>
       </c>
       <c r="G204" t="n">
-        <v>-827.2797706500004</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
